--- a/data/body_tube_data.xlsx
+++ b/data/body_tube_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24080" windowHeight="29480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24080" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="279">
   <si>
     <t>ID inches</t>
   </si>
@@ -748,9 +748,6 @@
     <t>C38-400</t>
   </si>
   <si>
-    <t>dimensions based on .003 clearance and .061 wall</t>
-  </si>
-  <si>
     <t>C22-400</t>
   </si>
   <si>
@@ -763,10 +760,160 @@
     <t>C39-800HD</t>
   </si>
   <si>
-    <t>dimensions based on .003 clearance and .115 wall</t>
-  </si>
-  <si>
     <t>FC26</t>
+  </si>
+  <si>
+    <t>DISCOUNT ROCKETRY (modelrockets.us)</t>
+  </si>
+  <si>
+    <t>TC-38mm</t>
+  </si>
+  <si>
+    <t>TC-29mm</t>
+  </si>
+  <si>
+    <t>TC-24mm</t>
+  </si>
+  <si>
+    <t>TC-1.90</t>
+  </si>
+  <si>
+    <t>MR-11011 3.0" len</t>
+  </si>
+  <si>
+    <t>MR-11013 6.0" len</t>
+  </si>
+  <si>
+    <t>TC-3.90</t>
+  </si>
+  <si>
+    <t>TC-54mm</t>
+  </si>
+  <si>
+    <t>T-38mm</t>
+  </si>
+  <si>
+    <t>dimensions based on .010 clearance and .061 wall</t>
+  </si>
+  <si>
+    <t>dimensions based on .010 clearance and .115 wall</t>
+  </si>
+  <si>
+    <t>T-29mm</t>
+  </si>
+  <si>
+    <t>T-24mm</t>
+  </si>
+  <si>
+    <t>T-1.90</t>
+  </si>
+  <si>
+    <t>T-54mm</t>
+  </si>
+  <si>
+    <t>T-2.56</t>
+  </si>
+  <si>
+    <t>T-3.00</t>
+  </si>
+  <si>
+    <t>T-3.90</t>
+  </si>
+  <si>
+    <t>MR-06032 34", MR-06031 12"</t>
+  </si>
+  <si>
+    <t>MR-06018 13", MR-06019 34", MR-06016 7.0", MR-06017 7.5"</t>
+  </si>
+  <si>
+    <t>MR-06020 6.75", MR-06021 13.3", MR-06022 34"</t>
+  </si>
+  <si>
+    <t>MR-06033 34"</t>
+  </si>
+  <si>
+    <t>MR-06034 16", MR-06035 34"</t>
+  </si>
+  <si>
+    <t>MR-06026 34", MR-06025 15", MR-06024 11", MR-06023 7.5"</t>
+  </si>
+  <si>
+    <t>T-5.38</t>
+  </si>
+  <si>
+    <t>MR-06036 26", MR-06037 34", MR-06038 54"</t>
+  </si>
+  <si>
+    <t>MR-06027 8.5", MR-06028 12.75", MR-06029 25.75", MR-06030 34"</t>
+  </si>
+  <si>
+    <t>Oddly there is no 1.9" tube, though there is a coupler MR-11011</t>
+  </si>
+  <si>
+    <t>Cardboard Airframe - LOC exact compatible</t>
+  </si>
+  <si>
+    <t>Cardboard Couplers - not exact LOC sizes</t>
+  </si>
+  <si>
+    <t>ERROR: sizes don't line up against tube 2.56 ID</t>
+  </si>
+  <si>
+    <t>MR-11012 3.75" len, 0.005 clearance</t>
+  </si>
+  <si>
+    <t>MR-11010 4.0" len, 0.010 clearance</t>
+  </si>
+  <si>
+    <t>MR-11009 for 2.0" len, 0.005 clearance</t>
+  </si>
+  <si>
+    <t>MR-11008 for 2.0" len, 0.005 clearance</t>
+  </si>
+  <si>
+    <t>MR-11014 6.0" len, 0.005 clearance</t>
+  </si>
+  <si>
+    <t>MR-11015 6.0" len, 0.005 clearaance</t>
+  </si>
+  <si>
+    <t>no matching tube! Zero clearance vs Aerotech tube ID</t>
+  </si>
+  <si>
+    <t>Charlie Savoie confirmed at NSL 2017 that AT has never had a 3.0" tube</t>
+  </si>
+  <si>
+    <t>minor: zero clearance vs BT-1.52 tube ID</t>
+  </si>
+  <si>
+    <t>only 0.002 clearance</t>
+  </si>
+  <si>
+    <t>.005 clearance</t>
+  </si>
+  <si>
+    <t>.010 clearance</t>
+  </si>
+  <si>
+    <t>.016 clearance</t>
+  </si>
+  <si>
+    <t>.008 clearance</t>
+  </si>
+  <si>
+    <t>.007 clearance</t>
+  </si>
+  <si>
+    <t>.002 clearance</t>
+  </si>
+  <si>
+    <t>.000 clearance</t>
+  </si>
+  <si>
+    <t>.013 clearance</t>
+  </si>
+  <si>
+    <t>large clearance 0.013, is this right?</t>
   </si>
 </sst>
 </file>
@@ -863,9 +1010,67 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="196">
+  <cellStyleXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1080,7 +1285,7 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="196">
+  <cellStyles count="254">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1178,6 +1383,35 @@
     <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -1276,6 +1510,35 @@
     <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="252" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1605,10 +1868,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M212"/>
+  <dimension ref="A1:M239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A201" sqref="A201"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <pane ySplit="5060" topLeftCell="A216"/>
+      <selection activeCell="A130" sqref="A130"/>
+      <selection pane="bottomLeft" activeCell="D230" sqref="D230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3456,12 +3721,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" ht="30">
       <c r="A89" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H89" t="s">
         <v>106</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3876,7 +4144,7 @@
         <v>1.5170000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>120</v>
       </c>
@@ -3902,7 +4170,7 @@
         <v>2.137</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>121</v>
       </c>
@@ -3928,7 +4196,7 @@
         <v>2.5569999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>122</v>
       </c>
@@ -3954,7 +4222,7 @@
         <v>2.9969999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>123</v>
       </c>
@@ -3980,7 +4248,7 @@
         <v>3.8969999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>124</v>
       </c>
@@ -4006,7 +4274,7 @@
         <v>5.3769999999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>125</v>
       </c>
@@ -4032,7 +4300,7 @@
         <v>7.5119999999999996</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -4058,7 +4326,7 @@
         <v>2.9969999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -4084,7 +4352,7 @@
         <v>3.8969999999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>128</v>
       </c>
@@ -4109,8 +4377,14 @@
         <f t="shared" ref="G123:G130" si="32">B123-E123</f>
         <v>1.0030000000000001</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123" t="s">
+        <v>277</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>129</v>
       </c>
@@ -4135,8 +4409,14 @@
         <f t="shared" si="32"/>
         <v>1.395</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124" t="s">
+        <v>276</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>130</v>
       </c>
@@ -4161,8 +4441,14 @@
         <f t="shared" si="32"/>
         <v>2.0139999999999998</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="H125" t="s">
+        <v>275</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>131</v>
       </c>
@@ -4187,8 +4473,11 @@
         <f t="shared" si="32"/>
         <v>2.476</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="H126" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>132</v>
       </c>
@@ -4213,8 +4502,11 @@
         <f t="shared" si="32"/>
         <v>2.8769999999999998</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="H127" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>133</v>
       </c>
@@ -4239,6 +4531,9 @@
         <f t="shared" si="32"/>
         <v>3.8083999999999998</v>
       </c>
+      <c r="H128" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
@@ -4265,6 +4560,9 @@
         <f t="shared" si="32"/>
         <v>5.2690000000000001</v>
       </c>
+      <c r="H129" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
@@ -4291,6 +4589,9 @@
         <f t="shared" si="32"/>
         <v>7.3949999999999996</v>
       </c>
+      <c r="H130" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
@@ -5345,7 +5646,7 @@
     </row>
     <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B186" s="5">
         <v>2.375</v>
@@ -5792,28 +6093,28 @@
         <v>222</v>
       </c>
       <c r="B208" s="5">
-        <v>1.4</v>
+        <v>1.393</v>
       </c>
       <c r="C208" s="5">
-        <v>1.522</v>
+        <v>1.5149999999999999</v>
       </c>
       <c r="D208" s="5">
         <f t="shared" ref="D208" si="111">(C208-B208)/2</f>
-        <v>6.1000000000000054E-2</v>
+        <v>6.0999999999999943E-2</v>
       </c>
       <c r="E208" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F208" s="5">
         <f t="shared" ref="F208" si="112">C208+E208</f>
-        <v>1.5249999999999999</v>
+        <v>1.5179999999999998</v>
       </c>
       <c r="G208" s="5">
         <f t="shared" ref="G208" si="113">B208-E208</f>
-        <v>1.397</v>
+        <v>1.3900000000000001</v>
       </c>
       <c r="H208" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="I208" s="6" t="s">
         <v>179</v>
@@ -5821,31 +6122,31 @@
     </row>
     <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B209" s="5">
-        <v>2.0499999999999998</v>
+        <v>2.0430000000000001</v>
       </c>
       <c r="C209" s="5">
-        <v>2.1720000000000002</v>
+        <v>2.165</v>
       </c>
       <c r="D209" s="5">
         <f t="shared" ref="D209" si="114">(C209-B209)/2</f>
-        <v>6.1000000000000165E-2</v>
+        <v>6.0999999999999943E-2</v>
       </c>
       <c r="E209" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F209" s="5">
         <f t="shared" ref="F209" si="115">C209+E209</f>
-        <v>2.1750000000000003</v>
+        <v>2.1680000000000001</v>
       </c>
       <c r="G209" s="5">
         <f t="shared" ref="G209" si="116">B209-E209</f>
-        <v>2.0469999999999997</v>
+        <v>2.04</v>
       </c>
       <c r="H209" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="I209" s="6" t="s">
         <v>179</v>
@@ -5853,31 +6154,31 @@
     </row>
     <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B210" s="5">
-        <v>2.4329999999999998</v>
+        <v>2.4260000000000002</v>
       </c>
       <c r="C210" s="5">
-        <v>2.5550000000000002</v>
+        <v>2.548</v>
       </c>
       <c r="D210" s="5">
         <f t="shared" ref="D210:D211" si="117">(C210-B210)/2</f>
-        <v>6.1000000000000165E-2</v>
+        <v>6.0999999999999943E-2</v>
       </c>
       <c r="E210" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F210" s="5">
         <f t="shared" ref="F210:F211" si="118">C210+E210</f>
-        <v>2.5580000000000003</v>
+        <v>2.5510000000000002</v>
       </c>
       <c r="G210" s="5">
         <f t="shared" ref="G210:G211" si="119">B210-E210</f>
-        <v>2.4299999999999997</v>
+        <v>2.423</v>
       </c>
       <c r="H210" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="I210" s="6" t="s">
         <v>179</v>
@@ -5885,31 +6186,31 @@
     </row>
     <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B211" s="5">
-        <v>2.875</v>
+        <v>2.8679999999999999</v>
       </c>
       <c r="C211" s="5">
-        <v>2.9969999999999999</v>
+        <v>2.99</v>
       </c>
       <c r="D211" s="5">
         <f t="shared" si="117"/>
-        <v>6.0999999999999943E-2</v>
+        <v>6.1000000000000165E-2</v>
       </c>
       <c r="E211" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F211" s="5">
         <f t="shared" si="118"/>
-        <v>3</v>
+        <v>2.9930000000000003</v>
       </c>
       <c r="G211" s="5">
         <f t="shared" si="119"/>
-        <v>2.8719999999999999</v>
+        <v>2.8649999999999998</v>
       </c>
       <c r="H211" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="I211" s="6" t="s">
         <v>179</v>
@@ -5917,13 +6218,13 @@
     </row>
     <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B212" s="5">
-        <v>3.6669999999999998</v>
+        <v>3.66</v>
       </c>
       <c r="C212" s="5">
-        <v>3.8969999999999998</v>
+        <v>3.89</v>
       </c>
       <c r="D212" s="5">
         <f t="shared" ref="D212" si="120">(C212-B212)/2</f>
@@ -5934,17 +6235,510 @@
       </c>
       <c r="F212" s="5">
         <f t="shared" ref="F212" si="121">C212+E212</f>
-        <v>3.9</v>
+        <v>3.8930000000000002</v>
       </c>
       <c r="G212" s="5">
         <f t="shared" ref="G212" si="122">B212-E212</f>
-        <v>3.6639999999999997</v>
+        <v>3.657</v>
       </c>
       <c r="H212" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="I212" s="6" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" t="s">
+        <v>241</v>
+      </c>
+      <c r="B220" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="C220" s="5">
+        <v>1</v>
+      </c>
+      <c r="D220" s="5">
+        <f t="shared" ref="D220" si="123">(C220-B220)/2</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="E220" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F220" s="5">
+        <f t="shared" ref="F220" si="124">C220+E220</f>
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="G220" s="5">
+        <f t="shared" ref="G220" si="125">B220-E220</f>
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="H220" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" t="s">
+        <v>240</v>
+      </c>
+      <c r="B221" s="5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C221" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="D221" s="5">
+        <f t="shared" ref="D221" si="126">(C221-B221)/2</f>
+        <v>3.5000000000000031E-2</v>
+      </c>
+      <c r="E221" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F221" s="5">
+        <f t="shared" ref="F221" si="127">C221+E221</f>
+        <v>1.2129999999999999</v>
+      </c>
+      <c r="G221" s="5">
+        <f t="shared" ref="G221" si="128">B221-E221</f>
+        <v>1.137</v>
+      </c>
+      <c r="H221" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" t="s">
+        <v>237</v>
+      </c>
+      <c r="B222" s="5">
+        <v>1.52</v>
+      </c>
+      <c r="C222" s="5">
+        <v>1.63</v>
+      </c>
+      <c r="D222" s="5">
+        <f t="shared" ref="D222" si="129">(C222-B222)/2</f>
+        <v>5.4999999999999938E-2</v>
+      </c>
+      <c r="E222" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F222" s="5">
+        <f t="shared" ref="F222" si="130">C222+E222</f>
+        <v>1.6329999999999998</v>
+      </c>
+      <c r="G222" s="5">
+        <f t="shared" ref="G222" si="131">B222-E222</f>
+        <v>1.5170000000000001</v>
+      </c>
+      <c r="H222" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" t="s">
+        <v>242</v>
+      </c>
+      <c r="I223" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" t="s">
+        <v>243</v>
+      </c>
+      <c r="B224" s="5">
+        <v>2.14</v>
+      </c>
+      <c r="C224" s="5">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D224" s="5">
+        <f t="shared" ref="D224" si="132">(C224-B224)/2</f>
+        <v>5.9999999999999831E-2</v>
+      </c>
+      <c r="E224" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F224" s="5">
+        <f t="shared" ref="F224" si="133">C224+E224</f>
+        <v>2.2629999999999999</v>
+      </c>
+      <c r="G224" s="5">
+        <f t="shared" ref="G224" si="134">B224-E224</f>
+        <v>2.137</v>
+      </c>
+      <c r="H224" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" t="s">
+        <v>244</v>
+      </c>
+      <c r="B225" s="5">
+        <v>2.56</v>
+      </c>
+      <c r="C225" s="5">
+        <v>2.63</v>
+      </c>
+      <c r="D225" s="5">
+        <f t="shared" ref="D225" si="135">(C225-B225)/2</f>
+        <v>3.499999999999992E-2</v>
+      </c>
+      <c r="E225" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F225" s="5">
+        <f t="shared" ref="F225" si="136">C225+E225</f>
+        <v>2.633</v>
+      </c>
+      <c r="G225" s="5">
+        <f t="shared" ref="G225" si="137">B225-E225</f>
+        <v>2.5569999999999999</v>
+      </c>
+      <c r="H225" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" t="s">
+        <v>245</v>
+      </c>
+      <c r="B226" s="5">
+        <v>3</v>
+      </c>
+      <c r="C226" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="D226" s="5">
+        <f t="shared" ref="D226" si="138">(C226-B226)/2</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="E226" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F226" s="5">
+        <f t="shared" ref="F226" si="139">C226+E226</f>
+        <v>3.1030000000000002</v>
+      </c>
+      <c r="G226" s="5">
+        <f t="shared" ref="G226" si="140">B226-E226</f>
+        <v>2.9969999999999999</v>
+      </c>
+      <c r="H226" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" t="s">
+        <v>246</v>
+      </c>
+      <c r="B227" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="C227" s="5">
+        <v>4</v>
+      </c>
+      <c r="D227" s="5">
+        <f t="shared" ref="D227" si="141">(C227-B227)/2</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="E227" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F227" s="5">
+        <f t="shared" ref="F227" si="142">C227+E227</f>
+        <v>4.0030000000000001</v>
+      </c>
+      <c r="G227" s="5">
+        <f t="shared" ref="G227" si="143">B227-E227</f>
+        <v>3.8969999999999998</v>
+      </c>
+      <c r="H227" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" t="s">
+        <v>253</v>
+      </c>
+      <c r="B228" s="5">
+        <v>5.38</v>
+      </c>
+      <c r="C228" s="5">
+        <v>5.54</v>
+      </c>
+      <c r="D228" s="5">
+        <f t="shared" ref="D228" si="144">(C228-B228)/2</f>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="E228" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F228" s="5">
+        <f t="shared" ref="F228" si="145">C228+E228</f>
+        <v>5.5430000000000001</v>
+      </c>
+      <c r="G228" s="5">
+        <f t="shared" ref="G228" si="146">B228-E228</f>
+        <v>5.3769999999999998</v>
+      </c>
+      <c r="H228" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="C232" s="5">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="D232" s="5">
+        <f t="shared" ref="D232" si="147">(C232-B232)/2</f>
+        <v>3.4999999999999976E-2</v>
+      </c>
+      <c r="E232" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F232" s="5">
+        <f t="shared" ref="F232" si="148">C232+E232</f>
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G232" s="5">
+        <f t="shared" ref="G232" si="149">B232-E232</f>
+        <v>0.872</v>
+      </c>
+      <c r="H232" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" t="s">
+        <v>230</v>
+      </c>
+      <c r="B233" s="5">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="C233" s="5">
+        <v>1.135</v>
+      </c>
+      <c r="D233" s="5">
+        <f t="shared" ref="D233" si="150">(C233-B233)/2</f>
+        <v>3.5000000000000031E-2</v>
+      </c>
+      <c r="E233" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F233" s="5">
+        <f t="shared" ref="F233" si="151">C233+E233</f>
+        <v>1.1379999999999999</v>
+      </c>
+      <c r="G233" s="5">
+        <f t="shared" ref="G233" si="152">B233-E233</f>
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="H233" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" t="s">
+        <v>229</v>
+      </c>
+      <c r="B234" s="5">
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="C234" s="5">
+        <v>1.51</v>
+      </c>
+      <c r="D234" s="5">
+        <f t="shared" ref="D234" si="153">(C234-B234)/2</f>
+        <v>3.7499999999999978E-2</v>
+      </c>
+      <c r="E234" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F234" s="5">
+        <f t="shared" ref="F234" si="154">C234+E234</f>
+        <v>1.5129999999999999</v>
+      </c>
+      <c r="G234" s="5">
+        <f t="shared" ref="G234" si="155">B234-E234</f>
+        <v>1.4320000000000002</v>
+      </c>
+      <c r="H234" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" t="s">
+        <v>232</v>
+      </c>
+      <c r="B235" s="5">
+        <v>1.71</v>
+      </c>
+      <c r="C235" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="D235" s="5">
+        <f t="shared" ref="D235" si="156">(C235-B235)/2</f>
+        <v>4.500000000000004E-2</v>
+      </c>
+      <c r="E235" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F235" s="5">
+        <f t="shared" ref="F235" si="157">C235+E235</f>
+        <v>1.8029999999999999</v>
+      </c>
+      <c r="G235" s="5">
+        <f t="shared" ref="G235" si="158">B235-E235</f>
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="H235" t="s">
+        <v>233</v>
+      </c>
+      <c r="I235" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236" s="5">
+        <v>2.0150000000000001</v>
+      </c>
+      <c r="C236" s="5">
+        <v>2.1349999999999998</v>
+      </c>
+      <c r="D236" s="5">
+        <f t="shared" ref="D236" si="159">(C236-B236)/2</f>
+        <v>5.9999999999999831E-2</v>
+      </c>
+      <c r="E236" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F236" s="5">
+        <f t="shared" ref="F236" si="160">C236+E236</f>
+        <v>2.1379999999999999</v>
+      </c>
+      <c r="G236" s="5">
+        <f t="shared" ref="G236" si="161">B236-E236</f>
+        <v>2.012</v>
+      </c>
+      <c r="H236" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" t="s">
+        <v>131</v>
+      </c>
+      <c r="B237" s="5">
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="C237" s="5">
+        <v>2.6150000000000002</v>
+      </c>
+      <c r="D237" s="5">
+        <f t="shared" ref="D237" si="162">(C237-B237)/2</f>
+        <v>3.5000000000000142E-2</v>
+      </c>
+      <c r="E237" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F237" s="5">
+        <f t="shared" ref="F237" si="163">C237+E237</f>
+        <v>2.6180000000000003</v>
+      </c>
+      <c r="G237" s="5">
+        <f t="shared" ref="G237" si="164">B237-E237</f>
+        <v>2.5419999999999998</v>
+      </c>
+      <c r="H237" t="s">
+        <v>234</v>
+      </c>
+      <c r="I237" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" t="s">
+        <v>132</v>
+      </c>
+      <c r="B238" s="5">
+        <v>2.8849999999999998</v>
+      </c>
+      <c r="C238" s="5">
+        <v>2.9950000000000001</v>
+      </c>
+      <c r="D238" s="5">
+        <f t="shared" ref="D238" si="165">(C238-B238)/2</f>
+        <v>5.500000000000016E-2</v>
+      </c>
+      <c r="E238" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F238" s="5">
+        <f t="shared" ref="F238" si="166">C238+E238</f>
+        <v>2.9980000000000002</v>
+      </c>
+      <c r="G238" s="5">
+        <f t="shared" ref="G238" si="167">B238-E238</f>
+        <v>2.8819999999999997</v>
+      </c>
+      <c r="H238" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" t="s">
+        <v>235</v>
+      </c>
+      <c r="B239" s="5">
+        <v>3.7850000000000001</v>
+      </c>
+      <c r="C239" s="5">
+        <v>3.895</v>
+      </c>
+      <c r="D239" s="5">
+        <f t="shared" ref="D239" si="168">(C239-B239)/2</f>
+        <v>5.4999999999999938E-2</v>
+      </c>
+      <c r="E239" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F239" s="5">
+        <f t="shared" ref="F239" si="169">C239+E239</f>
+        <v>3.8980000000000001</v>
+      </c>
+      <c r="G239" s="5">
+        <f t="shared" ref="G239" si="170">B239-E239</f>
+        <v>3.782</v>
+      </c>
+      <c r="H239" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/data/body_tube_data.xlsx
+++ b/data/body_tube_data.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="288">
   <si>
     <t>ID inches</t>
   </si>
@@ -914,6 +914,33 @@
   </si>
   <si>
     <t>large clearance 0.013, is this right?</t>
+  </si>
+  <si>
+    <t>Carbon Fiber Airframes</t>
+  </si>
+  <si>
+    <t>FWCF-29</t>
+  </si>
+  <si>
+    <t>weight 1.8 oz/ft</t>
+  </si>
+  <si>
+    <t>FWCF-38</t>
+  </si>
+  <si>
+    <t>dimensions assumed same as FT16-STD</t>
+  </si>
+  <si>
+    <t>FWCF-54</t>
+  </si>
+  <si>
+    <t>dimensions assumed same as FT22-STD</t>
+  </si>
+  <si>
+    <t>FWCF-3</t>
+  </si>
+  <si>
+    <t>dimensions assumed same as FT30-STD</t>
   </si>
 </sst>
 </file>
@@ -1010,9 +1037,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="254">
+  <cellStyleXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1285,7 +1328,7 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="254">
+  <cellStyles count="270">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1412,6 +1455,14 @@
     <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -1539,6 +1590,14 @@
     <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1868,12 +1927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M239"/>
+  <dimension ref="A1:M247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <pane ySplit="5060" topLeftCell="A216"/>
-      <selection activeCell="A130" sqref="A130"/>
-      <selection pane="bottomLeft" activeCell="D230" sqref="D230"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5870,874 +5927,1015 @@
         <v>179</v>
       </c>
     </row>
+    <row r="194" spans="1:9">
+      <c r="I194" s="6"/>
+    </row>
     <row r="195" spans="1:9">
       <c r="A195" s="1" t="s">
-        <v>212</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="I195" s="6"/>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="I196" s="6"/>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>213</v>
+        <v>280</v>
       </c>
       <c r="B197" s="5">
-        <v>1.1399999999999999</v>
+        <v>1.145</v>
       </c>
       <c r="C197" s="5">
-        <v>1.2150000000000001</v>
+        <v>1.2549999999999999</v>
       </c>
       <c r="D197" s="5">
-        <f t="shared" ref="D197:D204" si="108">(C197-B197)/2</f>
-        <v>3.7500000000000089E-2</v>
+        <f t="shared" ref="D197" si="108">(C197-B197)/2</f>
+        <v>5.4999999999999938E-2</v>
       </c>
       <c r="E197" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F197" s="5">
-        <f t="shared" ref="F197:F204" si="109">C197+E197</f>
-        <v>1.218</v>
+        <f t="shared" ref="F197" si="109">C197+E197</f>
+        <v>1.2579999999999998</v>
       </c>
       <c r="G197" s="5">
-        <f t="shared" ref="G197:G204" si="110">B197-E197</f>
-        <v>1.137</v>
-      </c>
+        <f t="shared" ref="G197" si="110">B197-E197</f>
+        <v>1.1420000000000001</v>
+      </c>
+      <c r="H197" t="s">
+        <v>281</v>
+      </c>
+      <c r="I197" s="6"/>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="B198" s="5">
-        <v>1.5249999999999999</v>
+        <v>1.52</v>
       </c>
       <c r="C198" s="5">
-        <v>1.61</v>
+        <v>1.645</v>
       </c>
       <c r="D198" s="5">
-        <f t="shared" si="108"/>
-        <v>4.2500000000000093E-2</v>
+        <f t="shared" ref="D198" si="111">(C198-B198)/2</f>
+        <v>6.25E-2</v>
       </c>
       <c r="E198" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F198" s="5">
-        <f t="shared" si="109"/>
-        <v>1.613</v>
+        <f t="shared" ref="F198" si="112">C198+E198</f>
+        <v>1.6479999999999999</v>
       </c>
       <c r="G198" s="5">
-        <f t="shared" si="110"/>
-        <v>1.522</v>
+        <f t="shared" ref="G198" si="113">B198-E198</f>
+        <v>1.5170000000000001</v>
+      </c>
+      <c r="H198" t="s">
+        <v>283</v>
+      </c>
+      <c r="I198" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="B199" s="5">
-        <v>1.5249999999999999</v>
+        <v>2.1520000000000001</v>
       </c>
       <c r="C199" s="5">
-        <v>1.635</v>
+        <v>2.2770000000000001</v>
       </c>
       <c r="D199" s="5">
-        <f t="shared" si="108"/>
-        <v>5.5000000000000049E-2</v>
+        <f t="shared" ref="D199" si="114">(C199-B199)/2</f>
+        <v>6.25E-2</v>
       </c>
       <c r="E199" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F199" s="5">
-        <f t="shared" si="109"/>
-        <v>1.6379999999999999</v>
+        <f t="shared" ref="F199" si="115">C199+E199</f>
+        <v>2.2800000000000002</v>
       </c>
       <c r="G199" s="5">
-        <f t="shared" si="110"/>
-        <v>1.522</v>
+        <f t="shared" ref="G199" si="116">B199-E199</f>
+        <v>2.149</v>
+      </c>
+      <c r="H199" t="s">
+        <v>285</v>
+      </c>
+      <c r="I199" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>216</v>
+        <v>286</v>
       </c>
       <c r="B200" s="5">
-        <v>2.14</v>
+        <v>3</v>
       </c>
       <c r="C200" s="5">
-        <v>2.2599999999999998</v>
+        <v>3.125</v>
       </c>
       <c r="D200" s="5">
-        <f t="shared" si="108"/>
-        <v>5.9999999999999831E-2</v>
+        <f t="shared" ref="D200" si="117">(C200-B200)/2</f>
+        <v>6.25E-2</v>
       </c>
       <c r="E200" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F200" s="5">
-        <f t="shared" si="109"/>
-        <v>2.2629999999999999</v>
+        <f t="shared" ref="F200" si="118">C200+E200</f>
+        <v>3.1280000000000001</v>
       </c>
       <c r="G200" s="5">
-        <f t="shared" si="110"/>
-        <v>2.137</v>
+        <f t="shared" ref="G200" si="119">B200-E200</f>
+        <v>2.9969999999999999</v>
+      </c>
+      <c r="H200" t="s">
+        <v>287</v>
+      </c>
+      <c r="I200" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="201" spans="1:9">
-      <c r="A201" t="s">
-        <v>217</v>
-      </c>
-      <c r="B201" s="5">
-        <v>2.1749999999999998</v>
-      </c>
-      <c r="C201" s="5">
-        <v>2.2450000000000001</v>
-      </c>
-      <c r="D201" s="5">
-        <f t="shared" si="108"/>
-        <v>3.5000000000000142E-2</v>
-      </c>
-      <c r="E201" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F201" s="5">
-        <f t="shared" si="109"/>
-        <v>2.2480000000000002</v>
-      </c>
-      <c r="G201" s="5">
-        <f t="shared" si="110"/>
-        <v>2.1719999999999997</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
-      <c r="A202" t="s">
-        <v>218</v>
-      </c>
-      <c r="B202" s="5">
-        <v>2.5579999999999998</v>
-      </c>
-      <c r="C202" s="5">
-        <v>2.64</v>
-      </c>
-      <c r="D202" s="5">
-        <f t="shared" si="108"/>
-        <v>4.1000000000000147E-2</v>
-      </c>
-      <c r="E202" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F202" s="5">
-        <f t="shared" si="109"/>
-        <v>2.6430000000000002</v>
-      </c>
-      <c r="G202" s="5">
-        <f t="shared" si="110"/>
-        <v>2.5549999999999997</v>
-      </c>
+      <c r="I201" s="6"/>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" t="s">
-        <v>219</v>
-      </c>
-      <c r="B203" s="5">
-        <v>3</v>
-      </c>
-      <c r="C203" s="5">
-        <v>3.1</v>
-      </c>
-      <c r="D203" s="5">
-        <f t="shared" si="108"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="E203" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F203" s="5">
-        <f t="shared" si="109"/>
-        <v>3.1030000000000002</v>
-      </c>
-      <c r="G203" s="5">
-        <f t="shared" si="110"/>
-        <v>2.9969999999999999</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
-      <c r="A204" t="s">
-        <v>220</v>
-      </c>
-      <c r="B204" s="5">
-        <v>3.9</v>
-      </c>
-      <c r="C204" s="5">
-        <v>4</v>
-      </c>
-      <c r="D204" s="5">
-        <f t="shared" si="108"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="E204" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F204" s="5">
-        <f t="shared" si="109"/>
-        <v>4.0030000000000001</v>
-      </c>
-      <c r="G204" s="5">
-        <f t="shared" si="110"/>
-        <v>3.8969999999999998</v>
+      <c r="A203" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" t="s">
+        <v>213</v>
+      </c>
+      <c r="B205" s="5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C205" s="5">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="D205" s="5">
+        <f t="shared" ref="D205:D212" si="120">(C205-B205)/2</f>
+        <v>3.7500000000000089E-2</v>
+      </c>
+      <c r="E205" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F205" s="5">
+        <f t="shared" ref="F205:F212" si="121">C205+E205</f>
+        <v>1.218</v>
+      </c>
+      <c r="G205" s="5">
+        <f t="shared" ref="G205:G212" si="122">B205-E205</f>
+        <v>1.137</v>
       </c>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="1" t="s">
-        <v>221</v>
+      <c r="A206" t="s">
+        <v>214</v>
+      </c>
+      <c r="B206" s="5">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="C206" s="5">
+        <v>1.61</v>
+      </c>
+      <c r="D206" s="5">
+        <f t="shared" si="120"/>
+        <v>4.2500000000000093E-2</v>
+      </c>
+      <c r="E206" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F206" s="5">
+        <f t="shared" si="121"/>
+        <v>1.613</v>
+      </c>
+      <c r="G206" s="5">
+        <f t="shared" si="122"/>
+        <v>1.522</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" t="s">
+        <v>215</v>
+      </c>
+      <c r="B207" s="5">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="C207" s="5">
+        <v>1.635</v>
+      </c>
+      <c r="D207" s="5">
+        <f t="shared" si="120"/>
+        <v>5.5000000000000049E-2</v>
+      </c>
+      <c r="E207" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F207" s="5">
+        <f t="shared" si="121"/>
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="G207" s="5">
+        <f t="shared" si="122"/>
+        <v>1.522</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B208" s="5">
-        <v>1.393</v>
+        <v>2.14</v>
       </c>
       <c r="C208" s="5">
-        <v>1.5149999999999999</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D208" s="5">
-        <f t="shared" ref="D208" si="111">(C208-B208)/2</f>
-        <v>6.0999999999999943E-2</v>
+        <f t="shared" si="120"/>
+        <v>5.9999999999999831E-2</v>
       </c>
       <c r="E208" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F208" s="5">
-        <f t="shared" ref="F208" si="112">C208+E208</f>
-        <v>1.5179999999999998</v>
+        <f t="shared" si="121"/>
+        <v>2.2629999999999999</v>
       </c>
       <c r="G208" s="5">
-        <f t="shared" ref="G208" si="113">B208-E208</f>
-        <v>1.3900000000000001</v>
-      </c>
-      <c r="H208" t="s">
-        <v>238</v>
-      </c>
-      <c r="I208" s="6" t="s">
-        <v>179</v>
+        <f t="shared" si="122"/>
+        <v>2.137</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B209" s="5">
-        <v>2.0430000000000001</v>
+        <v>2.1749999999999998</v>
       </c>
       <c r="C209" s="5">
-        <v>2.165</v>
+        <v>2.2450000000000001</v>
       </c>
       <c r="D209" s="5">
-        <f t="shared" ref="D209" si="114">(C209-B209)/2</f>
-        <v>6.0999999999999943E-2</v>
+        <f t="shared" si="120"/>
+        <v>3.5000000000000142E-2</v>
       </c>
       <c r="E209" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F209" s="5">
-        <f t="shared" ref="F209" si="115">C209+E209</f>
-        <v>2.1680000000000001</v>
+        <f t="shared" si="121"/>
+        <v>2.2480000000000002</v>
       </c>
       <c r="G209" s="5">
-        <f t="shared" ref="G209" si="116">B209-E209</f>
-        <v>2.04</v>
-      </c>
-      <c r="H209" t="s">
-        <v>238</v>
-      </c>
-      <c r="I209" s="6" t="s">
-        <v>179</v>
+        <f t="shared" si="122"/>
+        <v>2.1719999999999997</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B210" s="5">
-        <v>2.4260000000000002</v>
+        <v>2.5579999999999998</v>
       </c>
       <c r="C210" s="5">
-        <v>2.548</v>
+        <v>2.64</v>
       </c>
       <c r="D210" s="5">
-        <f t="shared" ref="D210:D211" si="117">(C210-B210)/2</f>
-        <v>6.0999999999999943E-2</v>
+        <f t="shared" si="120"/>
+        <v>4.1000000000000147E-2</v>
       </c>
       <c r="E210" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F210" s="5">
-        <f t="shared" ref="F210:F211" si="118">C210+E210</f>
-        <v>2.5510000000000002</v>
+        <f t="shared" si="121"/>
+        <v>2.6430000000000002</v>
       </c>
       <c r="G210" s="5">
-        <f t="shared" ref="G210:G211" si="119">B210-E210</f>
-        <v>2.423</v>
-      </c>
-      <c r="H210" t="s">
-        <v>238</v>
-      </c>
-      <c r="I210" s="6" t="s">
-        <v>179</v>
+        <f t="shared" si="122"/>
+        <v>2.5549999999999997</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B211" s="5">
-        <v>2.8679999999999999</v>
+        <v>3</v>
       </c>
       <c r="C211" s="5">
-        <v>2.99</v>
+        <v>3.1</v>
       </c>
       <c r="D211" s="5">
-        <f t="shared" si="117"/>
-        <v>6.1000000000000165E-2</v>
+        <f t="shared" si="120"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="E211" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F211" s="5">
-        <f t="shared" si="118"/>
-        <v>2.9930000000000003</v>
+        <f t="shared" si="121"/>
+        <v>3.1030000000000002</v>
       </c>
       <c r="G211" s="5">
-        <f t="shared" si="119"/>
-        <v>2.8649999999999998</v>
-      </c>
-      <c r="H211" t="s">
-        <v>238</v>
-      </c>
-      <c r="I211" s="6" t="s">
-        <v>179</v>
+        <f t="shared" si="122"/>
+        <v>2.9969999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B212" s="5">
-        <v>3.66</v>
+        <v>3.9</v>
       </c>
       <c r="C212" s="5">
-        <v>3.89</v>
+        <v>4</v>
       </c>
       <c r="D212" s="5">
-        <f t="shared" ref="D212" si="120">(C212-B212)/2</f>
-        <v>0.11499999999999999</v>
+        <f t="shared" si="120"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="E212" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F212" s="5">
-        <f t="shared" ref="F212" si="121">C212+E212</f>
-        <v>3.8930000000000002</v>
+        <f t="shared" si="121"/>
+        <v>4.0030000000000001</v>
       </c>
       <c r="G212" s="5">
-        <f t="shared" ref="G212" si="122">B212-E212</f>
-        <v>3.657</v>
-      </c>
-      <c r="H212" t="s">
-        <v>239</v>
-      </c>
-      <c r="I212" s="6" t="s">
+        <f t="shared" si="122"/>
+        <v>3.8969999999999998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" t="s">
+        <v>222</v>
+      </c>
+      <c r="B216" s="5">
+        <v>1.393</v>
+      </c>
+      <c r="C216" s="5">
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="D216" s="5">
+        <f t="shared" ref="D216" si="123">(C216-B216)/2</f>
+        <v>6.0999999999999943E-2</v>
+      </c>
+      <c r="E216" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F216" s="5">
+        <f t="shared" ref="F216" si="124">C216+E216</f>
+        <v>1.5179999999999998</v>
+      </c>
+      <c r="G216" s="5">
+        <f t="shared" ref="G216" si="125">B216-E216</f>
+        <v>1.3900000000000001</v>
+      </c>
+      <c r="H216" t="s">
+        <v>238</v>
+      </c>
+      <c r="I216" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
-      <c r="A216" s="1" t="s">
-        <v>228</v>
+    <row r="217" spans="1:9">
+      <c r="A217" t="s">
+        <v>223</v>
+      </c>
+      <c r="B217" s="5">
+        <v>2.0430000000000001</v>
+      </c>
+      <c r="C217" s="5">
+        <v>2.165</v>
+      </c>
+      <c r="D217" s="5">
+        <f t="shared" ref="D217" si="126">(C217-B217)/2</f>
+        <v>6.0999999999999943E-2</v>
+      </c>
+      <c r="E217" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F217" s="5">
+        <f t="shared" ref="F217" si="127">C217+E217</f>
+        <v>2.1680000000000001</v>
+      </c>
+      <c r="G217" s="5">
+        <f t="shared" ref="G217" si="128">B217-E217</f>
+        <v>2.04</v>
+      </c>
+      <c r="H217" t="s">
+        <v>238</v>
+      </c>
+      <c r="I217" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="218" spans="1:9">
-      <c r="A218" s="1" t="s">
-        <v>257</v>
+      <c r="A218" t="s">
+        <v>224</v>
+      </c>
+      <c r="B218" s="5">
+        <v>2.4260000000000002</v>
+      </c>
+      <c r="C218" s="5">
+        <v>2.548</v>
+      </c>
+      <c r="D218" s="5">
+        <f t="shared" ref="D218:D219" si="129">(C218-B218)/2</f>
+        <v>6.0999999999999943E-2</v>
+      </c>
+      <c r="E218" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F218" s="5">
+        <f t="shared" ref="F218:F219" si="130">C218+E218</f>
+        <v>2.5510000000000002</v>
+      </c>
+      <c r="G218" s="5">
+        <f t="shared" ref="G218:G219" si="131">B218-E218</f>
+        <v>2.423</v>
+      </c>
+      <c r="H218" t="s">
+        <v>238</v>
+      </c>
+      <c r="I218" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" t="s">
+        <v>225</v>
+      </c>
+      <c r="B219" s="5">
+        <v>2.8679999999999999</v>
+      </c>
+      <c r="C219" s="5">
+        <v>2.99</v>
+      </c>
+      <c r="D219" s="5">
+        <f t="shared" si="129"/>
+        <v>6.1000000000000165E-2</v>
+      </c>
+      <c r="E219" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F219" s="5">
+        <f t="shared" si="130"/>
+        <v>2.9930000000000003</v>
+      </c>
+      <c r="G219" s="5">
+        <f t="shared" si="131"/>
+        <v>2.8649999999999998</v>
+      </c>
+      <c r="H219" t="s">
+        <v>238</v>
+      </c>
+      <c r="I219" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B220" s="5">
-        <v>0.95</v>
+        <v>3.66</v>
       </c>
       <c r="C220" s="5">
-        <v>1</v>
+        <v>3.89</v>
       </c>
       <c r="D220" s="5">
-        <f t="shared" ref="D220" si="123">(C220-B220)/2</f>
-        <v>2.5000000000000022E-2</v>
+        <f t="shared" ref="D220" si="132">(C220-B220)/2</f>
+        <v>0.11499999999999999</v>
       </c>
       <c r="E220" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F220" s="5">
-        <f t="shared" ref="F220" si="124">C220+E220</f>
-        <v>1.0029999999999999</v>
+        <f t="shared" ref="F220" si="133">C220+E220</f>
+        <v>3.8930000000000002</v>
       </c>
       <c r="G220" s="5">
-        <f t="shared" ref="G220" si="125">B220-E220</f>
-        <v>0.94699999999999995</v>
+        <f t="shared" ref="G220" si="134">B220-E220</f>
+        <v>3.657</v>
       </c>
       <c r="H220" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
-      <c r="A221" t="s">
-        <v>240</v>
-      </c>
-      <c r="B221" s="5">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="C221" s="5">
-        <v>1.21</v>
-      </c>
-      <c r="D221" s="5">
-        <f t="shared" ref="D221" si="126">(C221-B221)/2</f>
-        <v>3.5000000000000031E-2</v>
-      </c>
-      <c r="E221" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F221" s="5">
-        <f t="shared" ref="F221" si="127">C221+E221</f>
-        <v>1.2129999999999999</v>
-      </c>
-      <c r="G221" s="5">
-        <f t="shared" ref="G221" si="128">B221-E221</f>
-        <v>1.137</v>
-      </c>
-      <c r="H221" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
-      <c r="A222" t="s">
-        <v>237</v>
-      </c>
-      <c r="B222" s="5">
-        <v>1.52</v>
-      </c>
-      <c r="C222" s="5">
-        <v>1.63</v>
-      </c>
-      <c r="D222" s="5">
-        <f t="shared" ref="D222" si="129">(C222-B222)/2</f>
-        <v>5.4999999999999938E-2</v>
-      </c>
-      <c r="E222" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F222" s="5">
-        <f t="shared" ref="F222" si="130">C222+E222</f>
-        <v>1.6329999999999998</v>
-      </c>
-      <c r="G222" s="5">
-        <f t="shared" ref="G222" si="131">B222-E222</f>
-        <v>1.5170000000000001</v>
-      </c>
-      <c r="H222" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9">
-      <c r="A223" t="s">
-        <v>242</v>
-      </c>
-      <c r="I223" t="s">
-        <v>256</v>
+        <v>239</v>
+      </c>
+      <c r="I220" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="224" spans="1:9">
-      <c r="A224" t="s">
-        <v>243</v>
-      </c>
-      <c r="B224" s="5">
-        <v>2.14</v>
-      </c>
-      <c r="C224" s="5">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="D224" s="5">
-        <f t="shared" ref="D224" si="132">(C224-B224)/2</f>
-        <v>5.9999999999999831E-2</v>
-      </c>
-      <c r="E224" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F224" s="5">
-        <f t="shared" ref="F224" si="133">C224+E224</f>
-        <v>2.2629999999999999</v>
-      </c>
-      <c r="G224" s="5">
-        <f t="shared" ref="G224" si="134">B224-E224</f>
-        <v>2.137</v>
-      </c>
-      <c r="H224" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9">
-      <c r="A225" t="s">
-        <v>244</v>
-      </c>
-      <c r="B225" s="5">
-        <v>2.56</v>
-      </c>
-      <c r="C225" s="5">
-        <v>2.63</v>
-      </c>
-      <c r="D225" s="5">
-        <f t="shared" ref="D225" si="135">(C225-B225)/2</f>
-        <v>3.499999999999992E-2</v>
-      </c>
-      <c r="E225" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F225" s="5">
-        <f t="shared" ref="F225" si="136">C225+E225</f>
-        <v>2.633</v>
-      </c>
-      <c r="G225" s="5">
-        <f t="shared" ref="G225" si="137">B225-E225</f>
-        <v>2.5569999999999999</v>
-      </c>
-      <c r="H225" t="s">
-        <v>247</v>
+      <c r="A224" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="226" spans="1:9">
-      <c r="A226" t="s">
-        <v>245</v>
-      </c>
-      <c r="B226" s="5">
-        <v>3</v>
-      </c>
-      <c r="C226" s="5">
-        <v>3.1</v>
-      </c>
-      <c r="D226" s="5">
-        <f t="shared" ref="D226" si="138">(C226-B226)/2</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="E226" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F226" s="5">
-        <f t="shared" ref="F226" si="139">C226+E226</f>
-        <v>3.1030000000000002</v>
-      </c>
-      <c r="G226" s="5">
-        <f t="shared" ref="G226" si="140">B226-E226</f>
-        <v>2.9969999999999999</v>
-      </c>
-      <c r="H226" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9">
-      <c r="A227" t="s">
-        <v>246</v>
-      </c>
-      <c r="B227" s="5">
-        <v>3.9</v>
-      </c>
-      <c r="C227" s="5">
-        <v>4</v>
-      </c>
-      <c r="D227" s="5">
-        <f t="shared" ref="D227" si="141">(C227-B227)/2</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="E227" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F227" s="5">
-        <f t="shared" ref="F227" si="142">C227+E227</f>
-        <v>4.0030000000000001</v>
-      </c>
-      <c r="G227" s="5">
-        <f t="shared" ref="G227" si="143">B227-E227</f>
-        <v>3.8969999999999998</v>
-      </c>
-      <c r="H227" t="s">
-        <v>251</v>
+      <c r="A226" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B228" s="5">
-        <v>5.38</v>
+        <v>0.95</v>
       </c>
       <c r="C228" s="5">
-        <v>5.54</v>
+        <v>1</v>
       </c>
       <c r="D228" s="5">
-        <f t="shared" ref="D228" si="144">(C228-B228)/2</f>
-        <v>8.0000000000000071E-2</v>
+        <f t="shared" ref="D228" si="135">(C228-B228)/2</f>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="E228" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F228" s="5">
-        <f t="shared" ref="F228" si="145">C228+E228</f>
-        <v>5.5430000000000001</v>
+        <f t="shared" ref="F228" si="136">C228+E228</f>
+        <v>1.0029999999999999</v>
       </c>
       <c r="G228" s="5">
-        <f t="shared" ref="G228" si="146">B228-E228</f>
-        <v>5.3769999999999998</v>
+        <f t="shared" ref="G228" si="137">B228-E228</f>
+        <v>0.94699999999999995</v>
       </c>
       <c r="H228" t="s">
-        <v>254</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" t="s">
+        <v>240</v>
+      </c>
+      <c r="B229" s="5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C229" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="D229" s="5">
+        <f t="shared" ref="D229" si="138">(C229-B229)/2</f>
+        <v>3.5000000000000031E-2</v>
+      </c>
+      <c r="E229" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F229" s="5">
+        <f t="shared" ref="F229" si="139">C229+E229</f>
+        <v>1.2129999999999999</v>
+      </c>
+      <c r="G229" s="5">
+        <f t="shared" ref="G229" si="140">B229-E229</f>
+        <v>1.137</v>
+      </c>
+      <c r="H229" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="230" spans="1:9">
-      <c r="A230" s="1" t="s">
-        <v>258</v>
+      <c r="A230" t="s">
+        <v>237</v>
+      </c>
+      <c r="B230" s="5">
+        <v>1.52</v>
+      </c>
+      <c r="C230" s="5">
+        <v>1.63</v>
+      </c>
+      <c r="D230" s="5">
+        <f t="shared" ref="D230" si="141">(C230-B230)/2</f>
+        <v>5.4999999999999938E-2</v>
+      </c>
+      <c r="E230" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F230" s="5">
+        <f t="shared" ref="F230" si="142">C230+E230</f>
+        <v>1.6329999999999998</v>
+      </c>
+      <c r="G230" s="5">
+        <f t="shared" ref="G230" si="143">B230-E230</f>
+        <v>1.5170000000000001</v>
+      </c>
+      <c r="H230" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" t="s">
+        <v>242</v>
+      </c>
+      <c r="I231" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="232" spans="1:9">
       <c r="A232" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B232" s="5">
-        <v>0.875</v>
+        <v>2.14</v>
       </c>
       <c r="C232" s="5">
-        <v>0.94499999999999995</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D232" s="5">
-        <f t="shared" ref="D232" si="147">(C232-B232)/2</f>
-        <v>3.4999999999999976E-2</v>
+        <f t="shared" ref="D232" si="144">(C232-B232)/2</f>
+        <v>5.9999999999999831E-2</v>
       </c>
       <c r="E232" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F232" s="5">
-        <f t="shared" ref="F232" si="148">C232+E232</f>
-        <v>0.94799999999999995</v>
+        <f t="shared" ref="F232" si="145">C232+E232</f>
+        <v>2.2629999999999999</v>
       </c>
       <c r="G232" s="5">
-        <f t="shared" ref="G232" si="149">B232-E232</f>
-        <v>0.872</v>
+        <f t="shared" ref="G232" si="146">B232-E232</f>
+        <v>2.137</v>
       </c>
       <c r="H232" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="233" spans="1:9">
       <c r="A233" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="B233" s="5">
-        <v>1.0649999999999999</v>
+        <v>2.56</v>
       </c>
       <c r="C233" s="5">
-        <v>1.135</v>
+        <v>2.63</v>
       </c>
       <c r="D233" s="5">
-        <f t="shared" ref="D233" si="150">(C233-B233)/2</f>
-        <v>3.5000000000000031E-2</v>
+        <f t="shared" ref="D233" si="147">(C233-B233)/2</f>
+        <v>3.499999999999992E-2</v>
       </c>
       <c r="E233" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F233" s="5">
-        <f t="shared" ref="F233" si="151">C233+E233</f>
-        <v>1.1379999999999999</v>
+        <f t="shared" ref="F233" si="148">C233+E233</f>
+        <v>2.633</v>
       </c>
       <c r="G233" s="5">
-        <f t="shared" ref="G233" si="152">B233-E233</f>
-        <v>1.0620000000000001</v>
+        <f t="shared" ref="G233" si="149">B233-E233</f>
+        <v>2.5569999999999999</v>
       </c>
       <c r="H233" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="B234" s="5">
-        <v>1.4350000000000001</v>
+        <v>3</v>
       </c>
       <c r="C234" s="5">
-        <v>1.51</v>
+        <v>3.1</v>
       </c>
       <c r="D234" s="5">
-        <f t="shared" ref="D234" si="153">(C234-B234)/2</f>
-        <v>3.7499999999999978E-2</v>
+        <f t="shared" ref="D234" si="150">(C234-B234)/2</f>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="E234" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F234" s="5">
-        <f t="shared" ref="F234" si="154">C234+E234</f>
-        <v>1.5129999999999999</v>
+        <f t="shared" ref="F234" si="151">C234+E234</f>
+        <v>3.1030000000000002</v>
       </c>
       <c r="G234" s="5">
-        <f t="shared" ref="G234" si="155">B234-E234</f>
-        <v>1.4320000000000002</v>
+        <f t="shared" ref="G234" si="152">B234-E234</f>
+        <v>2.9969999999999999</v>
       </c>
       <c r="H234" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="235" spans="1:9">
       <c r="A235" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B235" s="5">
-        <v>1.71</v>
+        <v>3.9</v>
       </c>
       <c r="C235" s="5">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="D235" s="5">
-        <f t="shared" ref="D235" si="156">(C235-B235)/2</f>
-        <v>4.500000000000004E-2</v>
+        <f t="shared" ref="D235" si="153">(C235-B235)/2</f>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="E235" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F235" s="5">
-        <f t="shared" ref="F235" si="157">C235+E235</f>
-        <v>1.8029999999999999</v>
+        <f t="shared" ref="F235" si="154">C235+E235</f>
+        <v>4.0030000000000001</v>
       </c>
       <c r="G235" s="5">
-        <f t="shared" ref="G235" si="158">B235-E235</f>
-        <v>1.7070000000000001</v>
+        <f t="shared" ref="G235" si="155">B235-E235</f>
+        <v>3.8969999999999998</v>
       </c>
       <c r="H235" t="s">
-        <v>233</v>
-      </c>
-      <c r="I235" s="4" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" t="s">
+        <v>253</v>
+      </c>
+      <c r="B236" s="5">
+        <v>5.38</v>
+      </c>
+      <c r="C236" s="5">
+        <v>5.54</v>
+      </c>
+      <c r="D236" s="5">
+        <f t="shared" ref="D236" si="156">(C236-B236)/2</f>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="E236" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F236" s="5">
+        <f t="shared" ref="F236" si="157">C236+E236</f>
+        <v>5.5430000000000001</v>
+      </c>
+      <c r="G236" s="5">
+        <f t="shared" ref="G236" si="158">B236-E236</f>
+        <v>5.3769999999999998</v>
+      </c>
+      <c r="H236" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" t="s">
+        <v>231</v>
+      </c>
+      <c r="B240" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="C240" s="5">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="D240" s="5">
+        <f t="shared" ref="D240" si="159">(C240-B240)/2</f>
+        <v>3.4999999999999976E-2</v>
+      </c>
+      <c r="E240" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F240" s="5">
+        <f t="shared" ref="F240" si="160">C240+E240</f>
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G240" s="5">
+        <f t="shared" ref="G240" si="161">B240-E240</f>
+        <v>0.872</v>
+      </c>
+      <c r="H240" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" t="s">
+        <v>230</v>
+      </c>
+      <c r="B241" s="5">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="C241" s="5">
+        <v>1.135</v>
+      </c>
+      <c r="D241" s="5">
+        <f t="shared" ref="D241" si="162">(C241-B241)/2</f>
+        <v>3.5000000000000031E-2</v>
+      </c>
+      <c r="E241" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F241" s="5">
+        <f t="shared" ref="F241" si="163">C241+E241</f>
+        <v>1.1379999999999999</v>
+      </c>
+      <c r="G241" s="5">
+        <f t="shared" ref="G241" si="164">B241-E241</f>
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="H241" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" t="s">
+        <v>229</v>
+      </c>
+      <c r="B242" s="5">
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="C242" s="5">
+        <v>1.51</v>
+      </c>
+      <c r="D242" s="5">
+        <f t="shared" ref="D242" si="165">(C242-B242)/2</f>
+        <v>3.7499999999999978E-2</v>
+      </c>
+      <c r="E242" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F242" s="5">
+        <f t="shared" ref="F242" si="166">C242+E242</f>
+        <v>1.5129999999999999</v>
+      </c>
+      <c r="G242" s="5">
+        <f t="shared" ref="G242" si="167">B242-E242</f>
+        <v>1.4320000000000002</v>
+      </c>
+      <c r="H242" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" t="s">
+        <v>232</v>
+      </c>
+      <c r="B243" s="5">
+        <v>1.71</v>
+      </c>
+      <c r="C243" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="D243" s="5">
+        <f t="shared" ref="D243" si="168">(C243-B243)/2</f>
+        <v>4.500000000000004E-2</v>
+      </c>
+      <c r="E243" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F243" s="5">
+        <f t="shared" ref="F243" si="169">C243+E243</f>
+        <v>1.8029999999999999</v>
+      </c>
+      <c r="G243" s="5">
+        <f t="shared" ref="G243" si="170">B243-E243</f>
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="H243" t="s">
+        <v>233</v>
+      </c>
+      <c r="I243" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" t="s">
         <v>236</v>
       </c>
-      <c r="B236" s="5">
+      <c r="B244" s="5">
         <v>2.0150000000000001</v>
       </c>
-      <c r="C236" s="5">
+      <c r="C244" s="5">
         <v>2.1349999999999998</v>
       </c>
-      <c r="D236" s="5">
-        <f t="shared" ref="D236" si="159">(C236-B236)/2</f>
+      <c r="D244" s="5">
+        <f t="shared" ref="D244" si="171">(C244-B244)/2</f>
         <v>5.9999999999999831E-2</v>
       </c>
-      <c r="E236" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F236" s="5">
-        <f t="shared" ref="F236" si="160">C236+E236</f>
+      <c r="E244" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F244" s="5">
+        <f t="shared" ref="F244" si="172">C244+E244</f>
         <v>2.1379999999999999</v>
       </c>
-      <c r="G236" s="5">
-        <f t="shared" ref="G236" si="161">B236-E236</f>
+      <c r="G244" s="5">
+        <f t="shared" ref="G244" si="173">B244-E244</f>
         <v>2.012</v>
       </c>
-      <c r="H236" t="s">
+      <c r="H244" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
-      <c r="A237" t="s">
+    <row r="245" spans="1:9">
+      <c r="A245" t="s">
         <v>131</v>
       </c>
-      <c r="B237" s="5">
+      <c r="B245" s="5">
         <v>2.5449999999999999</v>
       </c>
-      <c r="C237" s="5">
+      <c r="C245" s="5">
         <v>2.6150000000000002</v>
       </c>
-      <c r="D237" s="5">
-        <f t="shared" ref="D237" si="162">(C237-B237)/2</f>
+      <c r="D245" s="5">
+        <f t="shared" ref="D245" si="174">(C245-B245)/2</f>
         <v>3.5000000000000142E-2</v>
       </c>
-      <c r="E237" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F237" s="5">
-        <f t="shared" ref="F237" si="163">C237+E237</f>
+      <c r="E245" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F245" s="5">
+        <f t="shared" ref="F245" si="175">C245+E245</f>
         <v>2.6180000000000003</v>
       </c>
-      <c r="G237" s="5">
-        <f t="shared" ref="G237" si="164">B237-E237</f>
+      <c r="G245" s="5">
+        <f t="shared" ref="G245" si="176">B245-E245</f>
         <v>2.5419999999999998</v>
       </c>
-      <c r="H237" t="s">
+      <c r="H245" t="s">
         <v>234</v>
       </c>
-      <c r="I237" s="6" t="s">
+      <c r="I245" s="6" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
-      <c r="A238" t="s">
+    <row r="246" spans="1:9">
+      <c r="A246" t="s">
         <v>132</v>
       </c>
-      <c r="B238" s="5">
+      <c r="B246" s="5">
         <v>2.8849999999999998</v>
       </c>
-      <c r="C238" s="5">
+      <c r="C246" s="5">
         <v>2.9950000000000001</v>
       </c>
-      <c r="D238" s="5">
-        <f t="shared" ref="D238" si="165">(C238-B238)/2</f>
+      <c r="D246" s="5">
+        <f t="shared" ref="D246" si="177">(C246-B246)/2</f>
         <v>5.500000000000016E-2</v>
       </c>
-      <c r="E238" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F238" s="5">
-        <f t="shared" ref="F238" si="166">C238+E238</f>
+      <c r="E246" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F246" s="5">
+        <f t="shared" ref="F246" si="178">C246+E246</f>
         <v>2.9980000000000002</v>
       </c>
-      <c r="G238" s="5">
-        <f t="shared" ref="G238" si="167">B238-E238</f>
+      <c r="G246" s="5">
+        <f t="shared" ref="G246" si="179">B246-E246</f>
         <v>2.8819999999999997</v>
       </c>
-      <c r="H238" t="s">
+      <c r="H246" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
-      <c r="A239" t="s">
+    <row r="247" spans="1:9">
+      <c r="A247" t="s">
         <v>235</v>
       </c>
-      <c r="B239" s="5">
+      <c r="B247" s="5">
         <v>3.7850000000000001</v>
       </c>
-      <c r="C239" s="5">
+      <c r="C247" s="5">
         <v>3.895</v>
       </c>
-      <c r="D239" s="5">
-        <f t="shared" ref="D239" si="168">(C239-B239)/2</f>
+      <c r="D247" s="5">
+        <f t="shared" ref="D247" si="180">(C247-B247)/2</f>
         <v>5.4999999999999938E-2</v>
       </c>
-      <c r="E239" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F239" s="5">
-        <f t="shared" ref="F239" si="169">C239+E239</f>
+      <c r="E247" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F247" s="5">
+        <f t="shared" ref="F247" si="181">C247+E247</f>
         <v>3.8980000000000001</v>
       </c>
-      <c r="G239" s="5">
-        <f t="shared" ref="G239" si="170">B239-E239</f>
+      <c r="G247" s="5">
+        <f t="shared" ref="G247" si="182">B247-E247</f>
         <v>3.782</v>
       </c>
-      <c r="H239" t="s">
+      <c r="H247" t="s">
         <v>265</v>
       </c>
     </row>

--- a/data/body_tube_data.xlsx
+++ b/data/body_tube_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24080" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="48320" yWindow="-4800" windowWidth="24080" windowHeight="32380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="310">
   <si>
     <t>ID inches</t>
   </si>
@@ -941,6 +941,72 @@
   </si>
   <si>
     <t>dimensions assumed same as FT30-STD</t>
+  </si>
+  <si>
+    <t>FWCF-4</t>
+  </si>
+  <si>
+    <t>FWCF-6</t>
+  </si>
+  <si>
+    <t>dimensions assumed same as FT40-STD</t>
+  </si>
+  <si>
+    <t>dimensions assumed same as FT60-STD</t>
+  </si>
+  <si>
+    <t>Carbon Fiber Couplers</t>
+  </si>
+  <si>
+    <t>FWCF-29C</t>
+  </si>
+  <si>
+    <t>FWCF-38C</t>
+  </si>
+  <si>
+    <t>FWCF-54C</t>
+  </si>
+  <si>
+    <t>FWCF-3C</t>
+  </si>
+  <si>
+    <t>FWCF-4C</t>
+  </si>
+  <si>
+    <t>FWCF-6C</t>
+  </si>
+  <si>
+    <t>dimensions assumed same as FC29</t>
+  </si>
+  <si>
+    <t>dimensions assumed same as FC38</t>
+  </si>
+  <si>
+    <t>dimensions assumed same as FC54</t>
+  </si>
+  <si>
+    <t>dimensions assumed same as FC30</t>
+  </si>
+  <si>
+    <t>dimensions assumed same as FC60</t>
+  </si>
+  <si>
+    <t>dimensions assumed same as FC39</t>
+  </si>
+  <si>
+    <t>ID in</t>
+  </si>
+  <si>
+    <t>OD in</t>
+  </si>
+  <si>
+    <t>Wall in</t>
+  </si>
+  <si>
+    <t>CR offset</t>
+  </si>
+  <si>
+    <t>OD of CRs specified as 5.998, yielding CR offset of .002</t>
   </si>
 </sst>
 </file>
@@ -950,7 +1016,14 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1011,12 +1084,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1037,298 +1116,323 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="270">
+  <cellStyleXfs count="289">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="90" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="90" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="90" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="270">
+  <cellStyles count="289">
+    <cellStyle name="20% - Accent1" xfId="90" builtinId="30"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1373,96 +1477,105 @@
     <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="261" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="263" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -1508,96 +1621,105 @@
     <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="210" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="212" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="214" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="226" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="228" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="230" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="232" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="234" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="244" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="246" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="252" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="254" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="256" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="258" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="260" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="262" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1927,10 +2049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M247"/>
+  <dimension ref="A1:M266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="H184" sqref="H184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3074,206 +3196,212 @@
         <v>57</v>
       </c>
     </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1"/>
+    </row>
     <row r="56" spans="1:9">
-      <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="5">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="C56" s="5">
-        <v>0.26</v>
-      </c>
-      <c r="D56" s="5">
-        <f t="shared" ref="D56:D69" si="18">(C56-B56)/2</f>
-        <v>1.2999999999999998E-2</v>
-      </c>
-      <c r="E56" s="5">
-        <v>2E-3</v>
-      </c>
-      <c r="F56" s="5">
-        <f t="shared" ref="F56:F69" si="19">C56+E56</f>
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="G56" s="5">
-        <f t="shared" ref="G56:G69" si="20">B56-E56</f>
-        <v>0.23200000000000001</v>
+      <c r="A56" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" ref="D57:D70" si="18">(C57-B57)/2</f>
+        <v>1.2999999999999998E-2</v>
+      </c>
+      <c r="E57" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F57" s="5">
+        <f t="shared" ref="F57:F70" si="19">C57+E57</f>
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G57" s="5">
+        <f t="shared" ref="G57:G70" si="20">B57-E57</f>
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B58" s="5">
         <v>0.51500000000000001</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C58" s="5">
         <v>0.54300000000000004</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D58" s="5">
         <f t="shared" si="18"/>
         <v>1.4000000000000012E-2</v>
       </c>
-      <c r="E57" s="5">
-        <v>2E-3</v>
-      </c>
-      <c r="F57" s="5">
+      <c r="E58" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F58" s="5">
         <f t="shared" si="19"/>
         <v>0.54500000000000004</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G58" s="5">
         <f t="shared" si="20"/>
         <v>0.51300000000000001</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H58" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58" t="s">
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B59" s="5">
         <v>0.61</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C59" s="5">
         <v>0.65</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D59" s="5">
         <f t="shared" si="18"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="E58" s="5">
-        <v>2E-3</v>
-      </c>
-      <c r="F58" s="5">
+      <c r="E59" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F59" s="5">
         <f t="shared" si="19"/>
         <v>0.65200000000000002</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G59" s="5">
         <f t="shared" si="20"/>
         <v>0.60799999999999998</v>
       </c>
-      <c r="I58" s="6" t="s">
+      <c r="I59" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
-      <c r="A59" t="s">
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B60" s="5">
         <v>0.71499999999999997</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C60" s="5">
         <v>0.75900000000000001</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D60" s="5">
         <f t="shared" si="18"/>
         <v>2.200000000000002E-2</v>
       </c>
-      <c r="E59" s="5">
-        <v>2E-3</v>
-      </c>
-      <c r="F59" s="5">
+      <c r="E60" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F60" s="5">
         <f t="shared" si="19"/>
         <v>0.76100000000000001</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G60" s="5">
         <f t="shared" si="20"/>
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" t="s">
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B61" s="5">
         <v>0.86499999999999999</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C61" s="5">
         <v>0.90800000000000003</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D61" s="5">
         <f t="shared" si="18"/>
         <v>2.1500000000000019E-2</v>
       </c>
-      <c r="E60" s="5">
-        <v>2E-3</v>
-      </c>
-      <c r="F60" s="5">
+      <c r="E61" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F61" s="5">
         <f t="shared" si="19"/>
         <v>0.91</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G61" s="5">
         <f t="shared" si="20"/>
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
-      <c r="A61" t="s">
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B62" s="5">
         <v>0.95</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C62" s="5">
         <v>0.998</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D62" s="5">
         <f t="shared" si="18"/>
         <v>2.4000000000000021E-2</v>
       </c>
-      <c r="E61" s="5">
-        <v>2E-3</v>
-      </c>
-      <c r="F61" s="5">
+      <c r="E62" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F62" s="5">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G62" s="5">
         <f t="shared" si="20"/>
         <v>0.94799999999999995</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H62" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="5">
-        <v>1</v>
-      </c>
-      <c r="C62" s="5">
-        <v>1.04</v>
-      </c>
-      <c r="D62" s="5">
-        <f t="shared" si="18"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="E62" s="5">
-        <v>2E-3</v>
-      </c>
-      <c r="F62" s="5">
-        <f t="shared" si="19"/>
-        <v>1.042</v>
-      </c>
-      <c r="G62" s="5">
-        <f t="shared" si="20"/>
-        <v>0.998</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" s="5">
-        <v>1.1299999999999999</v>
+        <v>1</v>
       </c>
       <c r="C63" s="5">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="D63" s="5">
         <f t="shared" si="18"/>
@@ -3284,22 +3412,22 @@
       </c>
       <c r="F63" s="5">
         <f t="shared" si="19"/>
-        <v>1.1719999999999999</v>
+        <v>1.042</v>
       </c>
       <c r="G63" s="5">
         <f t="shared" si="20"/>
-        <v>1.1279999999999999</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64" s="5">
-        <v>1.3</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="C64" s="5">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="D64" s="5">
         <f t="shared" si="18"/>
@@ -3310,74 +3438,74 @@
       </c>
       <c r="F64" s="5">
         <f t="shared" si="19"/>
-        <v>1.3420000000000001</v>
+        <v>1.1719999999999999</v>
       </c>
       <c r="G64" s="5">
         <f t="shared" si="20"/>
-        <v>1.298</v>
+        <v>1.1279999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" s="5">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="C65" s="5">
-        <v>1.64</v>
+        <v>1.34</v>
       </c>
       <c r="D65" s="5">
         <f t="shared" si="18"/>
-        <v>1.9999999999999907E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="E65" s="5">
         <v>2E-3</v>
       </c>
       <c r="F65" s="5">
         <f t="shared" si="19"/>
-        <v>1.6419999999999999</v>
+        <v>1.3420000000000001</v>
       </c>
       <c r="G65" s="5">
         <f t="shared" si="20"/>
-        <v>1.5980000000000001</v>
+        <v>1.298</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B66" s="5">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="C66" s="5">
-        <v>1.84</v>
+        <v>1.64</v>
       </c>
       <c r="D66" s="5">
         <f t="shared" si="18"/>
-        <v>2.0000000000000018E-2</v>
+        <v>1.9999999999999907E-2</v>
       </c>
       <c r="E66" s="5">
         <v>2E-3</v>
       </c>
       <c r="F66" s="5">
         <f t="shared" si="19"/>
-        <v>1.8420000000000001</v>
+        <v>1.6419999999999999</v>
       </c>
       <c r="G66" s="5">
         <f t="shared" si="20"/>
-        <v>1.798</v>
+        <v>1.5980000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67" s="5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="C67" s="5">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="D67" s="5">
         <f t="shared" si="18"/>
@@ -3388,157 +3516,157 @@
       </c>
       <c r="F67" s="5">
         <f t="shared" si="19"/>
-        <v>2.0419999999999998</v>
+        <v>1.8420000000000001</v>
       </c>
       <c r="G67" s="5">
         <f t="shared" si="20"/>
-        <v>1.998</v>
+        <v>1.798</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B68" s="5">
-        <v>2.6739999999999999</v>
+        <v>2</v>
       </c>
       <c r="C68" s="5">
-        <v>2.7</v>
+        <v>2.04</v>
       </c>
       <c r="D68" s="5">
         <f t="shared" si="18"/>
-        <v>1.3000000000000123E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="E68" s="5">
         <v>2E-3</v>
       </c>
       <c r="F68" s="5">
         <f t="shared" si="19"/>
-        <v>2.702</v>
+        <v>2.0419999999999998</v>
       </c>
       <c r="G68" s="5">
         <f t="shared" si="20"/>
-        <v>2.6720000000000002</v>
+        <v>1.998</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B69" s="5">
-        <v>3.6</v>
+        <v>2.6739999999999999</v>
       </c>
       <c r="C69" s="5">
-        <v>3.69</v>
+        <v>2.7</v>
       </c>
       <c r="D69" s="5">
         <f t="shared" si="18"/>
-        <v>4.4999999999999929E-2</v>
+        <v>1.3000000000000123E-2</v>
       </c>
       <c r="E69" s="5">
         <v>2E-3</v>
       </c>
       <c r="F69" s="5">
         <f t="shared" si="19"/>
-        <v>3.6919999999999997</v>
+        <v>2.702</v>
       </c>
       <c r="G69" s="5">
         <f t="shared" si="20"/>
+        <v>2.6720000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="C70" s="5">
+        <v>3.69</v>
+      </c>
+      <c r="D70" s="5">
+        <f t="shared" si="18"/>
+        <v>4.4999999999999929E-2</v>
+      </c>
+      <c r="E70" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F70" s="5">
+        <f t="shared" si="19"/>
+        <v>3.6919999999999997</v>
+      </c>
+      <c r="G70" s="5">
+        <f t="shared" si="20"/>
         <v>3.5980000000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" s="5">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="C73" s="5">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="D73" s="5">
-        <f t="shared" ref="D73:D80" si="21">(C73-B73)/2</f>
-        <v>3.999999999999998E-2</v>
-      </c>
-      <c r="E73" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="F73" s="5">
-        <f t="shared" ref="F73:F80" si="22">C73+E73</f>
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="G73" s="5">
-        <f t="shared" ref="G73:G80" si="23">B73-E73</f>
-        <v>0.86299999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="5">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="D74" s="5">
+        <f t="shared" ref="D74:D81" si="21">(C74-B74)/2</f>
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="E74" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="F74" s="5">
+        <f t="shared" ref="F74:F81" si="22">C74+E74</f>
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="G74" s="5">
+        <f t="shared" ref="G74:G81" si="23">B74-E74</f>
+        <v>0.86299999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B75" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C75" s="5">
         <v>1.22</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D75" s="5">
         <f t="shared" si="21"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="E74" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="F74" s="5">
+      <c r="E75" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="F75" s="5">
         <f t="shared" si="22"/>
         <v>1.222</v>
       </c>
-      <c r="G74" s="5">
+      <c r="G75" s="5">
         <f t="shared" si="23"/>
         <v>1.1379999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="C75" s="5">
-        <v>1.34</v>
-      </c>
-      <c r="D75" s="5">
-        <f t="shared" si="21"/>
-        <v>4.500000000000004E-2</v>
-      </c>
-      <c r="E75" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="F75" s="5">
-        <f t="shared" si="22"/>
-        <v>1.3420000000000001</v>
-      </c>
-      <c r="G75" s="5">
-        <f t="shared" si="23"/>
-        <v>1.248</v>
-      </c>
-    </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="5">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="C76" s="5">
-        <v>1.59</v>
+        <v>1.34</v>
       </c>
       <c r="D76" s="5">
         <f t="shared" si="21"/>
@@ -3549,22 +3677,22 @@
       </c>
       <c r="F76" s="5">
         <f t="shared" si="22"/>
-        <v>1.5920000000000001</v>
+        <v>1.3420000000000001</v>
       </c>
       <c r="G76" s="5">
         <f t="shared" si="23"/>
-        <v>1.498</v>
+        <v>1.248</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="5">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="C77" s="5">
-        <v>1.84</v>
+        <v>1.59</v>
       </c>
       <c r="D77" s="5">
         <f t="shared" si="21"/>
@@ -3575,74 +3703,74 @@
       </c>
       <c r="F77" s="5">
         <f t="shared" si="22"/>
-        <v>1.8420000000000001</v>
+        <v>1.5920000000000001</v>
       </c>
       <c r="G77" s="5">
         <f t="shared" si="23"/>
-        <v>1.748</v>
+        <v>1.498</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" s="5">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="C78" s="5">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="D78" s="5">
         <f t="shared" si="21"/>
-        <v>4.0000000000000036E-2</v>
+        <v>4.500000000000004E-2</v>
       </c>
       <c r="E78" s="7">
         <v>2E-3</v>
       </c>
       <c r="F78" s="5">
         <f t="shared" si="22"/>
-        <v>2.0819999999999999</v>
+        <v>1.8420000000000001</v>
       </c>
       <c r="G78" s="5">
         <f t="shared" si="23"/>
-        <v>1.998</v>
+        <v>1.748</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="5">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="C79" s="5">
-        <v>2.34</v>
+        <v>2.08</v>
       </c>
       <c r="D79" s="5">
         <f t="shared" si="21"/>
-        <v>4.4999999999999929E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="E79" s="7">
         <v>2E-3</v>
       </c>
       <c r="F79" s="5">
         <f t="shared" si="22"/>
-        <v>2.3419999999999996</v>
+        <v>2.0819999999999999</v>
       </c>
       <c r="G79" s="5">
         <f t="shared" si="23"/>
-        <v>2.2480000000000002</v>
+        <v>1.998</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="5">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="C80" s="5">
-        <v>2.84</v>
+        <v>2.34</v>
       </c>
       <c r="D80" s="5">
         <f t="shared" si="21"/>
@@ -3653,2349 +3781,2435 @@
       </c>
       <c r="F80" s="5">
         <f t="shared" si="22"/>
-        <v>2.8419999999999996</v>
+        <v>2.3419999999999996</v>
       </c>
       <c r="G80" s="5">
         <f t="shared" si="23"/>
+        <v>2.2480000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="C81" s="5">
+        <v>2.84</v>
+      </c>
+      <c r="D81" s="5">
+        <f t="shared" si="21"/>
+        <v>4.4999999999999929E-2</v>
+      </c>
+      <c r="E81" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="F81" s="5">
+        <f t="shared" si="22"/>
+        <v>2.8419999999999996</v>
+      </c>
+      <c r="G81" s="5">
+        <f t="shared" si="23"/>
         <v>2.7480000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="1" t="s">
+    <row r="83" spans="1:9">
+      <c r="A83" s="1" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84" s="5">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="C84" s="5">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="D84" s="5">
-        <f>(C84-B84)/2</f>
-        <v>2.200000000000002E-2</v>
-      </c>
-      <c r="E84" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="F84" s="5">
-        <f>C84+E84</f>
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="G84" s="5">
-        <f>B84-E84</f>
-        <v>0.71299999999999997</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B85" s="5">
-        <v>0.86499999999999999</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="C85" s="5">
-        <v>0.90800000000000003</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="D85" s="5">
         <f>(C85-B85)/2</f>
-        <v>2.1500000000000019E-2</v>
+        <v>2.200000000000002E-2</v>
       </c>
       <c r="E85" s="7">
         <v>2E-3</v>
       </c>
       <c r="F85" s="5">
         <f>C85+E85</f>
-        <v>0.91</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="G85" s="5">
         <f>B85-E85</f>
-        <v>0.86299999999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="45">
+        <v>0.71299999999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B86" s="5">
-        <v>1.0389999999999999</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="C86" s="5">
-        <v>1.06</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="D86" s="5">
         <f>(C86-B86)/2</f>
-        <v>1.0500000000000065E-2</v>
+        <v>2.1500000000000019E-2</v>
       </c>
       <c r="E86" s="7">
         <v>2E-3</v>
       </c>
       <c r="F86" s="5">
         <f>C86+E86</f>
-        <v>1.0620000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="G86" s="5">
         <f>B86-E86</f>
-        <v>1.0369999999999999</v>
-      </c>
-      <c r="H86" t="s">
-        <v>91</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.86299999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="45">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B87" s="5">
-        <v>1.3</v>
+        <v>1.0389999999999999</v>
       </c>
       <c r="C87" s="5">
-        <v>1.34</v>
+        <v>1.06</v>
       </c>
       <c r="D87" s="5">
         <f>(C87-B87)/2</f>
-        <v>2.0000000000000018E-2</v>
+        <v>1.0500000000000065E-2</v>
       </c>
       <c r="E87" s="7">
         <v>2E-3</v>
       </c>
       <c r="F87" s="5">
         <f>C87+E87</f>
-        <v>1.3420000000000001</v>
+        <v>1.0620000000000001</v>
       </c>
       <c r="G87" s="5">
         <f>B87-E87</f>
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="H87" t="s">
+        <v>91</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="C88" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="D88" s="5">
+        <f>(C88-B88)/2</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="E88" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="F88" s="5">
+        <f>C88+E88</f>
+        <v>1.3420000000000001</v>
+      </c>
+      <c r="G88" s="5">
+        <f>B88-E88</f>
         <v>1.298</v>
       </c>
-      <c r="I87" s="6" t="s">
+      <c r="I88" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="30">
-      <c r="A89" s="1" t="s">
+    <row r="90" spans="1:9" ht="30">
+      <c r="A90" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H90" t="s">
         <v>106</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="I90" s="4" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" t="s">
-        <v>99</v>
-      </c>
-      <c r="B91" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="C91" s="5">
-        <v>1.88</v>
-      </c>
-      <c r="D91" s="5">
-        <f>(C91-B91)/2</f>
-        <v>3.9999999999999925E-2</v>
-      </c>
-      <c r="E91" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="F91" s="5">
-        <f>C91+E91</f>
-        <v>1.8819999999999999</v>
-      </c>
-      <c r="G91" s="5">
-        <f>B91-E91</f>
-        <v>1.798</v>
-      </c>
-      <c r="H91" t="s">
-        <v>101</v>
-      </c>
+      <c r="A91" s="1"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" t="s">
-        <v>100</v>
-      </c>
-      <c r="B92" s="5">
-        <v>2.56</v>
-      </c>
-      <c r="C92" s="5">
-        <v>2.64</v>
-      </c>
-      <c r="D92" s="5">
-        <f>(C92-B92)/2</f>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="E92" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="F92" s="5">
-        <f>C92+E92</f>
-        <v>2.6419999999999999</v>
-      </c>
-      <c r="G92" s="5">
-        <f>B92-E92</f>
-        <v>2.5580000000000003</v>
-      </c>
-      <c r="H92" t="s">
-        <v>102</v>
+      <c r="A92" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B93" s="5">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="C93" s="5">
-        <v>3.9870000000000001</v>
+        <v>1.88</v>
       </c>
       <c r="D93" s="5">
         <f>(C93-B93)/2</f>
-        <v>4.3500000000000094E-2</v>
+        <v>3.9999999999999925E-2</v>
       </c>
       <c r="E93" s="7">
         <v>2E-3</v>
       </c>
       <c r="F93" s="5">
         <f>C93+E93</f>
-        <v>3.9889999999999999</v>
+        <v>1.8819999999999999</v>
       </c>
       <c r="G93" s="5">
         <f>B93-E93</f>
+        <v>1.798</v>
+      </c>
+      <c r="H93" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="5">
+        <v>2.56</v>
+      </c>
+      <c r="C94" s="5">
+        <v>2.64</v>
+      </c>
+      <c r="D94" s="5">
+        <f>(C94-B94)/2</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="E94" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="F94" s="5">
+        <f>C94+E94</f>
+        <v>2.6419999999999999</v>
+      </c>
+      <c r="G94" s="5">
+        <f>B94-E94</f>
+        <v>2.5580000000000003</v>
+      </c>
+      <c r="H94" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="C95" s="5">
+        <v>3.9870000000000001</v>
+      </c>
+      <c r="D95" s="5">
+        <f>(C95-B95)/2</f>
+        <v>4.3500000000000094E-2</v>
+      </c>
+      <c r="E95" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="F95" s="5">
+        <f>C95+E95</f>
+        <v>3.9889999999999999</v>
+      </c>
+      <c r="G95" s="5">
+        <f>B95-E95</f>
         <v>3.8980000000000001</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H95" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="1" t="s">
+    <row r="98" spans="1:9">
+      <c r="A98" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
-      <c r="A98" t="s">
+    <row r="99" spans="1:9">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
         <v>107</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B101" s="5">
         <v>1.1359999999999999</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C101" s="5">
         <v>1.276</v>
       </c>
-      <c r="D98" s="5">
-        <f t="shared" ref="D98:D105" si="24">(C98-B98)/2</f>
+      <c r="D101" s="5">
+        <f t="shared" ref="D101:D108" si="24">(C101-B101)/2</f>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="E98" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F98" s="5">
-        <f t="shared" ref="F98:F105" si="25">C98+E98</f>
+      <c r="E101" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F101" s="5">
+        <f t="shared" ref="F101:F108" si="25">C101+E101</f>
         <v>1.2789999999999999</v>
       </c>
-      <c r="G98" s="5">
-        <f t="shared" ref="G98:G105" si="26">B98-E98</f>
+      <c r="G101" s="5">
+        <f t="shared" ref="G101:G108" si="26">B101-E101</f>
         <v>1.133</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
         <v>108</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B102" s="5">
         <v>1.504</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C102" s="5">
         <v>1.6160000000000001</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D102" s="5">
         <f t="shared" si="24"/>
         <v>5.600000000000005E-2</v>
       </c>
-      <c r="E99" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F99" s="5">
+      <c r="E102" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F102" s="5">
         <f t="shared" si="25"/>
         <v>1.619</v>
       </c>
-      <c r="G99" s="5">
+      <c r="G102" s="5">
         <f t="shared" si="26"/>
         <v>1.5010000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
-      <c r="A100" t="s">
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
         <v>109</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B103" s="5">
         <v>2.1349999999999998</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C103" s="5">
         <v>2.2599999999999998</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D103" s="5">
         <f t="shared" si="24"/>
         <v>6.25E-2</v>
       </c>
-      <c r="E100" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F100" s="5">
+      <c r="E103" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F103" s="5">
         <f t="shared" si="25"/>
         <v>2.2629999999999999</v>
       </c>
-      <c r="G100" s="5">
+      <c r="G103" s="5">
         <f t="shared" si="26"/>
         <v>2.1319999999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
         <v>110</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B104" s="5">
         <v>2.5510000000000002</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C104" s="5">
         <v>2.6709999999999998</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D104" s="5">
         <f t="shared" si="24"/>
         <v>5.9999999999999831E-2</v>
       </c>
-      <c r="E101" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F101" s="5">
+      <c r="E104" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F104" s="5">
         <f t="shared" si="25"/>
         <v>2.6739999999999999</v>
       </c>
-      <c r="G101" s="5">
+      <c r="G104" s="5">
         <f t="shared" si="26"/>
         <v>2.548</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
         <v>111</v>
       </c>
-      <c r="B102" s="5">
+      <c r="B105" s="5">
         <v>3</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C105" s="5">
         <v>3.1</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D105" s="5">
         <f t="shared" si="24"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="E102" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F102" s="5">
+      <c r="E105" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F105" s="5">
         <f t="shared" si="25"/>
         <v>3.1030000000000002</v>
       </c>
-      <c r="G102" s="5">
+      <c r="G105" s="5">
         <f t="shared" si="26"/>
         <v>2.9969999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
-      <c r="A103" t="s">
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
         <v>112</v>
       </c>
-      <c r="B103" s="5">
+      <c r="B106" s="5">
         <v>3.9</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C106" s="5">
         <v>4.0140000000000002</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D106" s="5">
         <f t="shared" si="24"/>
         <v>5.7000000000000162E-2</v>
       </c>
-      <c r="E103" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F103" s="5">
+      <c r="E106" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F106" s="5">
         <f t="shared" si="25"/>
         <v>4.0170000000000003</v>
       </c>
-      <c r="G103" s="5">
+      <c r="G106" s="5">
         <f t="shared" si="26"/>
         <v>3.8969999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
-      <c r="A104" t="s">
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
         <v>113</v>
       </c>
-      <c r="B104" s="5">
+      <c r="B107" s="5">
         <v>5.36</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C107" s="5">
         <v>5.5179999999999998</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D107" s="5">
         <f t="shared" si="24"/>
         <v>7.8999999999999737E-2</v>
       </c>
-      <c r="E104" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F104" s="5">
+      <c r="E107" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F107" s="5">
         <f t="shared" si="25"/>
         <v>5.5209999999999999</v>
       </c>
-      <c r="G104" s="5">
+      <c r="G107" s="5">
         <f t="shared" si="26"/>
         <v>5.3570000000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="s">
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
         <v>114</v>
       </c>
-      <c r="B105" s="5">
+      <c r="B108" s="5">
         <v>5.9729999999999999</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C108" s="5">
         <v>6.0789999999999997</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D108" s="5">
         <f t="shared" si="24"/>
         <v>5.2999999999999936E-2</v>
       </c>
-      <c r="E105" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F105" s="5">
+      <c r="E108" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F108" s="5">
         <f t="shared" si="25"/>
         <v>6.0819999999999999</v>
       </c>
-      <c r="G105" s="5">
+      <c r="G108" s="5">
         <f t="shared" si="26"/>
         <v>5.97</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="1" t="s">
+    <row r="110" spans="1:9">
+      <c r="A110" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H110" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
-      <c r="A109" t="s">
+    <row r="111" spans="1:9">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
         <v>116</v>
       </c>
-      <c r="B109" s="5">
+      <c r="B113" s="5">
         <v>0.71499999999999997</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C113" s="5">
         <v>0.76500000000000001</v>
       </c>
-      <c r="D109" s="5">
-        <f t="shared" ref="D109:D118" si="27">(C109-B109)/2</f>
+      <c r="D113" s="5">
+        <f t="shared" ref="D113:D122" si="27">(C113-B113)/2</f>
         <v>2.5000000000000022E-2</v>
       </c>
-      <c r="E109" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F109" s="5">
-        <f t="shared" ref="F109:F118" si="28">C109+E109</f>
+      <c r="E113" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F113" s="5">
+        <f t="shared" ref="F113:F122" si="28">C113+E113</f>
         <v>0.76800000000000002</v>
       </c>
-      <c r="G109" s="5">
-        <f t="shared" ref="G109:G118" si="29">B109-E109</f>
+      <c r="G113" s="5">
+        <f t="shared" ref="G113:G122" si="29">B113-E113</f>
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
-      <c r="A110" t="s">
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
         <v>117</v>
       </c>
-      <c r="B110" s="5">
+      <c r="B114" s="5">
         <v>0.95</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C114" s="5">
         <v>1</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D114" s="5">
         <f t="shared" si="27"/>
         <v>2.5000000000000022E-2</v>
       </c>
-      <c r="E110" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F110" s="5">
+      <c r="E114" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F114" s="5">
         <f t="shared" si="28"/>
         <v>1.0029999999999999</v>
       </c>
-      <c r="G110" s="5">
+      <c r="G114" s="5">
         <f t="shared" si="29"/>
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
-      <c r="A111" t="s">
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
         <v>118</v>
       </c>
-      <c r="B111" s="5">
+      <c r="B115" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C115" s="5">
         <v>1.21</v>
       </c>
-      <c r="D111" s="5">
+      <c r="D115" s="5">
         <f t="shared" si="27"/>
         <v>3.5000000000000031E-2</v>
       </c>
-      <c r="E111" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F111" s="5">
+      <c r="E115" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F115" s="5">
         <f t="shared" si="28"/>
         <v>1.2129999999999999</v>
       </c>
-      <c r="G111" s="5">
+      <c r="G115" s="5">
         <f t="shared" si="29"/>
         <v>1.137</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
-      <c r="A112" t="s">
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
         <v>119</v>
       </c>
-      <c r="B112" s="5">
+      <c r="B116" s="5">
         <v>1.52</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C116" s="5">
         <v>1.63</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D116" s="5">
         <f t="shared" si="27"/>
         <v>5.4999999999999938E-2</v>
       </c>
-      <c r="E112" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F112" s="5">
+      <c r="E116" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F116" s="5">
         <f t="shared" si="28"/>
         <v>1.6329999999999998</v>
       </c>
-      <c r="G112" s="5">
+      <c r="G116" s="5">
         <f t="shared" si="29"/>
         <v>1.5170000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
-      <c r="A113" t="s">
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
         <v>120</v>
       </c>
-      <c r="B113" s="5">
+      <c r="B117" s="5">
         <v>2.14</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C117" s="5">
         <v>2.2599999999999998</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D117" s="5">
         <f t="shared" si="27"/>
         <v>5.9999999999999831E-2</v>
       </c>
-      <c r="E113" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F113" s="5">
+      <c r="E117" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F117" s="5">
         <f t="shared" si="28"/>
         <v>2.2629999999999999</v>
       </c>
-      <c r="G113" s="5">
+      <c r="G117" s="5">
         <f t="shared" si="29"/>
         <v>2.137</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
-      <c r="A114" t="s">
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
         <v>121</v>
       </c>
-      <c r="B114" s="5">
+      <c r="B118" s="5">
         <v>2.56</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C118" s="5">
         <v>2.63</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D118" s="5">
         <f t="shared" si="27"/>
         <v>3.499999999999992E-2</v>
       </c>
-      <c r="E114" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F114" s="5">
+      <c r="E118" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F118" s="5">
         <f t="shared" si="28"/>
         <v>2.633</v>
       </c>
-      <c r="G114" s="5">
+      <c r="G118" s="5">
         <f t="shared" si="29"/>
         <v>2.5569999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
-      <c r="A115" t="s">
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
         <v>122</v>
       </c>
-      <c r="B115" s="5">
+      <c r="B119" s="5">
         <v>3</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C119" s="5">
         <v>3.1</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D119" s="5">
         <f t="shared" si="27"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="E115" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F115" s="5">
+      <c r="E119" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F119" s="5">
         <f t="shared" si="28"/>
         <v>3.1030000000000002</v>
       </c>
-      <c r="G115" s="5">
+      <c r="G119" s="5">
         <f t="shared" si="29"/>
         <v>2.9969999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
-      <c r="A116" t="s">
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
         <v>123</v>
       </c>
-      <c r="B116" s="5">
+      <c r="B120" s="5">
         <v>3.9</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C120" s="5">
         <v>4</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D120" s="5">
         <f t="shared" si="27"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="E116" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F116" s="5">
+      <c r="E120" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F120" s="5">
         <f t="shared" si="28"/>
         <v>4.0030000000000001</v>
       </c>
-      <c r="G116" s="5">
+      <c r="G120" s="5">
         <f t="shared" si="29"/>
         <v>3.8969999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
-      <c r="A117" t="s">
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
         <v>124</v>
       </c>
-      <c r="B117" s="5">
+      <c r="B121" s="5">
         <v>5.38</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C121" s="5">
         <v>5.54</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D121" s="5">
         <f t="shared" si="27"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="E117" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F117" s="5">
+      <c r="E121" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F121" s="5">
         <f t="shared" si="28"/>
         <v>5.5430000000000001</v>
       </c>
-      <c r="G117" s="5">
+      <c r="G121" s="5">
         <f t="shared" si="29"/>
         <v>5.3769999999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
-      <c r="A118" t="s">
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
         <v>125</v>
       </c>
-      <c r="B118" s="5">
+      <c r="B122" s="5">
         <v>7.5149999999999997</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C122" s="5">
         <v>7.6749999999999998</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D122" s="5">
         <f t="shared" si="27"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="E118" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F118" s="5">
+      <c r="E122" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F122" s="5">
         <f t="shared" si="28"/>
         <v>7.6779999999999999</v>
       </c>
-      <c r="G118" s="5">
+      <c r="G122" s="5">
         <f t="shared" si="29"/>
         <v>7.5119999999999996</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
-      <c r="A120" t="s">
-        <v>126</v>
-      </c>
-      <c r="B120" s="5">
-        <v>3</v>
-      </c>
-      <c r="C120" s="5">
-        <v>3.12</v>
-      </c>
-      <c r="D120" s="5">
-        <f>(C120-B120)/2</f>
-        <v>6.0000000000000053E-2</v>
-      </c>
-      <c r="E120" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F120" s="5">
-        <f>C120+E120</f>
-        <v>3.1230000000000002</v>
-      </c>
-      <c r="G120" s="5">
-        <f>B120-E120</f>
-        <v>2.9969999999999999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" t="s">
-        <v>127</v>
-      </c>
-      <c r="B121" s="5">
-        <v>3.9</v>
-      </c>
-      <c r="C121" s="5">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="D121" s="5">
-        <f>(C121-B121)/2</f>
-        <v>5.9999999999999831E-2</v>
-      </c>
-      <c r="E121" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F121" s="5">
-        <f>C121+E121</f>
-        <v>4.0229999999999997</v>
-      </c>
-      <c r="G121" s="5">
-        <f>B121-E121</f>
-        <v>3.8969999999999998</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" t="s">
-        <v>128</v>
-      </c>
-      <c r="B123" s="5">
-        <v>1.006</v>
-      </c>
-      <c r="C123" s="5">
-        <v>1.127</v>
-      </c>
-      <c r="D123" s="5">
-        <f t="shared" ref="D123:D130" si="30">(C123-B123)/2</f>
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="E123" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F123" s="5">
-        <f t="shared" ref="F123:F130" si="31">C123+E123</f>
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="G123" s="5">
-        <f t="shared" ref="G123:G130" si="32">B123-E123</f>
-        <v>1.0030000000000001</v>
-      </c>
-      <c r="H123" t="s">
-        <v>277</v>
-      </c>
-      <c r="I123" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" s="5">
+        <v>3</v>
+      </c>
+      <c r="C124" s="5">
+        <v>3.12</v>
+      </c>
+      <c r="D124" s="5">
+        <f>(C124-B124)/2</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="E124" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F124" s="5">
+        <f>C124+E124</f>
+        <v>3.1230000000000002</v>
+      </c>
+      <c r="G124" s="5">
+        <f>B124-E124</f>
+        <v>2.9969999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="C125" s="5">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="D125" s="5">
+        <f>(C125-B125)/2</f>
+        <v>5.9999999999999831E-2</v>
+      </c>
+      <c r="E125" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F125" s="5">
+        <f>C125+E125</f>
+        <v>4.0229999999999997</v>
+      </c>
+      <c r="G125" s="5">
+        <f>B125-E125</f>
+        <v>3.8969999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" s="5">
+        <v>1.006</v>
+      </c>
+      <c r="C127" s="5">
+        <v>1.127</v>
+      </c>
+      <c r="D127" s="5">
+        <f t="shared" ref="D127:D134" si="30">(C127-B127)/2</f>
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="E127" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F127" s="5">
+        <f t="shared" ref="F127:F134" si="31">C127+E127</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G127" s="5">
+        <f t="shared" ref="G127:G134" si="32">B127-E127</f>
+        <v>1.0030000000000001</v>
+      </c>
+      <c r="H127" t="s">
+        <v>277</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
         <v>129</v>
       </c>
-      <c r="B124" s="5">
+      <c r="B128" s="5">
         <v>1.3979999999999999</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C128" s="5">
         <v>1.52</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D128" s="5">
         <f t="shared" si="30"/>
         <v>6.1000000000000054E-2</v>
       </c>
-      <c r="E124" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F124" s="5">
+      <c r="E128" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F128" s="5">
         <f t="shared" si="31"/>
         <v>1.5229999999999999</v>
       </c>
-      <c r="G124" s="5">
+      <c r="G128" s="5">
         <f t="shared" si="32"/>
         <v>1.395</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H128" t="s">
         <v>276</v>
       </c>
-      <c r="I124" s="6" t="s">
+      <c r="I128" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
-      <c r="A125" t="s">
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
         <v>130</v>
       </c>
-      <c r="B125" s="5">
+      <c r="B129" s="5">
         <v>2.0169999999999999</v>
       </c>
-      <c r="C125" s="5">
+      <c r="C129" s="5">
         <v>2.1379999999999999</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D129" s="5">
         <f t="shared" si="30"/>
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="E125" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F125" s="5">
+      <c r="E129" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F129" s="5">
         <f t="shared" si="31"/>
         <v>2.141</v>
       </c>
-      <c r="G125" s="5">
+      <c r="G129" s="5">
         <f t="shared" si="32"/>
         <v>2.0139999999999998</v>
       </c>
-      <c r="H125" t="s">
+      <c r="H129" t="s">
         <v>275</v>
       </c>
-      <c r="I125" s="4" t="s">
+      <c r="I129" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
-      <c r="A126" t="s">
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
         <v>131</v>
       </c>
-      <c r="B126" s="5">
+      <c r="B130" s="5">
         <v>2.4790000000000001</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C130" s="5">
         <v>2.5550000000000002</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D130" s="5">
         <f t="shared" si="30"/>
         <v>3.8000000000000034E-2</v>
       </c>
-      <c r="E126" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F126" s="5">
+      <c r="E130" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F130" s="5">
         <f t="shared" si="31"/>
         <v>2.5580000000000003</v>
       </c>
-      <c r="G126" s="5">
+      <c r="G130" s="5">
         <f t="shared" si="32"/>
         <v>2.476</v>
       </c>
-      <c r="H126" t="s">
+      <c r="H130" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
-      <c r="A127" t="s">
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
         <v>132</v>
       </c>
-      <c r="B127" s="5">
+      <c r="B131" s="5">
         <v>2.88</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C131" s="5">
         <v>2.99</v>
       </c>
-      <c r="D127" s="5">
+      <c r="D131" s="5">
         <f t="shared" si="30"/>
         <v>5.500000000000016E-2</v>
       </c>
-      <c r="E127" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F127" s="5">
+      <c r="E131" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F131" s="5">
         <f t="shared" si="31"/>
         <v>2.9930000000000003</v>
       </c>
-      <c r="G127" s="5">
+      <c r="G131" s="5">
         <f t="shared" si="32"/>
         <v>2.8769999999999998</v>
       </c>
-      <c r="H127" t="s">
+      <c r="H131" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
-      <c r="A128" t="s">
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
         <v>133</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B132" s="5">
         <v>3.8113999999999999</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C132" s="5">
         <v>3.8839999999999999</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D132" s="5">
         <f t="shared" si="30"/>
         <v>3.6299999999999999E-2</v>
       </c>
-      <c r="E128" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F128" s="5">
+      <c r="E132" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F132" s="5">
         <f t="shared" si="31"/>
         <v>3.887</v>
       </c>
-      <c r="G128" s="5">
+      <c r="G132" s="5">
         <f t="shared" si="32"/>
         <v>3.8083999999999998</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H132" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
-      <c r="A129" t="s">
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
         <v>134</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B133" s="5">
         <v>5.2720000000000002</v>
       </c>
-      <c r="C129" s="5">
+      <c r="C133" s="5">
         <v>5.3719999999999999</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D133" s="5">
         <f t="shared" si="30"/>
         <v>4.9999999999999822E-2</v>
       </c>
-      <c r="E129" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F129" s="5">
+      <c r="E133" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F133" s="5">
         <f t="shared" si="31"/>
         <v>5.375</v>
       </c>
-      <c r="G129" s="5">
+      <c r="G133" s="5">
         <f t="shared" si="32"/>
         <v>5.2690000000000001</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H133" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
-      <c r="A130" t="s">
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
         <v>135</v>
       </c>
-      <c r="B130" s="5">
+      <c r="B134" s="5">
         <v>7.3979999999999997</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C134" s="5">
         <v>7.508</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D134" s="5">
         <f t="shared" si="30"/>
         <v>5.500000000000016E-2</v>
       </c>
-      <c r="E130" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F130" s="5">
+      <c r="E134" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F134" s="5">
         <f t="shared" si="31"/>
         <v>7.5110000000000001</v>
       </c>
-      <c r="G130" s="5">
+      <c r="G134" s="5">
         <f t="shared" si="32"/>
         <v>7.3949999999999996</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H134" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
-      <c r="A132" t="s">
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
         <v>136</v>
       </c>
-      <c r="B132" s="5">
+      <c r="B136" s="5">
         <v>1.7549999999999999</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C136" s="5">
         <v>2</v>
       </c>
-      <c r="D132" s="5">
-        <f t="shared" ref="D132:D137" si="33">(C132-B132)/2</f>
+      <c r="D136" s="5">
+        <f t="shared" ref="D136:D141" si="33">(C136-B136)/2</f>
         <v>0.12250000000000005</v>
       </c>
-      <c r="E132" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F132" s="5">
-        <f t="shared" ref="F132:F137" si="34">C132+E132</f>
+      <c r="E136" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F136" s="5">
+        <f t="shared" ref="F136:F141" si="34">C136+E136</f>
         <v>2.0030000000000001</v>
       </c>
-      <c r="G132" s="5">
-        <f t="shared" ref="G132:G137" si="35">B132-E132</f>
+      <c r="G136" s="5">
+        <f t="shared" ref="G136:G141" si="35">B136-E136</f>
         <v>1.752</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
-      <c r="A133" t="s">
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
         <v>137</v>
       </c>
-      <c r="B133" s="5">
+      <c r="B137" s="5">
         <v>2.2450000000000001</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C137" s="5">
         <v>2.4780000000000002</v>
       </c>
-      <c r="D133" s="5">
+      <c r="D137" s="5">
         <f t="shared" si="33"/>
         <v>0.11650000000000005</v>
       </c>
-      <c r="E133" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F133" s="5">
+      <c r="E137" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F137" s="5">
         <f t="shared" si="34"/>
         <v>2.4810000000000003</v>
       </c>
-      <c r="G133" s="5">
+      <c r="G137" s="5">
         <f t="shared" si="35"/>
         <v>2.242</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
-      <c r="A134" t="s">
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
         <v>138</v>
       </c>
-      <c r="B134" s="5">
+      <c r="B138" s="5">
         <v>2.625</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C138" s="5">
         <v>2.8780000000000001</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D138" s="5">
         <f t="shared" si="33"/>
         <v>0.12650000000000006</v>
       </c>
-      <c r="E134" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F134" s="5">
+      <c r="E138" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F138" s="5">
         <f t="shared" si="34"/>
         <v>2.8810000000000002</v>
       </c>
-      <c r="G134" s="5">
+      <c r="G138" s="5">
         <f t="shared" si="35"/>
         <v>2.6219999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
-      <c r="A135" t="s">
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
         <v>139</v>
       </c>
-      <c r="B135" s="5">
+      <c r="B139" s="5">
         <v>3.5550000000000002</v>
       </c>
-      <c r="C135" s="5">
+      <c r="C139" s="5">
         <v>3.7850000000000001</v>
       </c>
-      <c r="D135" s="5">
+      <c r="D139" s="5">
         <f t="shared" si="33"/>
         <v>0.11499999999999999</v>
       </c>
-      <c r="E135" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F135" s="5">
+      <c r="E139" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F139" s="5">
         <f t="shared" si="34"/>
         <v>3.7880000000000003</v>
       </c>
-      <c r="G135" s="5">
+      <c r="G139" s="5">
         <f t="shared" si="35"/>
         <v>3.552</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
-      <c r="A136" t="s">
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
         <v>140</v>
       </c>
-      <c r="B136" s="5">
+      <c r="B140" s="5">
         <v>4.9800000000000004</v>
       </c>
-      <c r="C136" s="5">
+      <c r="C140" s="5">
         <v>5.24</v>
       </c>
-      <c r="D136" s="5">
+      <c r="D140" s="5">
         <f t="shared" si="33"/>
         <v>0.12999999999999989</v>
       </c>
-      <c r="E136" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F136" s="5">
+      <c r="E140" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F140" s="5">
         <f t="shared" si="34"/>
         <v>5.2430000000000003</v>
       </c>
-      <c r="G136" s="5">
+      <c r="G140" s="5">
         <f t="shared" si="35"/>
         <v>4.9770000000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
-      <c r="A137" t="s">
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
         <v>141</v>
       </c>
-      <c r="B137" s="5">
+      <c r="B141" s="5">
         <v>7.3979999999999997</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C141" s="5">
         <v>7.508</v>
       </c>
-      <c r="D137" s="5">
+      <c r="D141" s="5">
         <f t="shared" si="33"/>
         <v>5.500000000000016E-2</v>
       </c>
-      <c r="E137" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F137" s="5">
+      <c r="E141" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F141" s="5">
         <f t="shared" si="34"/>
         <v>7.5110000000000001</v>
       </c>
-      <c r="G137" s="5">
+      <c r="G141" s="5">
         <f t="shared" si="35"/>
         <v>7.3949999999999996</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="1" t="s">
+    <row r="144" spans="1:9">
+      <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H144" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
-      <c r="A142" t="s">
+    <row r="145" spans="1:9">
+      <c r="A145" s="1"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H146" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I146" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
         <v>143</v>
       </c>
-      <c r="B142" s="5">
+      <c r="B147" s="5">
         <v>0.53800000000000003</v>
       </c>
-      <c r="C142" s="5">
+      <c r="C147" s="5">
         <v>0.55800000000000005</v>
       </c>
-      <c r="D142" s="5">
-        <f t="shared" ref="D142" si="36">(C142-B142)/2</f>
+      <c r="D147" s="5">
+        <f t="shared" ref="D147" si="36">(C147-B147)/2</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="E142" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F142" s="5">
-        <f t="shared" ref="F142" si="37">C142+E142</f>
+      <c r="E147" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F147" s="5">
+        <f t="shared" ref="F147" si="37">C147+E147</f>
         <v>0.56100000000000005</v>
       </c>
-      <c r="G142" s="5">
-        <f t="shared" ref="G142" si="38">B142-E142</f>
+      <c r="G147" s="5">
+        <f t="shared" ref="G147" si="38">B147-E147</f>
         <v>0.53500000000000003</v>
       </c>
-      <c r="H142" t="s">
+      <c r="H147" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
-      <c r="A143" t="s">
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
         <v>144</v>
       </c>
-      <c r="B143" s="5">
+      <c r="B148" s="5">
         <v>0.56399999999999995</v>
       </c>
-      <c r="C143" s="5">
+      <c r="C148" s="5">
         <v>0.58399999999999996</v>
       </c>
-      <c r="D143" s="5">
-        <f t="shared" ref="D143" si="39">(C143-B143)/2</f>
+      <c r="D148" s="5">
+        <f t="shared" ref="D148" si="39">(C148-B148)/2</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="E143" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F143" s="5">
-        <f t="shared" ref="F143" si="40">C143+E143</f>
+      <c r="E148" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F148" s="5">
+        <f t="shared" ref="F148" si="40">C148+E148</f>
         <v>0.58699999999999997</v>
       </c>
-      <c r="G143" s="5">
-        <f t="shared" ref="G143" si="41">B143-E143</f>
+      <c r="G148" s="5">
+        <f t="shared" ref="G148" si="41">B148-E148</f>
         <v>0.56099999999999994</v>
       </c>
-      <c r="H143" t="s">
+      <c r="H148" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
-      <c r="A144" t="s">
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
         <v>145</v>
       </c>
-      <c r="B144" s="5">
+      <c r="B149" s="5">
         <v>0.71</v>
       </c>
-      <c r="C144" s="5">
+      <c r="C149" s="5">
         <v>0.73599999999999999</v>
       </c>
-      <c r="D144" s="5">
-        <f t="shared" ref="D144" si="42">(C144-B144)/2</f>
+      <c r="D149" s="5">
+        <f t="shared" ref="D149" si="42">(C149-B149)/2</f>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="E144" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F144" s="5">
-        <f t="shared" ref="F144" si="43">C144+E144</f>
+      <c r="E149" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F149" s="5">
+        <f t="shared" ref="F149" si="43">C149+E149</f>
         <v>0.73899999999999999</v>
       </c>
-      <c r="G144" s="5">
-        <f t="shared" ref="G144" si="44">B144-E144</f>
+      <c r="G149" s="5">
+        <f t="shared" ref="G149" si="44">B149-E149</f>
         <v>0.70699999999999996</v>
       </c>
-      <c r="H144" t="s">
+      <c r="H149" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
-      <c r="A145" t="s">
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
         <v>146</v>
       </c>
-      <c r="B145" s="5">
+      <c r="B150" s="5">
         <v>0.74</v>
       </c>
-      <c r="C145" s="5">
+      <c r="C150" s="5">
         <v>0.76600000000000001</v>
       </c>
-      <c r="D145" s="5">
-        <f t="shared" ref="D145:D148" si="45">(C145-B145)/2</f>
+      <c r="D150" s="5">
+        <f t="shared" ref="D150:D153" si="45">(C150-B150)/2</f>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="E145" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F145" s="5">
-        <f t="shared" ref="F145" si="46">C145+E145</f>
+      <c r="E150" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F150" s="5">
+        <f t="shared" ref="F150" si="46">C150+E150</f>
         <v>0.76900000000000002</v>
       </c>
-      <c r="G145" s="5">
-        <f t="shared" ref="G145" si="47">B145-E145</f>
+      <c r="G150" s="5">
+        <f t="shared" ref="G150" si="47">B150-E150</f>
         <v>0.73699999999999999</v>
       </c>
-      <c r="H145" t="s">
+      <c r="H150" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
-      <c r="A146" t="s">
+    <row r="151" spans="1:9">
+      <c r="A151" t="s">
         <v>147</v>
       </c>
-      <c r="B146" s="5">
+      <c r="B151" s="5">
         <v>0.86399999999999999</v>
       </c>
-      <c r="C146" s="5">
+      <c r="C151" s="5">
         <v>0.89</v>
       </c>
-      <c r="D146" s="5">
+      <c r="D151" s="5">
         <f t="shared" si="45"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="E146" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F146" s="5">
-        <f t="shared" ref="F146" si="48">C146+E146</f>
+      <c r="E151" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F151" s="5">
+        <f t="shared" ref="F151" si="48">C151+E151</f>
         <v>0.89300000000000002</v>
       </c>
-      <c r="G146" s="5">
-        <f t="shared" ref="G146" si="49">B146-E146</f>
+      <c r="G151" s="5">
+        <f t="shared" ref="G151" si="49">B151-E151</f>
         <v>0.86099999999999999</v>
       </c>
-      <c r="H146" t="s">
+      <c r="H151" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
-      <c r="A147" t="s">
+    <row r="152" spans="1:9">
+      <c r="A152" t="s">
         <v>148</v>
       </c>
-      <c r="B147" s="5">
+      <c r="B152" s="5">
         <v>0.89400000000000002</v>
       </c>
-      <c r="C147" s="5">
+      <c r="C152" s="5">
         <v>0.92</v>
       </c>
-      <c r="D147" s="5">
+      <c r="D152" s="5">
         <f t="shared" si="45"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="E147" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F147" s="5">
-        <f t="shared" ref="F147" si="50">C147+E147</f>
+      <c r="E152" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F152" s="5">
+        <f t="shared" ref="F152" si="50">C152+E152</f>
         <v>0.92300000000000004</v>
       </c>
-      <c r="G147" s="5">
-        <f t="shared" ref="G147" si="51">B147-E147</f>
+      <c r="G152" s="5">
+        <f t="shared" ref="G152" si="51">B152-E152</f>
         <v>0.89100000000000001</v>
       </c>
-      <c r="H147" t="s">
+      <c r="H152" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
-      <c r="A148" t="s">
+    <row r="153" spans="1:9">
+      <c r="A153" t="s">
         <v>149</v>
       </c>
-      <c r="B148" s="5">
+      <c r="B153" s="5">
         <v>1.1200000000000001</v>
       </c>
-      <c r="C148" s="5">
+      <c r="C153" s="5">
         <v>1.17</v>
       </c>
-      <c r="D148" s="5">
+      <c r="D153" s="5">
         <f t="shared" si="45"/>
         <v>2.4999999999999911E-2</v>
       </c>
-      <c r="E148" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F148" s="5">
-        <f t="shared" ref="F148" si="52">C148+E148</f>
+      <c r="E153" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F153" s="5">
+        <f t="shared" ref="F153" si="52">C153+E153</f>
         <v>1.1729999999999998</v>
       </c>
-      <c r="G148" s="5">
-        <f t="shared" ref="G148" si="53">B148-E148</f>
+      <c r="G153" s="5">
+        <f t="shared" ref="G153" si="53">B153-E153</f>
         <v>1.1170000000000002</v>
       </c>
-      <c r="H148" t="s">
+      <c r="H153" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="1" t="s">
+    <row r="156" spans="1:9">
+      <c r="A156" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H151" t="s">
+      <c r="H156" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
-      <c r="A153" t="s">
+    <row r="157" spans="1:9">
+      <c r="A157" s="1"/>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F158" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G158" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H158" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I158" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" t="s">
         <v>163</v>
       </c>
-      <c r="B153" s="5">
+      <c r="B159" s="5">
         <v>0.90300000000000002</v>
       </c>
-      <c r="C153" s="5">
+      <c r="C159" s="5">
         <v>0.92100000000000004</v>
       </c>
-      <c r="D153" s="5">
-        <f t="shared" ref="D153" si="54">(C153-B153)/2</f>
+      <c r="D159" s="5">
+        <f t="shared" ref="D159" si="54">(C159-B159)/2</f>
         <v>9.000000000000008E-3</v>
       </c>
-      <c r="E153" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F153" s="5">
-        <f t="shared" ref="F153" si="55">C153+E153</f>
+      <c r="E159" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F159" s="5">
+        <f t="shared" ref="F159" si="55">C159+E159</f>
         <v>0.92400000000000004</v>
       </c>
-      <c r="G153" s="5">
-        <f t="shared" ref="G153" si="56">B153-E153</f>
+      <c r="G159" s="5">
+        <f t="shared" ref="G159" si="56">B159-E159</f>
         <v>0.9</v>
       </c>
-      <c r="H153" t="s">
+      <c r="H159" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
-      <c r="A154" t="s">
+    <row r="160" spans="1:9">
+      <c r="A160" t="s">
         <v>164</v>
       </c>
-      <c r="B154" s="5">
+      <c r="B160" s="5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="C154" s="5">
+      <c r="C160" s="5">
         <v>1.17</v>
       </c>
-      <c r="D154" s="5">
-        <f t="shared" ref="D154" si="57">(C154-B154)/2</f>
+      <c r="D160" s="5">
+        <f t="shared" ref="D160" si="57">(C160-B160)/2</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="E154" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F154" s="5">
-        <f t="shared" ref="F154" si="58">C154+E154</f>
+      <c r="E160" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F160" s="5">
+        <f t="shared" ref="F160" si="58">C160+E160</f>
         <v>1.1729999999999998</v>
       </c>
-      <c r="G154" s="5">
-        <f t="shared" ref="G154" si="59">B154-E154</f>
+      <c r="G160" s="5">
+        <f t="shared" ref="G160" si="59">B160-E160</f>
         <v>1.127</v>
       </c>
-      <c r="H154" t="s">
+      <c r="H160" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
-      <c r="A155" t="s">
+    <row r="161" spans="1:9">
+      <c r="A161" t="s">
         <v>167</v>
       </c>
-      <c r="B155" s="5">
+      <c r="B161" s="5">
         <v>1.3</v>
       </c>
-      <c r="C155" s="5">
+      <c r="C161" s="5">
         <v>1.34</v>
       </c>
-      <c r="D155" s="5">
-        <f t="shared" ref="D155" si="60">(C155-B155)/2</f>
+      <c r="D161" s="5">
+        <f t="shared" ref="D161" si="60">(C161-B161)/2</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="E155" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F155" s="5">
-        <f t="shared" ref="F155" si="61">C155+E155</f>
+      <c r="E161" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F161" s="5">
+        <f t="shared" ref="F161" si="61">C161+E161</f>
         <v>1.343</v>
       </c>
-      <c r="G155" s="5">
-        <f t="shared" ref="G155" si="62">B155-E155</f>
+      <c r="G161" s="5">
+        <f t="shared" ref="G161" si="62">B161-E161</f>
         <v>1.2970000000000002</v>
       </c>
-      <c r="H155" t="s">
+      <c r="H161" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
-      <c r="A156" t="s">
+    <row r="162" spans="1:9">
+      <c r="A162" t="s">
         <v>169</v>
       </c>
-      <c r="B156" s="5">
+      <c r="B162" s="5">
         <v>1.6</v>
       </c>
-      <c r="C156" s="5">
+      <c r="C162" s="5">
         <v>1.64</v>
       </c>
-      <c r="D156" s="5">
-        <f t="shared" ref="D156" si="63">(C156-B156)/2</f>
+      <c r="D162" s="5">
+        <f t="shared" ref="D162" si="63">(C162-B162)/2</f>
         <v>1.9999999999999907E-2</v>
       </c>
-      <c r="E156" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F156" s="5">
-        <f t="shared" ref="F156" si="64">C156+E156</f>
+      <c r="E162" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F162" s="5">
+        <f t="shared" ref="F162" si="64">C162+E162</f>
         <v>1.6429999999999998</v>
       </c>
-      <c r="G156" s="5">
-        <f t="shared" ref="G156" si="65">B156-E156</f>
+      <c r="G162" s="5">
+        <f t="shared" ref="G162" si="65">B162-E162</f>
         <v>1.5970000000000002</v>
       </c>
-      <c r="H156" t="s">
+      <c r="H162" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
-      <c r="A157" t="s">
+    <row r="163" spans="1:9">
+      <c r="A163" t="s">
         <v>171</v>
       </c>
-      <c r="B157" s="5">
+      <c r="B163" s="5">
         <v>2</v>
       </c>
-      <c r="C157" s="5">
+      <c r="C163" s="5">
         <v>2.04</v>
       </c>
-      <c r="D157" s="5">
-        <f t="shared" ref="D157" si="66">(C157-B157)/2</f>
+      <c r="D163" s="5">
+        <f t="shared" ref="D163" si="66">(C163-B163)/2</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="E157" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F157" s="5">
-        <f t="shared" ref="F157" si="67">C157+E157</f>
+      <c r="E163" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F163" s="5">
+        <f t="shared" ref="F163" si="67">C163+E163</f>
         <v>2.0430000000000001</v>
       </c>
-      <c r="G157" s="5">
-        <f t="shared" ref="G157" si="68">B157-E157</f>
+      <c r="G163" s="5">
+        <f t="shared" ref="G163" si="68">B163-E163</f>
         <v>1.9970000000000001</v>
       </c>
-      <c r="H157" t="s">
+      <c r="H163" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
-      <c r="A160" s="1" t="s">
+    <row r="166" spans="1:9">
+      <c r="A166" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
-      <c r="A161" s="1"/>
-    </row>
-    <row r="162" spans="1:9">
-      <c r="A162" s="1" t="s">
+    <row r="167" spans="1:9">
+      <c r="A167" s="1"/>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F168" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G168" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H168" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I168" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="1" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
-      <c r="A164" t="s">
-        <v>194</v>
-      </c>
-      <c r="B164" s="5">
-        <v>1.145</v>
-      </c>
-      <c r="C164" s="5">
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="D164" s="5">
-        <f t="shared" ref="D164" si="69">(C164-B164)/2</f>
-        <v>5.4999999999999938E-2</v>
-      </c>
-      <c r="E164" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F164" s="5">
-        <f t="shared" ref="F164" si="70">C164+E164</f>
-        <v>1.2579999999999998</v>
-      </c>
-      <c r="G164" s="5">
-        <f t="shared" ref="G164" si="71">B164-E164</f>
-        <v>1.1420000000000001</v>
-      </c>
-      <c r="H164" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
-      <c r="A165" t="s">
-        <v>195</v>
-      </c>
-      <c r="B165" s="5">
-        <v>1.52</v>
-      </c>
-      <c r="C165" s="5">
-        <v>1.645</v>
-      </c>
-      <c r="D165" s="5">
-        <f t="shared" ref="D165" si="72">(C165-B165)/2</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="E165" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F165" s="5">
-        <f t="shared" ref="F165" si="73">C165+E165</f>
-        <v>1.6479999999999999</v>
-      </c>
-      <c r="G165" s="5">
-        <f t="shared" ref="G165" si="74">B165-E165</f>
-        <v>1.5170000000000001</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
-      <c r="A166" t="s">
-        <v>196</v>
-      </c>
-      <c r="B166" s="5">
-        <v>1.52</v>
-      </c>
-      <c r="C166" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="D166" s="5">
-        <f t="shared" ref="D166" si="75">(C166-B166)/2</f>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="E166" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F166" s="5">
-        <f t="shared" ref="F166" si="76">C166+E166</f>
-        <v>1.603</v>
-      </c>
-      <c r="G166" s="5">
-        <f t="shared" ref="G166" si="77">B166-E166</f>
-        <v>1.5170000000000001</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
-      <c r="A167" t="s">
-        <v>197</v>
-      </c>
-      <c r="B167" s="5">
-        <v>2.1520000000000001</v>
-      </c>
-      <c r="C167" s="5">
-        <v>2.2770000000000001</v>
-      </c>
-      <c r="D167" s="5">
-        <f t="shared" ref="D167" si="78">(C167-B167)/2</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="E167" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F167" s="5">
-        <f t="shared" ref="F167" si="79">C167+E167</f>
-        <v>2.2800000000000002</v>
-      </c>
-      <c r="G167" s="5">
-        <f t="shared" ref="G167" si="80">B167-E167</f>
-        <v>2.149</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
-      <c r="A168" t="s">
-        <v>198</v>
-      </c>
-      <c r="B168" s="5">
-        <v>2.1520000000000001</v>
-      </c>
-      <c r="C168" s="5">
-        <v>2.23</v>
-      </c>
-      <c r="D168" s="5">
-        <f t="shared" ref="D168" si="81">(C168-B168)/2</f>
-        <v>3.8999999999999924E-2</v>
-      </c>
-      <c r="E168" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F168" s="5">
-        <f t="shared" ref="F168" si="82">C168+E168</f>
-        <v>2.2330000000000001</v>
-      </c>
-      <c r="G168" s="5">
-        <f t="shared" ref="G168" si="83">B168-E168</f>
-        <v>2.149</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
-      <c r="A169" t="s">
-        <v>199</v>
-      </c>
-      <c r="B169" s="5">
-        <v>2.56</v>
-      </c>
-      <c r="C169" s="5">
-        <v>2.6379999999999999</v>
-      </c>
-      <c r="D169" s="5">
-        <f t="shared" ref="D169" si="84">(C169-B169)/2</f>
-        <v>3.8999999999999924E-2</v>
-      </c>
-      <c r="E169" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F169" s="5">
-        <f t="shared" ref="F169" si="85">C169+E169</f>
-        <v>2.641</v>
-      </c>
-      <c r="G169" s="5">
-        <f t="shared" ref="G169" si="86">B169-E169</f>
-        <v>2.5569999999999999</v>
-      </c>
-      <c r="H169" t="s">
-        <v>176</v>
-      </c>
-      <c r="I169" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
-      <c r="A170" t="s">
-        <v>200</v>
-      </c>
-      <c r="B170" s="5">
-        <v>3</v>
-      </c>
-      <c r="C170" s="5">
-        <v>3.125</v>
-      </c>
-      <c r="D170" s="5">
-        <f t="shared" ref="D170:D179" si="87">(C170-B170)/2</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="E170" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F170" s="5">
-        <f t="shared" ref="F170:F179" si="88">C170+E170</f>
-        <v>3.1280000000000001</v>
-      </c>
-      <c r="G170" s="5">
-        <f t="shared" ref="G170:G179" si="89">B170-E170</f>
-        <v>2.9969999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
+        <v>194</v>
+      </c>
+      <c r="B171" s="5">
+        <v>1.145</v>
+      </c>
+      <c r="C171" s="5">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="D171" s="5">
+        <f t="shared" ref="D171" si="69">(C171-B171)/2</f>
+        <v>5.4999999999999938E-2</v>
+      </c>
+      <c r="E171" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F171" s="5">
+        <f t="shared" ref="F171" si="70">C171+E171</f>
+        <v>1.2569999999999999</v>
+      </c>
+      <c r="G171" s="5">
+        <f t="shared" ref="G171" si="71">B171-E171</f>
+        <v>1.143</v>
+      </c>
+      <c r="H171" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" t="s">
+        <v>195</v>
+      </c>
+      <c r="B172" s="5">
+        <v>1.52</v>
+      </c>
+      <c r="C172" s="5">
+        <v>1.645</v>
+      </c>
+      <c r="D172" s="5">
+        <f t="shared" ref="D172" si="72">(C172-B172)/2</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E172" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F172" s="5">
+        <f t="shared" ref="F172" si="73">C172+E172</f>
+        <v>1.647</v>
+      </c>
+      <c r="G172" s="5">
+        <f t="shared" ref="G172" si="74">B172-E172</f>
+        <v>1.518</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" t="s">
+        <v>196</v>
+      </c>
+      <c r="B173" s="5">
+        <v>1.52</v>
+      </c>
+      <c r="C173" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="D173" s="5">
+        <f t="shared" ref="D173" si="75">(C173-B173)/2</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="E173" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F173" s="5">
+        <f t="shared" ref="F173" si="76">C173+E173</f>
+        <v>1.6020000000000001</v>
+      </c>
+      <c r="G173" s="5">
+        <f t="shared" ref="G173" si="77">B173-E173</f>
+        <v>1.518</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" t="s">
+        <v>197</v>
+      </c>
+      <c r="B174" s="5">
+        <v>2.1520000000000001</v>
+      </c>
+      <c r="C174" s="5">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="D174" s="5">
+        <f t="shared" ref="D174" si="78">(C174-B174)/2</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E174" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F174" s="5">
+        <f t="shared" ref="F174" si="79">C174+E174</f>
+        <v>2.2789999999999999</v>
+      </c>
+      <c r="G174" s="5">
+        <f t="shared" ref="G174" si="80">B174-E174</f>
+        <v>2.1500000000000004</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" t="s">
+        <v>198</v>
+      </c>
+      <c r="B175" s="5">
+        <v>2.1520000000000001</v>
+      </c>
+      <c r="C175" s="5">
+        <v>2.23</v>
+      </c>
+      <c r="D175" s="5">
+        <f t="shared" ref="D175" si="81">(C175-B175)/2</f>
+        <v>3.8999999999999924E-2</v>
+      </c>
+      <c r="E175" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F175" s="5">
+        <f t="shared" ref="F175" si="82">C175+E175</f>
+        <v>2.2319999999999998</v>
+      </c>
+      <c r="G175" s="5">
+        <f t="shared" ref="G175" si="83">B175-E175</f>
+        <v>2.1500000000000004</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" t="s">
+        <v>199</v>
+      </c>
+      <c r="B176" s="5">
+        <v>2.56</v>
+      </c>
+      <c r="C176" s="5">
+        <v>2.6379999999999999</v>
+      </c>
+      <c r="D176" s="5">
+        <f t="shared" ref="D176" si="84">(C176-B176)/2</f>
+        <v>3.8999999999999924E-2</v>
+      </c>
+      <c r="E176" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F176" s="5">
+        <f t="shared" ref="F176" si="85">C176+E176</f>
+        <v>2.6399999999999997</v>
+      </c>
+      <c r="G176" s="5">
+        <f t="shared" ref="G176" si="86">B176-E176</f>
+        <v>2.5580000000000003</v>
+      </c>
+      <c r="H176" t="s">
+        <v>176</v>
+      </c>
+      <c r="I176" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" t="s">
+        <v>200</v>
+      </c>
+      <c r="B177" s="5">
+        <v>3</v>
+      </c>
+      <c r="C177" s="5">
+        <v>3.125</v>
+      </c>
+      <c r="D177" s="5">
+        <f t="shared" ref="D177:D186" si="87">(C177-B177)/2</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E177" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F177" s="5">
+        <f t="shared" ref="F177:F186" si="88">C177+E177</f>
+        <v>3.1269999999999998</v>
+      </c>
+      <c r="G177" s="5">
+        <f t="shared" ref="G177:G186" si="89">B177-E177</f>
+        <v>2.9980000000000002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" t="s">
         <v>201</v>
       </c>
-      <c r="B171" s="5">
+      <c r="B178" s="5">
         <v>3</v>
       </c>
-      <c r="C171" s="5">
+      <c r="C178" s="5">
         <v>3.0979999999999999</v>
       </c>
-      <c r="D171" s="5">
+      <c r="D178" s="5">
         <f t="shared" si="87"/>
         <v>4.8999999999999932E-2</v>
       </c>
-      <c r="E171" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F171" s="5">
+      <c r="E178" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F178" s="5">
         <f t="shared" si="88"/>
-        <v>3.101</v>
-      </c>
-      <c r="G171" s="5">
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="G178" s="5">
         <f t="shared" si="89"/>
-        <v>2.9969999999999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
-      <c r="A172" t="s">
+        <v>2.9980000000000002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" t="s">
         <v>202</v>
       </c>
-      <c r="B172" s="5">
+      <c r="B179" s="5">
         <v>3.9</v>
       </c>
-      <c r="C172" s="5">
+      <c r="C179" s="5">
         <v>4.024</v>
       </c>
-      <c r="D172" s="5">
+      <c r="D179" s="5">
         <f t="shared" si="87"/>
         <v>6.2000000000000055E-2</v>
       </c>
-      <c r="E172" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F172" s="5">
+      <c r="E179" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F179" s="5">
         <f t="shared" si="88"/>
-        <v>4.0270000000000001</v>
-      </c>
-      <c r="G172" s="5">
+        <v>4.0259999999999998</v>
+      </c>
+      <c r="G179" s="5">
         <f t="shared" si="89"/>
-        <v>3.8969999999999998</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
-      <c r="A173" t="s">
+        <v>3.8980000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" t="s">
         <v>203</v>
       </c>
-      <c r="B173" s="5">
+      <c r="B180" s="5">
         <v>4.3734999999999999</v>
       </c>
-      <c r="C173" s="5">
+      <c r="C180" s="5">
         <v>4.5</v>
       </c>
-      <c r="D173" s="5">
+      <c r="D180" s="5">
         <f t="shared" si="87"/>
         <v>6.3250000000000028E-2</v>
       </c>
-      <c r="E173" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F173" s="5">
+      <c r="E180" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F180" s="5">
         <f t="shared" si="88"/>
-        <v>4.5030000000000001</v>
-      </c>
-      <c r="G173" s="5">
+        <v>4.5019999999999998</v>
+      </c>
+      <c r="G180" s="5">
         <f t="shared" si="89"/>
-        <v>4.3704999999999998</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
-      <c r="A174" t="s">
+        <v>4.3715000000000002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" t="s">
         <v>204</v>
       </c>
-      <c r="B174" s="5">
+      <c r="B181" s="5">
         <v>5</v>
       </c>
-      <c r="C174" s="5">
+      <c r="C181" s="5">
         <v>5.15</v>
       </c>
-      <c r="D174" s="5">
+      <c r="D181" s="5">
         <f t="shared" si="87"/>
         <v>7.5000000000000178E-2</v>
       </c>
-      <c r="E174" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F174" s="5">
+      <c r="E181" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F181" s="5">
         <f t="shared" si="88"/>
-        <v>5.1530000000000005</v>
-      </c>
-      <c r="G174" s="5">
+        <v>5.1520000000000001</v>
+      </c>
+      <c r="G181" s="5">
         <f t="shared" si="89"/>
-        <v>4.9969999999999999</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
-      <c r="A175" t="s">
+        <v>4.9980000000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" t="s">
         <v>205</v>
       </c>
-      <c r="B175" s="5">
+      <c r="B182" s="5">
         <v>5.375</v>
       </c>
-      <c r="C175" s="5">
+      <c r="C182" s="5">
         <v>5.5250000000000004</v>
       </c>
-      <c r="D175" s="5">
+      <c r="D182" s="5">
         <f t="shared" si="87"/>
         <v>7.5000000000000178E-2</v>
       </c>
-      <c r="E175" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F175" s="5">
+      <c r="E182" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F182" s="5">
         <f t="shared" si="88"/>
-        <v>5.5280000000000005</v>
-      </c>
-      <c r="G175" s="5">
+        <v>5.5270000000000001</v>
+      </c>
+      <c r="G182" s="5">
         <f t="shared" si="89"/>
-        <v>5.3719999999999999</v>
-      </c>
-      <c r="I175" s="6" t="s">
+        <v>5.3730000000000002</v>
+      </c>
+      <c r="I182" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
-      <c r="A176" t="s">
+    <row r="183" spans="1:9">
+      <c r="A183" t="s">
         <v>206</v>
       </c>
-      <c r="B176" s="5">
+      <c r="B183" s="5">
         <v>6</v>
       </c>
-      <c r="C176" s="5">
+      <c r="C183" s="5">
         <v>6.17</v>
       </c>
-      <c r="D176" s="5">
+      <c r="D183" s="5">
         <f t="shared" si="87"/>
         <v>8.4999999999999964E-2</v>
       </c>
-      <c r="E176" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F176" s="5">
+      <c r="E183" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F183" s="5">
         <f t="shared" si="88"/>
-        <v>6.173</v>
-      </c>
-      <c r="G176" s="5">
+        <v>6.1719999999999997</v>
+      </c>
+      <c r="G183" s="5">
         <f t="shared" si="89"/>
-        <v>5.9969999999999999</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
-      <c r="A177" t="s">
+        <v>5.9980000000000002</v>
+      </c>
+      <c r="H183" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" t="s">
         <v>207</v>
       </c>
-      <c r="B177" s="5">
+      <c r="B184" s="5">
         <v>7.5179999999999998</v>
       </c>
-      <c r="C177" s="5">
+      <c r="C184" s="5">
         <v>7.7080000000000002</v>
       </c>
-      <c r="D177" s="5">
+      <c r="D184" s="5">
         <f t="shared" si="87"/>
         <v>9.5000000000000195E-2</v>
       </c>
-      <c r="E177" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F177" s="5">
+      <c r="E184" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F184" s="5">
         <f t="shared" si="88"/>
-        <v>7.7110000000000003</v>
-      </c>
-      <c r="G177" s="5">
+        <v>7.71</v>
+      </c>
+      <c r="G184" s="5">
         <f t="shared" si="89"/>
-        <v>7.5149999999999997</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
-      <c r="A178" t="s">
+        <v>7.516</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" t="s">
         <v>208</v>
       </c>
-      <c r="B178" s="5">
+      <c r="B185" s="5">
         <v>7.8150000000000004</v>
       </c>
-      <c r="C178" s="5">
+      <c r="C185" s="5">
         <v>8.0050000000000008</v>
       </c>
-      <c r="D178" s="5">
+      <c r="D185" s="5">
         <f t="shared" si="87"/>
         <v>9.5000000000000195E-2</v>
       </c>
-      <c r="E178" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F178" s="5">
+      <c r="E185" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F185" s="5">
         <f t="shared" si="88"/>
-        <v>8.0080000000000009</v>
-      </c>
-      <c r="G178" s="5">
+        <v>8.0070000000000014</v>
+      </c>
+      <c r="G185" s="5">
         <f t="shared" si="89"/>
-        <v>7.8120000000000003</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
-      <c r="A179" t="s">
+        <v>7.8130000000000006</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" t="s">
         <v>209</v>
       </c>
-      <c r="B179" s="5">
+      <c r="B186" s="5">
         <v>11.31</v>
       </c>
-      <c r="C179" s="5">
+      <c r="C186" s="5">
         <v>11.5</v>
       </c>
-      <c r="D179" s="5">
+      <c r="D186" s="5">
         <f t="shared" si="87"/>
         <v>9.4999999999999751E-2</v>
       </c>
-      <c r="E179" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F179" s="5">
+      <c r="E186" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F186" s="5">
         <f t="shared" si="88"/>
-        <v>11.503</v>
-      </c>
-      <c r="G179" s="5">
+        <v>11.502000000000001</v>
+      </c>
+      <c r="G186" s="5">
         <f t="shared" si="89"/>
-        <v>11.307</v>
-      </c>
-      <c r="I179" s="6" t="s">
+        <v>11.308</v>
+      </c>
+      <c r="I186" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
-      <c r="I180" s="6"/>
-    </row>
-    <row r="181" spans="1:9">
-      <c r="A181" s="1" t="s">
+    <row r="187" spans="1:9">
+      <c r="I187" s="6"/>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I181" s="6"/>
-    </row>
-    <row r="183" spans="1:9">
-      <c r="A183" t="s">
+      <c r="I188" s="6"/>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" t="s">
         <v>181</v>
       </c>
-      <c r="B183" s="5">
+      <c r="B190" s="5">
         <v>1</v>
       </c>
-      <c r="C183" s="5">
+      <c r="C190" s="5">
         <v>1.143</v>
       </c>
-      <c r="D183" s="5">
-        <f t="shared" ref="D183:D189" si="90">(C183-B183)/2</f>
+      <c r="D190" s="5">
+        <f t="shared" ref="D190:D196" si="90">(C190-B190)/2</f>
         <v>7.1500000000000008E-2</v>
       </c>
-      <c r="E183" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F183" s="5">
-        <f t="shared" ref="F183:F189" si="91">C183+E183</f>
+      <c r="E190" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F190" s="5">
+        <f t="shared" ref="F190:F196" si="91">C190+E190</f>
         <v>1.1459999999999999</v>
       </c>
-      <c r="G183" s="5">
-        <f t="shared" ref="G183:G189" si="92">B183-E183</f>
+      <c r="G190" s="5">
+        <f t="shared" ref="G190:G196" si="92">B190-E190</f>
         <v>0.997</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
-      <c r="A184" t="s">
+    <row r="191" spans="1:9">
+      <c r="A191" t="s">
         <v>182</v>
       </c>
-      <c r="B184" s="5">
+      <c r="B191" s="5">
         <v>1.37</v>
       </c>
-      <c r="C184" s="5">
+      <c r="C191" s="5">
         <v>1.518</v>
       </c>
-      <c r="D184" s="5">
+      <c r="D191" s="5">
         <f t="shared" si="90"/>
         <v>7.3999999999999955E-2</v>
       </c>
-      <c r="E184" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F184" s="5">
+      <c r="E191" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F191" s="5">
         <f t="shared" si="91"/>
         <v>1.5209999999999999</v>
       </c>
-      <c r="G184" s="5">
+      <c r="G191" s="5">
         <f t="shared" si="92"/>
         <v>1.3670000000000002</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
-      <c r="A185" t="s">
+    <row r="192" spans="1:9">
+      <c r="A192" t="s">
         <v>183</v>
       </c>
-      <c r="B185" s="5">
+      <c r="B192" s="5">
         <v>2</v>
       </c>
-      <c r="C185" s="5">
+      <c r="C192" s="5">
         <v>2.15</v>
       </c>
-      <c r="D185" s="5">
+      <c r="D192" s="5">
         <f t="shared" si="90"/>
         <v>7.4999999999999956E-2</v>
       </c>
-      <c r="E185" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F185" s="5">
+      <c r="E192" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F192" s="5">
         <f t="shared" si="91"/>
         <v>2.153</v>
       </c>
-      <c r="G185" s="5">
+      <c r="G192" s="5">
         <f t="shared" si="92"/>
         <v>1.9970000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
-      <c r="A186" t="s">
+    <row r="193" spans="1:9">
+      <c r="A193" t="s">
         <v>227</v>
       </c>
-      <c r="B186" s="5">
+      <c r="B193" s="5">
         <v>2.375</v>
       </c>
-      <c r="C186" s="5">
+      <c r="C193" s="5">
         <v>2.5579999999999998</v>
       </c>
-      <c r="D186" s="5">
-        <f t="shared" ref="D186" si="93">(C186-B186)/2</f>
+      <c r="D193" s="5">
+        <f t="shared" ref="D193" si="93">(C193-B193)/2</f>
         <v>9.1499999999999915E-2</v>
       </c>
-      <c r="E186" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F186" s="5">
-        <f t="shared" ref="F186" si="94">C186+E186</f>
+      <c r="E193" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F193" s="5">
+        <f t="shared" ref="F193" si="94">C193+E193</f>
         <v>2.5609999999999999</v>
       </c>
-      <c r="G186" s="5">
-        <f t="shared" ref="G186" si="95">B186-E186</f>
+      <c r="G193" s="5">
+        <f t="shared" ref="G193" si="95">B193-E193</f>
         <v>2.3719999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
-      <c r="A187" t="s">
+    <row r="194" spans="1:9">
+      <c r="A194" t="s">
         <v>184</v>
       </c>
-      <c r="B187" s="5">
+      <c r="B194" s="5">
         <v>2.875</v>
       </c>
-      <c r="C187" s="5">
+      <c r="C194" s="5">
         <v>2.9980000000000002</v>
       </c>
-      <c r="D187" s="5">
+      <c r="D194" s="5">
         <f t="shared" si="90"/>
         <v>6.150000000000011E-2</v>
       </c>
-      <c r="E187" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F187" s="5">
+      <c r="E194" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F194" s="5">
         <f t="shared" si="91"/>
         <v>3.0010000000000003</v>
       </c>
-      <c r="G187" s="5">
+      <c r="G194" s="5">
         <f t="shared" si="92"/>
         <v>2.8719999999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
-      <c r="A188" t="s">
+    <row r="195" spans="1:9">
+      <c r="A195" t="s">
         <v>185</v>
       </c>
-      <c r="B188" s="5">
+      <c r="B195" s="5">
         <v>3.7549999999999999</v>
       </c>
-      <c r="C188" s="5">
+      <c r="C195" s="5">
         <v>3.899</v>
       </c>
-      <c r="D188" s="5">
+      <c r="D195" s="5">
         <f t="shared" si="90"/>
         <v>7.2000000000000064E-2</v>
       </c>
-      <c r="E188" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F188" s="5">
+      <c r="E195" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F195" s="5">
         <f t="shared" si="91"/>
         <v>3.9020000000000001</v>
       </c>
-      <c r="G188" s="5">
+      <c r="G195" s="5">
         <f t="shared" si="92"/>
         <v>3.7519999999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
-      <c r="A189" t="s">
+    <row r="196" spans="1:9">
+      <c r="A196" t="s">
         <v>186</v>
       </c>
-      <c r="B189" s="5">
+      <c r="B196" s="5">
         <v>4.2290000000000001</v>
       </c>
-      <c r="C189" s="5">
+      <c r="C196" s="5">
         <v>4.3730000000000002</v>
       </c>
-      <c r="D189" s="5">
+      <c r="D196" s="5">
         <f t="shared" si="90"/>
         <v>7.2000000000000064E-2</v>
       </c>
-      <c r="E189" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F189" s="5">
+      <c r="E196" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F196" s="5">
         <f t="shared" si="91"/>
         <v>4.3760000000000003</v>
       </c>
-      <c r="G189" s="5">
+      <c r="G196" s="5">
         <f t="shared" si="92"/>
         <v>4.226</v>
       </c>
-      <c r="H189" t="s">
+      <c r="H196" t="s">
         <v>187</v>
       </c>
-      <c r="I189" s="6" t="s">
+      <c r="I196" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="190" spans="1:9">
-      <c r="A190" t="s">
-        <v>188</v>
-      </c>
-      <c r="B190" s="5">
-        <v>4.8150000000000004</v>
-      </c>
-      <c r="C190" s="5">
-        <v>4.9980000000000002</v>
-      </c>
-      <c r="D190" s="5">
-        <f t="shared" ref="D190" si="96">(C190-B190)/2</f>
-        <v>9.1499999999999915E-2</v>
-      </c>
-      <c r="E190" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F190" s="5">
-        <f t="shared" ref="F190" si="97">C190+E190</f>
-        <v>5.0010000000000003</v>
-      </c>
-      <c r="G190" s="5">
-        <f t="shared" ref="G190" si="98">B190-E190</f>
-        <v>4.8120000000000003</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
-      <c r="A191" t="s">
-        <v>189</v>
-      </c>
-      <c r="B191" s="5">
-        <v>5.1909999999999998</v>
-      </c>
-      <c r="C191" s="5">
-        <v>5.3730000000000002</v>
-      </c>
-      <c r="D191" s="5">
-        <f t="shared" ref="D191" si="99">(C191-B191)/2</f>
-        <v>9.1000000000000192E-2</v>
-      </c>
-      <c r="E191" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F191" s="5">
-        <f t="shared" ref="F191" si="100">C191+E191</f>
-        <v>5.3760000000000003</v>
-      </c>
-      <c r="G191" s="5">
-        <f t="shared" ref="G191" si="101">B191-E191</f>
-        <v>5.1879999999999997</v>
-      </c>
-      <c r="H191" t="s">
-        <v>190</v>
-      </c>
-      <c r="I191" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
-      <c r="A192" t="s">
-        <v>191</v>
-      </c>
-      <c r="B192" s="5">
-        <v>5.7750000000000004</v>
-      </c>
-      <c r="C192" s="5">
-        <v>5.9980000000000002</v>
-      </c>
-      <c r="D192" s="5">
-        <f t="shared" ref="D192" si="102">(C192-B192)/2</f>
-        <v>0.11149999999999993</v>
-      </c>
-      <c r="E192" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F192" s="5">
-        <f t="shared" ref="F192" si="103">C192+E192</f>
-        <v>6.0010000000000003</v>
-      </c>
-      <c r="G192" s="5">
-        <f t="shared" ref="G192" si="104">B192-E192</f>
-        <v>5.7720000000000002</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
-      <c r="A193" t="s">
-        <v>192</v>
-      </c>
-      <c r="B193" s="5">
-        <v>7.5890000000000004</v>
-      </c>
-      <c r="C193" s="5">
-        <v>7.8129999999999997</v>
-      </c>
-      <c r="D193" s="5">
-        <f t="shared" ref="D193" si="105">(C193-B193)/2</f>
-        <v>0.11199999999999966</v>
-      </c>
-      <c r="E193" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F193" s="5">
-        <f t="shared" ref="F193" si="106">C193+E193</f>
-        <v>7.8159999999999998</v>
-      </c>
-      <c r="G193" s="5">
-        <f t="shared" ref="G193" si="107">B193-E193</f>
-        <v>7.5860000000000003</v>
-      </c>
-      <c r="H193" t="s">
-        <v>193</v>
-      </c>
-      <c r="I193" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
-      <c r="I194" s="6"/>
-    </row>
-    <row r="195" spans="1:9">
-      <c r="A195" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I195" s="6"/>
-    </row>
-    <row r="196" spans="1:9">
-      <c r="I196" s="6"/>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="B197" s="5">
-        <v>1.145</v>
+        <v>4.8150000000000004</v>
       </c>
       <c r="C197" s="5">
-        <v>1.2549999999999999</v>
+        <v>4.9980000000000002</v>
       </c>
       <c r="D197" s="5">
-        <f t="shared" ref="D197" si="108">(C197-B197)/2</f>
-        <v>5.4999999999999938E-2</v>
+        <f t="shared" ref="D197" si="96">(C197-B197)/2</f>
+        <v>9.1499999999999915E-2</v>
       </c>
       <c r="E197" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F197" s="5">
-        <f t="shared" ref="F197" si="109">C197+E197</f>
-        <v>1.2579999999999998</v>
+        <f t="shared" ref="F197" si="97">C197+E197</f>
+        <v>5.0010000000000003</v>
       </c>
       <c r="G197" s="5">
-        <f t="shared" ref="G197" si="110">B197-E197</f>
-        <v>1.1420000000000001</v>
-      </c>
-      <c r="H197" t="s">
-        <v>281</v>
-      </c>
-      <c r="I197" s="6"/>
+        <f t="shared" ref="G197" si="98">B197-E197</f>
+        <v>4.8120000000000003</v>
+      </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>282</v>
+        <v>189</v>
       </c>
       <c r="B198" s="5">
-        <v>1.52</v>
+        <v>5.1909999999999998</v>
       </c>
       <c r="C198" s="5">
-        <v>1.645</v>
+        <v>5.3730000000000002</v>
       </c>
       <c r="D198" s="5">
-        <f t="shared" ref="D198" si="111">(C198-B198)/2</f>
-        <v>6.25E-2</v>
+        <f t="shared" ref="D198" si="99">(C198-B198)/2</f>
+        <v>9.1000000000000192E-2</v>
       </c>
       <c r="E198" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F198" s="5">
-        <f t="shared" ref="F198" si="112">C198+E198</f>
-        <v>1.6479999999999999</v>
+        <f t="shared" ref="F198" si="100">C198+E198</f>
+        <v>5.3760000000000003</v>
       </c>
       <c r="G198" s="5">
-        <f t="shared" ref="G198" si="113">B198-E198</f>
-        <v>1.5170000000000001</v>
+        <f t="shared" ref="G198" si="101">B198-E198</f>
+        <v>5.1879999999999997</v>
       </c>
       <c r="H198" t="s">
-        <v>283</v>
+        <v>190</v>
       </c>
       <c r="I198" s="6" t="s">
         <v>179</v>
@@ -6003,63 +6217,57 @@
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>284</v>
+        <v>191</v>
       </c>
       <c r="B199" s="5">
-        <v>2.1520000000000001</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="C199" s="5">
-        <v>2.2770000000000001</v>
+        <v>5.9980000000000002</v>
       </c>
       <c r="D199" s="5">
-        <f t="shared" ref="D199" si="114">(C199-B199)/2</f>
-        <v>6.25E-2</v>
+        <f t="shared" ref="D199" si="102">(C199-B199)/2</f>
+        <v>0.11149999999999993</v>
       </c>
       <c r="E199" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F199" s="5">
-        <f t="shared" ref="F199" si="115">C199+E199</f>
-        <v>2.2800000000000002</v>
+        <f t="shared" ref="F199" si="103">C199+E199</f>
+        <v>6.0010000000000003</v>
       </c>
       <c r="G199" s="5">
-        <f t="shared" ref="G199" si="116">B199-E199</f>
-        <v>2.149</v>
-      </c>
-      <c r="H199" t="s">
-        <v>285</v>
-      </c>
-      <c r="I199" s="6" t="s">
-        <v>179</v>
+        <f t="shared" ref="G199" si="104">B199-E199</f>
+        <v>5.7720000000000002</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
       <c r="B200" s="5">
-        <v>3</v>
+        <v>7.5890000000000004</v>
       </c>
       <c r="C200" s="5">
-        <v>3.125</v>
+        <v>7.8129999999999997</v>
       </c>
       <c r="D200" s="5">
-        <f t="shared" ref="D200" si="117">(C200-B200)/2</f>
-        <v>6.25E-2</v>
+        <f t="shared" ref="D200" si="105">(C200-B200)/2</f>
+        <v>0.11199999999999966</v>
       </c>
       <c r="E200" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F200" s="5">
-        <f t="shared" ref="F200" si="118">C200+E200</f>
-        <v>3.1280000000000001</v>
+        <f t="shared" ref="F200" si="106">C200+E200</f>
+        <v>7.8159999999999998</v>
       </c>
       <c r="G200" s="5">
-        <f t="shared" ref="G200" si="119">B200-E200</f>
-        <v>2.9969999999999999</v>
+        <f t="shared" ref="G200" si="107">B200-E200</f>
+        <v>7.5860000000000003</v>
       </c>
       <c r="H200" t="s">
-        <v>287</v>
+        <v>193</v>
       </c>
       <c r="I200" s="6" t="s">
         <v>179</v>
@@ -6068,251 +6276,358 @@
     <row r="201" spans="1:9">
       <c r="I201" s="6"/>
     </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I202" s="6"/>
+    </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="1" t="s">
-        <v>212</v>
-      </c>
+      <c r="I203" s="6"/>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" t="s">
+        <v>280</v>
+      </c>
+      <c r="B204" s="5">
+        <v>1.145</v>
+      </c>
+      <c r="C204" s="5">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="D204" s="5">
+        <f t="shared" ref="D204" si="108">(C204-B204)/2</f>
+        <v>5.4999999999999938E-2</v>
+      </c>
+      <c r="E204" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F204" s="5">
+        <f t="shared" ref="F204" si="109">C204+E204</f>
+        <v>1.2579999999999998</v>
+      </c>
+      <c r="G204" s="5">
+        <f t="shared" ref="G204" si="110">B204-E204</f>
+        <v>1.1420000000000001</v>
+      </c>
+      <c r="H204" t="s">
+        <v>281</v>
+      </c>
+      <c r="I204" s="6"/>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="B205" s="5">
-        <v>1.1399999999999999</v>
+        <f>B172</f>
+        <v>1.52</v>
       </c>
       <c r="C205" s="5">
-        <v>1.2150000000000001</v>
+        <f>C172</f>
+        <v>1.645</v>
       </c>
       <c r="D205" s="5">
-        <f t="shared" ref="D205:D212" si="120">(C205-B205)/2</f>
-        <v>3.7500000000000089E-2</v>
+        <f t="shared" ref="D205" si="111">(C205-B205)/2</f>
+        <v>6.25E-2</v>
       </c>
       <c r="E205" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F205" s="5">
-        <f t="shared" ref="F205:F212" si="121">C205+E205</f>
-        <v>1.218</v>
+        <f t="shared" ref="F205" si="112">C205+E205</f>
+        <v>1.6479999999999999</v>
       </c>
       <c r="G205" s="5">
-        <f t="shared" ref="G205:G212" si="122">B205-E205</f>
-        <v>1.137</v>
+        <f t="shared" ref="G205" si="113">B205-E205</f>
+        <v>1.5170000000000001</v>
+      </c>
+      <c r="H205" t="s">
+        <v>283</v>
+      </c>
+      <c r="I205" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="B206" s="5">
-        <v>1.5249999999999999</v>
+        <f>B174</f>
+        <v>2.1520000000000001</v>
       </c>
       <c r="C206" s="5">
-        <v>1.61</v>
+        <f>C174</f>
+        <v>2.2770000000000001</v>
       </c>
       <c r="D206" s="5">
-        <f t="shared" si="120"/>
-        <v>4.2500000000000093E-2</v>
+        <f t="shared" ref="D206" si="114">(C206-B206)/2</f>
+        <v>6.25E-2</v>
       </c>
       <c r="E206" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F206" s="5">
-        <f t="shared" si="121"/>
-        <v>1.613</v>
+        <f t="shared" ref="F206" si="115">C206+E206</f>
+        <v>2.2800000000000002</v>
       </c>
       <c r="G206" s="5">
-        <f t="shared" si="122"/>
-        <v>1.522</v>
+        <f t="shared" ref="G206" si="116">B206-E206</f>
+        <v>2.149</v>
+      </c>
+      <c r="H206" t="s">
+        <v>285</v>
+      </c>
+      <c r="I206" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="B207" s="5">
-        <v>1.5249999999999999</v>
+        <f>B177</f>
+        <v>3</v>
       </c>
       <c r="C207" s="5">
-        <v>1.635</v>
+        <f>C177</f>
+        <v>3.125</v>
       </c>
       <c r="D207" s="5">
-        <f t="shared" si="120"/>
-        <v>5.5000000000000049E-2</v>
+        <f t="shared" ref="D207" si="117">(C207-B207)/2</f>
+        <v>6.25E-2</v>
       </c>
       <c r="E207" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F207" s="5">
-        <f t="shared" si="121"/>
-        <v>1.6379999999999999</v>
+        <f t="shared" ref="F207" si="118">C207+E207</f>
+        <v>3.1280000000000001</v>
       </c>
       <c r="G207" s="5">
-        <f t="shared" si="122"/>
-        <v>1.522</v>
+        <f t="shared" ref="G207" si="119">B207-E207</f>
+        <v>2.9969999999999999</v>
+      </c>
+      <c r="H207" t="s">
+        <v>287</v>
+      </c>
+      <c r="I207" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="B208" s="5">
-        <v>2.14</v>
+        <f>B179</f>
+        <v>3.9</v>
       </c>
       <c r="C208" s="5">
-        <v>2.2599999999999998</v>
+        <f>C179</f>
+        <v>4.024</v>
       </c>
       <c r="D208" s="5">
-        <f t="shared" si="120"/>
-        <v>5.9999999999999831E-2</v>
+        <f t="shared" ref="D208:D209" si="120">(C208-B208)/2</f>
+        <v>6.2000000000000055E-2</v>
       </c>
       <c r="E208" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F208" s="5">
-        <f t="shared" si="121"/>
-        <v>2.2629999999999999</v>
+        <f t="shared" ref="F208:F209" si="121">C208+E208</f>
+        <v>4.0270000000000001</v>
       </c>
       <c r="G208" s="5">
-        <f t="shared" si="122"/>
-        <v>2.137</v>
+        <f t="shared" ref="G208:G209" si="122">B208-E208</f>
+        <v>3.8969999999999998</v>
+      </c>
+      <c r="H208" t="s">
+        <v>290</v>
+      </c>
+      <c r="I208" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="B209" s="5">
-        <v>2.1749999999999998</v>
+        <f>B183</f>
+        <v>6</v>
       </c>
       <c r="C209" s="5">
-        <v>2.2450000000000001</v>
+        <f>C183</f>
+        <v>6.17</v>
       </c>
       <c r="D209" s="5">
         <f t="shared" si="120"/>
-        <v>3.5000000000000142E-2</v>
+        <v>8.4999999999999964E-2</v>
       </c>
       <c r="E209" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F209" s="5">
         <f t="shared" si="121"/>
-        <v>2.2480000000000002</v>
+        <v>6.173</v>
       </c>
       <c r="G209" s="5">
         <f t="shared" si="122"/>
-        <v>2.1719999999999997</v>
+        <v>5.9969999999999999</v>
+      </c>
+      <c r="H209" t="s">
+        <v>291</v>
+      </c>
+      <c r="I209" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="210" spans="1:9">
-      <c r="A210" t="s">
-        <v>218</v>
-      </c>
-      <c r="B210" s="5">
-        <v>2.5579999999999998</v>
-      </c>
-      <c r="C210" s="5">
-        <v>2.64</v>
-      </c>
-      <c r="D210" s="5">
-        <f t="shared" si="120"/>
-        <v>4.1000000000000147E-2</v>
-      </c>
-      <c r="E210" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F210" s="5">
-        <f t="shared" si="121"/>
-        <v>2.6430000000000002</v>
-      </c>
-      <c r="G210" s="5">
-        <f t="shared" si="122"/>
-        <v>2.5549999999999997</v>
-      </c>
+      <c r="I210" s="6"/>
     </row>
     <row r="211" spans="1:9">
-      <c r="A211" t="s">
-        <v>219</v>
-      </c>
-      <c r="B211" s="5">
-        <v>3</v>
-      </c>
-      <c r="C211" s="5">
-        <v>3.1</v>
-      </c>
-      <c r="D211" s="5">
-        <f t="shared" si="120"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="E211" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F211" s="5">
-        <f t="shared" si="121"/>
-        <v>3.1030000000000002</v>
-      </c>
-      <c r="G211" s="5">
-        <f t="shared" si="122"/>
-        <v>2.9969999999999999</v>
-      </c>
+      <c r="A211" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I211" s="6"/>
     </row>
     <row r="212" spans="1:9">
-      <c r="A212" t="s">
-        <v>220</v>
-      </c>
-      <c r="B212" s="5">
-        <v>3.9</v>
-      </c>
-      <c r="C212" s="5">
-        <v>4</v>
-      </c>
-      <c r="D212" s="5">
-        <f t="shared" si="120"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="E212" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F212" s="5">
-        <f t="shared" si="121"/>
-        <v>4.0030000000000001</v>
-      </c>
-      <c r="G212" s="5">
-        <f t="shared" si="122"/>
-        <v>3.8969999999999998</v>
+      <c r="I212" s="6"/>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" t="s">
+        <v>293</v>
+      </c>
+      <c r="B213" s="5">
+        <f>B190</f>
+        <v>1</v>
+      </c>
+      <c r="C213" s="5">
+        <f>C190</f>
+        <v>1.143</v>
+      </c>
+      <c r="D213" s="5">
+        <f t="shared" ref="D213" si="123">(C213-B213)/2</f>
+        <v>7.1500000000000008E-2</v>
+      </c>
+      <c r="E213" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F213" s="5">
+        <f t="shared" ref="F213" si="124">C213+E213</f>
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="G213" s="5">
+        <f t="shared" ref="G213" si="125">B213-E213</f>
+        <v>0.997</v>
+      </c>
+      <c r="H213" t="s">
+        <v>299</v>
+      </c>
+      <c r="I213" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="214" spans="1:9">
-      <c r="A214" s="1" t="s">
-        <v>221</v>
+      <c r="A214" t="s">
+        <v>294</v>
+      </c>
+      <c r="B214" s="5">
+        <f>B191</f>
+        <v>1.37</v>
+      </c>
+      <c r="C214" s="5">
+        <f>C191</f>
+        <v>1.518</v>
+      </c>
+      <c r="D214" s="5">
+        <f t="shared" ref="D214:D218" si="126">(C214-B214)/2</f>
+        <v>7.3999999999999955E-2</v>
+      </c>
+      <c r="E214" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F214" s="5">
+        <f t="shared" ref="F214:F218" si="127">C214+E214</f>
+        <v>1.5209999999999999</v>
+      </c>
+      <c r="G214" s="5">
+        <f t="shared" ref="G214:G218" si="128">B214-E214</f>
+        <v>1.3670000000000002</v>
+      </c>
+      <c r="H214" t="s">
+        <v>300</v>
+      </c>
+      <c r="I214" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" t="s">
+        <v>295</v>
+      </c>
+      <c r="B215" s="5">
+        <f>B192</f>
+        <v>2</v>
+      </c>
+      <c r="C215" s="5">
+        <f>C192</f>
+        <v>2.15</v>
+      </c>
+      <c r="D215" s="5">
+        <f t="shared" si="126"/>
+        <v>7.4999999999999956E-2</v>
+      </c>
+      <c r="E215" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F215" s="5">
+        <f t="shared" si="127"/>
+        <v>2.153</v>
+      </c>
+      <c r="G215" s="5">
+        <f t="shared" si="128"/>
+        <v>1.9970000000000001</v>
+      </c>
+      <c r="H215" t="s">
+        <v>301</v>
+      </c>
+      <c r="I215" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>222</v>
+        <v>296</v>
       </c>
       <c r="B216" s="5">
-        <v>1.393</v>
+        <f>B194</f>
+        <v>2.875</v>
       </c>
       <c r="C216" s="5">
-        <v>1.5149999999999999</v>
+        <f>C194</f>
+        <v>2.9980000000000002</v>
       </c>
       <c r="D216" s="5">
-        <f t="shared" ref="D216" si="123">(C216-B216)/2</f>
-        <v>6.0999999999999943E-2</v>
+        <f t="shared" si="126"/>
+        <v>6.150000000000011E-2</v>
       </c>
       <c r="E216" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F216" s="5">
-        <f t="shared" ref="F216" si="124">C216+E216</f>
-        <v>1.5179999999999998</v>
+        <f t="shared" si="127"/>
+        <v>3.0010000000000003</v>
       </c>
       <c r="G216" s="5">
-        <f t="shared" ref="G216" si="125">B216-E216</f>
-        <v>1.3900000000000001</v>
+        <f t="shared" si="128"/>
+        <v>2.8719999999999999</v>
       </c>
       <c r="H216" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="I216" s="6" t="s">
         <v>179</v>
@@ -6320,31 +6635,33 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>223</v>
+        <v>297</v>
       </c>
       <c r="B217" s="5">
-        <v>2.0430000000000001</v>
+        <f>B195</f>
+        <v>3.7549999999999999</v>
       </c>
       <c r="C217" s="5">
-        <v>2.165</v>
+        <f>C195</f>
+        <v>3.899</v>
       </c>
       <c r="D217" s="5">
-        <f t="shared" ref="D217" si="126">(C217-B217)/2</f>
-        <v>6.0999999999999943E-2</v>
+        <f t="shared" si="126"/>
+        <v>7.2000000000000064E-2</v>
       </c>
       <c r="E217" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F217" s="5">
-        <f t="shared" ref="F217" si="127">C217+E217</f>
-        <v>2.1680000000000001</v>
+        <f t="shared" si="127"/>
+        <v>3.9020000000000001</v>
       </c>
       <c r="G217" s="5">
-        <f t="shared" ref="G217" si="128">B217-E217</f>
-        <v>2.04</v>
+        <f t="shared" si="128"/>
+        <v>3.7519999999999998</v>
       </c>
       <c r="H217" t="s">
-        <v>238</v>
+        <v>304</v>
       </c>
       <c r="I217" s="6" t="s">
         <v>179</v>
@@ -6352,590 +6669,941 @@
     </row>
     <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>224</v>
+        <v>298</v>
       </c>
       <c r="B218" s="5">
-        <v>2.4260000000000002</v>
+        <f>B199</f>
+        <v>5.7750000000000004</v>
       </c>
       <c r="C218" s="5">
-        <v>2.548</v>
+        <f>C199</f>
+        <v>5.9980000000000002</v>
       </c>
       <c r="D218" s="5">
-        <f t="shared" ref="D218:D219" si="129">(C218-B218)/2</f>
-        <v>6.0999999999999943E-2</v>
+        <f t="shared" si="126"/>
+        <v>0.11149999999999993</v>
       </c>
       <c r="E218" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F218" s="5">
-        <f t="shared" ref="F218:F219" si="130">C218+E218</f>
-        <v>2.5510000000000002</v>
+        <f t="shared" si="127"/>
+        <v>6.0010000000000003</v>
       </c>
       <c r="G218" s="5">
-        <f t="shared" ref="G218:G219" si="131">B218-E218</f>
-        <v>2.423</v>
+        <f t="shared" si="128"/>
+        <v>5.7720000000000002</v>
       </c>
       <c r="H218" t="s">
-        <v>238</v>
+        <v>303</v>
       </c>
       <c r="I218" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="219" spans="1:9">
-      <c r="A219" t="s">
-        <v>225</v>
-      </c>
-      <c r="B219" s="5">
-        <v>2.8679999999999999</v>
-      </c>
-      <c r="C219" s="5">
-        <v>2.99</v>
-      </c>
-      <c r="D219" s="5">
+      <c r="I219" s="6"/>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" t="s">
+        <v>213</v>
+      </c>
+      <c r="B223" s="5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C223" s="5">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="D223" s="5">
+        <f t="shared" ref="D223:D230" si="129">(C223-B223)/2</f>
+        <v>3.7500000000000089E-2</v>
+      </c>
+      <c r="E223" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F223" s="5">
+        <f t="shared" ref="F223:F230" si="130">C223+E223</f>
+        <v>1.218</v>
+      </c>
+      <c r="G223" s="5">
+        <f t="shared" ref="G223:G230" si="131">B223-E223</f>
+        <v>1.137</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" t="s">
+        <v>214</v>
+      </c>
+      <c r="B224" s="5">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="C224" s="5">
+        <v>1.61</v>
+      </c>
+      <c r="D224" s="5">
         <f t="shared" si="129"/>
-        <v>6.1000000000000165E-2</v>
-      </c>
-      <c r="E219" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F219" s="5">
+        <v>4.2500000000000093E-2</v>
+      </c>
+      <c r="E224" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F224" s="5">
         <f t="shared" si="130"/>
-        <v>2.9930000000000003</v>
-      </c>
-      <c r="G219" s="5">
+        <v>1.613</v>
+      </c>
+      <c r="G224" s="5">
         <f t="shared" si="131"/>
-        <v>2.8649999999999998</v>
-      </c>
-      <c r="H219" t="s">
-        <v>238</v>
-      </c>
-      <c r="I219" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9">
-      <c r="A220" t="s">
-        <v>226</v>
-      </c>
-      <c r="B220" s="5">
-        <v>3.66</v>
-      </c>
-      <c r="C220" s="5">
-        <v>3.89</v>
-      </c>
-      <c r="D220" s="5">
-        <f t="shared" ref="D220" si="132">(C220-B220)/2</f>
-        <v>0.11499999999999999</v>
-      </c>
-      <c r="E220" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F220" s="5">
-        <f t="shared" ref="F220" si="133">C220+E220</f>
-        <v>3.8930000000000002</v>
-      </c>
-      <c r="G220" s="5">
-        <f t="shared" ref="G220" si="134">B220-E220</f>
-        <v>3.657</v>
-      </c>
-      <c r="H220" t="s">
-        <v>239</v>
-      </c>
-      <c r="I220" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
-      <c r="A224" s="1" t="s">
-        <v>228</v>
+        <v>1.522</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" t="s">
+        <v>215</v>
+      </c>
+      <c r="B225" s="5">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="C225" s="5">
+        <v>1.635</v>
+      </c>
+      <c r="D225" s="5">
+        <f t="shared" si="129"/>
+        <v>5.5000000000000049E-2</v>
+      </c>
+      <c r="E225" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F225" s="5">
+        <f t="shared" si="130"/>
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="G225" s="5">
+        <f t="shared" si="131"/>
+        <v>1.522</v>
       </c>
     </row>
     <row r="226" spans="1:9">
-      <c r="A226" s="1" t="s">
-        <v>257</v>
+      <c r="A226" t="s">
+        <v>216</v>
+      </c>
+      <c r="B226" s="5">
+        <v>2.14</v>
+      </c>
+      <c r="C226" s="5">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D226" s="5">
+        <f t="shared" si="129"/>
+        <v>5.9999999999999831E-2</v>
+      </c>
+      <c r="E226" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F226" s="5">
+        <f t="shared" si="130"/>
+        <v>2.2629999999999999</v>
+      </c>
+      <c r="G226" s="5">
+        <f t="shared" si="131"/>
+        <v>2.137</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" t="s">
+        <v>217</v>
+      </c>
+      <c r="B227" s="5">
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="C227" s="5">
+        <v>2.2450000000000001</v>
+      </c>
+      <c r="D227" s="5">
+        <f t="shared" si="129"/>
+        <v>3.5000000000000142E-2</v>
+      </c>
+      <c r="E227" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F227" s="5">
+        <f t="shared" si="130"/>
+        <v>2.2480000000000002</v>
+      </c>
+      <c r="G227" s="5">
+        <f t="shared" si="131"/>
+        <v>2.1719999999999997</v>
       </c>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="B228" s="5">
-        <v>0.95</v>
+        <v>2.5579999999999998</v>
       </c>
       <c r="C228" s="5">
-        <v>1</v>
+        <v>2.64</v>
       </c>
       <c r="D228" s="5">
-        <f t="shared" ref="D228" si="135">(C228-B228)/2</f>
-        <v>2.5000000000000022E-2</v>
+        <f t="shared" si="129"/>
+        <v>4.1000000000000147E-2</v>
       </c>
       <c r="E228" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F228" s="5">
-        <f t="shared" ref="F228" si="136">C228+E228</f>
-        <v>1.0029999999999999</v>
+        <f t="shared" si="130"/>
+        <v>2.6430000000000002</v>
       </c>
       <c r="G228" s="5">
-        <f t="shared" ref="G228" si="137">B228-E228</f>
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="H228" t="s">
-        <v>248</v>
+        <f t="shared" si="131"/>
+        <v>2.5549999999999997</v>
       </c>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="B229" s="5">
-        <v>1.1399999999999999</v>
+        <v>3</v>
       </c>
       <c r="C229" s="5">
-        <v>1.21</v>
+        <v>3.1</v>
       </c>
       <c r="D229" s="5">
-        <f t="shared" ref="D229" si="138">(C229-B229)/2</f>
-        <v>3.5000000000000031E-2</v>
+        <f t="shared" si="129"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="E229" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F229" s="5">
-        <f t="shared" ref="F229" si="139">C229+E229</f>
-        <v>1.2129999999999999</v>
+        <f t="shared" si="130"/>
+        <v>3.1030000000000002</v>
       </c>
       <c r="G229" s="5">
-        <f t="shared" ref="G229" si="140">B229-E229</f>
-        <v>1.137</v>
-      </c>
-      <c r="H229" t="s">
-        <v>249</v>
+        <f t="shared" si="131"/>
+        <v>2.9969999999999999</v>
       </c>
     </row>
     <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="B230" s="5">
-        <v>1.52</v>
+        <v>3.9</v>
       </c>
       <c r="C230" s="5">
-        <v>1.63</v>
+        <v>4</v>
       </c>
       <c r="D230" s="5">
-        <f t="shared" ref="D230" si="141">(C230-B230)/2</f>
-        <v>5.4999999999999938E-2</v>
+        <f t="shared" si="129"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="E230" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F230" s="5">
-        <f t="shared" ref="F230" si="142">C230+E230</f>
-        <v>1.6329999999999998</v>
+        <f t="shared" si="130"/>
+        <v>4.0030000000000001</v>
       </c>
       <c r="G230" s="5">
-        <f t="shared" ref="G230" si="143">B230-E230</f>
-        <v>1.5170000000000001</v>
-      </c>
-      <c r="H230" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9">
-      <c r="A231" t="s">
-        <v>242</v>
-      </c>
-      <c r="I231" t="s">
-        <v>256</v>
+        <f t="shared" si="131"/>
+        <v>3.8969999999999998</v>
       </c>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" t="s">
-        <v>243</v>
-      </c>
-      <c r="B232" s="5">
-        <v>2.14</v>
-      </c>
-      <c r="C232" s="5">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="D232" s="5">
-        <f t="shared" ref="D232" si="144">(C232-B232)/2</f>
-        <v>5.9999999999999831E-2</v>
-      </c>
-      <c r="E232" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F232" s="5">
-        <f t="shared" ref="F232" si="145">C232+E232</f>
-        <v>2.2629999999999999</v>
-      </c>
-      <c r="G232" s="5">
-        <f t="shared" ref="G232" si="146">B232-E232</f>
-        <v>2.137</v>
-      </c>
-      <c r="H232" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
-      <c r="A233" t="s">
-        <v>244</v>
-      </c>
-      <c r="B233" s="5">
-        <v>2.56</v>
-      </c>
-      <c r="C233" s="5">
-        <v>2.63</v>
-      </c>
-      <c r="D233" s="5">
-        <f t="shared" ref="D233" si="147">(C233-B233)/2</f>
-        <v>3.499999999999992E-2</v>
-      </c>
-      <c r="E233" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F233" s="5">
-        <f t="shared" ref="F233" si="148">C233+E233</f>
-        <v>2.633</v>
-      </c>
-      <c r="G233" s="5">
-        <f t="shared" ref="G233" si="149">B233-E233</f>
-        <v>2.5569999999999999</v>
-      </c>
-      <c r="H233" t="s">
-        <v>247</v>
+      <c r="A232" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="B234" s="5">
-        <v>3</v>
+        <v>1.393</v>
       </c>
       <c r="C234" s="5">
-        <v>3.1</v>
+        <v>1.5149999999999999</v>
       </c>
       <c r="D234" s="5">
-        <f t="shared" ref="D234" si="150">(C234-B234)/2</f>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" ref="D234" si="132">(C234-B234)/2</f>
+        <v>6.0999999999999943E-2</v>
       </c>
       <c r="E234" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F234" s="5">
-        <f t="shared" ref="F234" si="151">C234+E234</f>
-        <v>3.1030000000000002</v>
+        <f t="shared" ref="F234" si="133">C234+E234</f>
+        <v>1.5179999999999998</v>
       </c>
       <c r="G234" s="5">
-        <f t="shared" ref="G234" si="152">B234-E234</f>
-        <v>2.9969999999999999</v>
+        <f t="shared" ref="G234" si="134">B234-E234</f>
+        <v>1.3900000000000001</v>
       </c>
       <c r="H234" t="s">
-        <v>250</v>
+        <v>238</v>
+      </c>
+      <c r="I234" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="235" spans="1:9">
       <c r="A235" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="B235" s="5">
-        <v>3.9</v>
+        <v>2.0430000000000001</v>
       </c>
       <c r="C235" s="5">
-        <v>4</v>
+        <v>2.165</v>
       </c>
       <c r="D235" s="5">
-        <f t="shared" ref="D235" si="153">(C235-B235)/2</f>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" ref="D235" si="135">(C235-B235)/2</f>
+        <v>6.0999999999999943E-2</v>
       </c>
       <c r="E235" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F235" s="5">
-        <f t="shared" ref="F235" si="154">C235+E235</f>
-        <v>4.0030000000000001</v>
+        <f t="shared" ref="F235" si="136">C235+E235</f>
+        <v>2.1680000000000001</v>
       </c>
       <c r="G235" s="5">
-        <f t="shared" ref="G235" si="155">B235-E235</f>
-        <v>3.8969999999999998</v>
+        <f t="shared" ref="G235" si="137">B235-E235</f>
+        <v>2.04</v>
       </c>
       <c r="H235" t="s">
-        <v>251</v>
+        <v>238</v>
+      </c>
+      <c r="I235" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="B236" s="5">
-        <v>5.38</v>
+        <v>2.4260000000000002</v>
       </c>
       <c r="C236" s="5">
-        <v>5.54</v>
+        <v>2.548</v>
       </c>
       <c r="D236" s="5">
-        <f t="shared" ref="D236" si="156">(C236-B236)/2</f>
-        <v>8.0000000000000071E-2</v>
+        <f t="shared" ref="D236:D237" si="138">(C236-B236)/2</f>
+        <v>6.0999999999999943E-2</v>
       </c>
       <c r="E236" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F236" s="5">
-        <f t="shared" ref="F236" si="157">C236+E236</f>
-        <v>5.5430000000000001</v>
+        <f t="shared" ref="F236:F237" si="139">C236+E236</f>
+        <v>2.5510000000000002</v>
       </c>
       <c r="G236" s="5">
-        <f t="shared" ref="G236" si="158">B236-E236</f>
-        <v>5.3769999999999998</v>
+        <f t="shared" ref="G236:G237" si="140">B236-E236</f>
+        <v>2.423</v>
       </c>
       <c r="H236" t="s">
-        <v>254</v>
+        <v>238</v>
+      </c>
+      <c r="I236" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" t="s">
+        <v>225</v>
+      </c>
+      <c r="B237" s="5">
+        <v>2.8679999999999999</v>
+      </c>
+      <c r="C237" s="5">
+        <v>2.99</v>
+      </c>
+      <c r="D237" s="5">
+        <f t="shared" si="138"/>
+        <v>6.1000000000000165E-2</v>
+      </c>
+      <c r="E237" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F237" s="5">
+        <f t="shared" si="139"/>
+        <v>2.9930000000000003</v>
+      </c>
+      <c r="G237" s="5">
+        <f t="shared" si="140"/>
+        <v>2.8649999999999998</v>
+      </c>
+      <c r="H237" t="s">
+        <v>238</v>
+      </c>
+      <c r="I237" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="238" spans="1:9">
-      <c r="A238" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9">
-      <c r="A240" t="s">
-        <v>231</v>
-      </c>
-      <c r="B240" s="5">
-        <v>0.875</v>
-      </c>
-      <c r="C240" s="5">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="D240" s="5">
-        <f t="shared" ref="D240" si="159">(C240-B240)/2</f>
-        <v>3.4999999999999976E-2</v>
-      </c>
-      <c r="E240" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F240" s="5">
-        <f t="shared" ref="F240" si="160">C240+E240</f>
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="G240" s="5">
-        <f t="shared" ref="G240" si="161">B240-E240</f>
-        <v>0.872</v>
-      </c>
-      <c r="H240" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9">
-      <c r="A241" t="s">
-        <v>230</v>
-      </c>
-      <c r="B241" s="5">
-        <v>1.0649999999999999</v>
-      </c>
-      <c r="C241" s="5">
-        <v>1.135</v>
-      </c>
-      <c r="D241" s="5">
-        <f t="shared" ref="D241" si="162">(C241-B241)/2</f>
-        <v>3.5000000000000031E-2</v>
-      </c>
-      <c r="E241" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F241" s="5">
-        <f t="shared" ref="F241" si="163">C241+E241</f>
-        <v>1.1379999999999999</v>
-      </c>
-      <c r="G241" s="5">
-        <f t="shared" ref="G241" si="164">B241-E241</f>
-        <v>1.0620000000000001</v>
-      </c>
-      <c r="H241" t="s">
-        <v>262</v>
+      <c r="A238" t="s">
+        <v>226</v>
+      </c>
+      <c r="B238" s="5">
+        <v>3.66</v>
+      </c>
+      <c r="C238" s="5">
+        <v>3.89</v>
+      </c>
+      <c r="D238" s="5">
+        <f t="shared" ref="D238" si="141">(C238-B238)/2</f>
+        <v>0.11499999999999999</v>
+      </c>
+      <c r="E238" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F238" s="5">
+        <f t="shared" ref="F238" si="142">C238+E238</f>
+        <v>3.8930000000000002</v>
+      </c>
+      <c r="G238" s="5">
+        <f t="shared" ref="G238" si="143">B238-E238</f>
+        <v>3.657</v>
+      </c>
+      <c r="H238" t="s">
+        <v>239</v>
+      </c>
+      <c r="I238" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="242" spans="1:9">
-      <c r="A242" t="s">
-        <v>229</v>
-      </c>
-      <c r="B242" s="5">
-        <v>1.4350000000000001</v>
-      </c>
-      <c r="C242" s="5">
-        <v>1.51</v>
-      </c>
-      <c r="D242" s="5">
-        <f t="shared" ref="D242" si="165">(C242-B242)/2</f>
-        <v>3.7499999999999978E-2</v>
-      </c>
-      <c r="E242" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F242" s="5">
-        <f t="shared" ref="F242" si="166">C242+E242</f>
-        <v>1.5129999999999999</v>
-      </c>
-      <c r="G242" s="5">
-        <f t="shared" ref="G242" si="167">B242-E242</f>
-        <v>1.4320000000000002</v>
-      </c>
-      <c r="H242" t="s">
-        <v>261</v>
+      <c r="A242" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="243" spans="1:9">
-      <c r="A243" t="s">
-        <v>232</v>
-      </c>
-      <c r="B243" s="5">
-        <v>1.71</v>
-      </c>
-      <c r="C243" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="D243" s="5">
-        <f t="shared" ref="D243" si="168">(C243-B243)/2</f>
-        <v>4.500000000000004E-2</v>
-      </c>
-      <c r="E243" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F243" s="5">
-        <f t="shared" ref="F243" si="169">C243+E243</f>
-        <v>1.8029999999999999</v>
-      </c>
-      <c r="G243" s="5">
-        <f t="shared" ref="G243" si="170">B243-E243</f>
-        <v>1.7070000000000001</v>
-      </c>
-      <c r="H243" t="s">
-        <v>233</v>
-      </c>
-      <c r="I243" s="4" t="s">
-        <v>266</v>
-      </c>
+      <c r="A243" s="1"/>
     </row>
     <row r="244" spans="1:9">
-      <c r="A244" t="s">
-        <v>236</v>
-      </c>
-      <c r="B244" s="5">
-        <v>2.0150000000000001</v>
-      </c>
-      <c r="C244" s="5">
-        <v>2.1349999999999998</v>
-      </c>
-      <c r="D244" s="5">
-        <f t="shared" ref="D244" si="171">(C244-B244)/2</f>
-        <v>5.9999999999999831E-2</v>
-      </c>
-      <c r="E244" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F244" s="5">
-        <f t="shared" ref="F244" si="172">C244+E244</f>
-        <v>2.1379999999999999</v>
-      </c>
-      <c r="G244" s="5">
-        <f t="shared" ref="G244" si="173">B244-E244</f>
-        <v>2.012</v>
-      </c>
-      <c r="H244" t="s">
-        <v>260</v>
+      <c r="A244" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D244" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E244" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F244" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G244" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H244" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I244" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="245" spans="1:9">
-      <c r="A245" t="s">
-        <v>131</v>
-      </c>
-      <c r="B245" s="5">
-        <v>2.5449999999999999</v>
-      </c>
-      <c r="C245" s="5">
-        <v>2.6150000000000002</v>
-      </c>
-      <c r="D245" s="5">
-        <f t="shared" ref="D245" si="174">(C245-B245)/2</f>
-        <v>3.5000000000000142E-2</v>
-      </c>
-      <c r="E245" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F245" s="5">
-        <f t="shared" ref="F245" si="175">C245+E245</f>
-        <v>2.6180000000000003</v>
-      </c>
-      <c r="G245" s="5">
-        <f t="shared" ref="G245" si="176">B245-E245</f>
-        <v>2.5419999999999998</v>
-      </c>
-      <c r="H245" t="s">
-        <v>234</v>
-      </c>
-      <c r="I245" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9">
-      <c r="A246" t="s">
-        <v>132</v>
-      </c>
-      <c r="B246" s="5">
-        <v>2.8849999999999998</v>
-      </c>
-      <c r="C246" s="5">
-        <v>2.9950000000000001</v>
-      </c>
-      <c r="D246" s="5">
-        <f t="shared" ref="D246" si="177">(C246-B246)/2</f>
-        <v>5.500000000000016E-2</v>
-      </c>
-      <c r="E246" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F246" s="5">
-        <f t="shared" ref="F246" si="178">C246+E246</f>
-        <v>2.9980000000000002</v>
-      </c>
-      <c r="G246" s="5">
-        <f t="shared" ref="G246" si="179">B246-E246</f>
-        <v>2.8819999999999997</v>
-      </c>
-      <c r="H246" t="s">
-        <v>264</v>
+      <c r="A245" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="247" spans="1:9">
       <c r="A247" t="s">
+        <v>241</v>
+      </c>
+      <c r="B247" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="C247" s="5">
+        <v>1</v>
+      </c>
+      <c r="D247" s="5">
+        <f t="shared" ref="D247" si="144">(C247-B247)/2</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="E247" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F247" s="5">
+        <f t="shared" ref="F247" si="145">C247+E247</f>
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="G247" s="5">
+        <f t="shared" ref="G247" si="146">B247-E247</f>
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="H247" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" t="s">
+        <v>240</v>
+      </c>
+      <c r="B248" s="5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C248" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="D248" s="5">
+        <f t="shared" ref="D248" si="147">(C248-B248)/2</f>
+        <v>3.5000000000000031E-2</v>
+      </c>
+      <c r="E248" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F248" s="5">
+        <f t="shared" ref="F248" si="148">C248+E248</f>
+        <v>1.2129999999999999</v>
+      </c>
+      <c r="G248" s="5">
+        <f t="shared" ref="G248" si="149">B248-E248</f>
+        <v>1.137</v>
+      </c>
+      <c r="H248" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" t="s">
+        <v>237</v>
+      </c>
+      <c r="B249" s="5">
+        <v>1.52</v>
+      </c>
+      <c r="C249" s="5">
+        <v>1.63</v>
+      </c>
+      <c r="D249" s="5">
+        <f t="shared" ref="D249" si="150">(C249-B249)/2</f>
+        <v>5.4999999999999938E-2</v>
+      </c>
+      <c r="E249" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F249" s="5">
+        <f t="shared" ref="F249" si="151">C249+E249</f>
+        <v>1.6329999999999998</v>
+      </c>
+      <c r="G249" s="5">
+        <f t="shared" ref="G249" si="152">B249-E249</f>
+        <v>1.5170000000000001</v>
+      </c>
+      <c r="H249" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" t="s">
+        <v>242</v>
+      </c>
+      <c r="I250" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" t="s">
+        <v>243</v>
+      </c>
+      <c r="B251" s="5">
+        <v>2.14</v>
+      </c>
+      <c r="C251" s="5">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D251" s="5">
+        <f t="shared" ref="D251" si="153">(C251-B251)/2</f>
+        <v>5.9999999999999831E-2</v>
+      </c>
+      <c r="E251" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F251" s="5">
+        <f t="shared" ref="F251" si="154">C251+E251</f>
+        <v>2.2629999999999999</v>
+      </c>
+      <c r="G251" s="5">
+        <f t="shared" ref="G251" si="155">B251-E251</f>
+        <v>2.137</v>
+      </c>
+      <c r="H251" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" t="s">
+        <v>244</v>
+      </c>
+      <c r="B252" s="5">
+        <v>2.56</v>
+      </c>
+      <c r="C252" s="5">
+        <v>2.63</v>
+      </c>
+      <c r="D252" s="5">
+        <f t="shared" ref="D252" si="156">(C252-B252)/2</f>
+        <v>3.499999999999992E-2</v>
+      </c>
+      <c r="E252" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F252" s="5">
+        <f t="shared" ref="F252" si="157">C252+E252</f>
+        <v>2.633</v>
+      </c>
+      <c r="G252" s="5">
+        <f t="shared" ref="G252" si="158">B252-E252</f>
+        <v>2.5569999999999999</v>
+      </c>
+      <c r="H252" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" t="s">
+        <v>245</v>
+      </c>
+      <c r="B253" s="5">
+        <v>3</v>
+      </c>
+      <c r="C253" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="D253" s="5">
+        <f t="shared" ref="D253" si="159">(C253-B253)/2</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="E253" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F253" s="5">
+        <f t="shared" ref="F253" si="160">C253+E253</f>
+        <v>3.1030000000000002</v>
+      </c>
+      <c r="G253" s="5">
+        <f t="shared" ref="G253" si="161">B253-E253</f>
+        <v>2.9969999999999999</v>
+      </c>
+      <c r="H253" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" t="s">
+        <v>246</v>
+      </c>
+      <c r="B254" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="C254" s="5">
+        <v>4</v>
+      </c>
+      <c r="D254" s="5">
+        <f t="shared" ref="D254" si="162">(C254-B254)/2</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="E254" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F254" s="5">
+        <f t="shared" ref="F254" si="163">C254+E254</f>
+        <v>4.0030000000000001</v>
+      </c>
+      <c r="G254" s="5">
+        <f t="shared" ref="G254" si="164">B254-E254</f>
+        <v>3.8969999999999998</v>
+      </c>
+      <c r="H254" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" t="s">
+        <v>253</v>
+      </c>
+      <c r="B255" s="5">
+        <v>5.38</v>
+      </c>
+      <c r="C255" s="5">
+        <v>5.54</v>
+      </c>
+      <c r="D255" s="5">
+        <f t="shared" ref="D255" si="165">(C255-B255)/2</f>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="E255" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F255" s="5">
+        <f t="shared" ref="F255" si="166">C255+E255</f>
+        <v>5.5430000000000001</v>
+      </c>
+      <c r="G255" s="5">
+        <f t="shared" ref="G255" si="167">B255-E255</f>
+        <v>5.3769999999999998</v>
+      </c>
+      <c r="H255" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" t="s">
+        <v>231</v>
+      </c>
+      <c r="B259" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="C259" s="5">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="D259" s="5">
+        <f t="shared" ref="D259" si="168">(C259-B259)/2</f>
+        <v>3.4999999999999976E-2</v>
+      </c>
+      <c r="E259" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F259" s="5">
+        <f t="shared" ref="F259" si="169">C259+E259</f>
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G259" s="5">
+        <f t="shared" ref="G259" si="170">B259-E259</f>
+        <v>0.872</v>
+      </c>
+      <c r="H259" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" t="s">
+        <v>230</v>
+      </c>
+      <c r="B260" s="5">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="C260" s="5">
+        <v>1.135</v>
+      </c>
+      <c r="D260" s="5">
+        <f t="shared" ref="D260" si="171">(C260-B260)/2</f>
+        <v>3.5000000000000031E-2</v>
+      </c>
+      <c r="E260" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F260" s="5">
+        <f t="shared" ref="F260" si="172">C260+E260</f>
+        <v>1.1379999999999999</v>
+      </c>
+      <c r="G260" s="5">
+        <f t="shared" ref="G260" si="173">B260-E260</f>
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="H260" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" t="s">
+        <v>229</v>
+      </c>
+      <c r="B261" s="5">
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="C261" s="5">
+        <v>1.51</v>
+      </c>
+      <c r="D261" s="5">
+        <f t="shared" ref="D261" si="174">(C261-B261)/2</f>
+        <v>3.7499999999999978E-2</v>
+      </c>
+      <c r="E261" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F261" s="5">
+        <f t="shared" ref="F261" si="175">C261+E261</f>
+        <v>1.5129999999999999</v>
+      </c>
+      <c r="G261" s="5">
+        <f t="shared" ref="G261" si="176">B261-E261</f>
+        <v>1.4320000000000002</v>
+      </c>
+      <c r="H261" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" t="s">
+        <v>232</v>
+      </c>
+      <c r="B262" s="5">
+        <v>1.71</v>
+      </c>
+      <c r="C262" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="D262" s="5">
+        <f t="shared" ref="D262" si="177">(C262-B262)/2</f>
+        <v>4.500000000000004E-2</v>
+      </c>
+      <c r="E262" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F262" s="5">
+        <f t="shared" ref="F262" si="178">C262+E262</f>
+        <v>1.8029999999999999</v>
+      </c>
+      <c r="G262" s="5">
+        <f t="shared" ref="G262" si="179">B262-E262</f>
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="H262" t="s">
+        <v>233</v>
+      </c>
+      <c r="I262" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" t="s">
+        <v>236</v>
+      </c>
+      <c r="B263" s="5">
+        <v>2.0150000000000001</v>
+      </c>
+      <c r="C263" s="5">
+        <v>2.1349999999999998</v>
+      </c>
+      <c r="D263" s="5">
+        <f t="shared" ref="D263" si="180">(C263-B263)/2</f>
+        <v>5.9999999999999831E-2</v>
+      </c>
+      <c r="E263" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F263" s="5">
+        <f t="shared" ref="F263" si="181">C263+E263</f>
+        <v>2.1379999999999999</v>
+      </c>
+      <c r="G263" s="5">
+        <f t="shared" ref="G263" si="182">B263-E263</f>
+        <v>2.012</v>
+      </c>
+      <c r="H263" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" t="s">
+        <v>131</v>
+      </c>
+      <c r="B264" s="5">
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="C264" s="5">
+        <v>2.6150000000000002</v>
+      </c>
+      <c r="D264" s="5">
+        <f t="shared" ref="D264" si="183">(C264-B264)/2</f>
+        <v>3.5000000000000142E-2</v>
+      </c>
+      <c r="E264" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F264" s="5">
+        <f t="shared" ref="F264" si="184">C264+E264</f>
+        <v>2.6180000000000003</v>
+      </c>
+      <c r="G264" s="5">
+        <f t="shared" ref="G264" si="185">B264-E264</f>
+        <v>2.5419999999999998</v>
+      </c>
+      <c r="H264" t="s">
+        <v>234</v>
+      </c>
+      <c r="I264" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" t="s">
+        <v>132</v>
+      </c>
+      <c r="B265" s="5">
+        <v>2.8849999999999998</v>
+      </c>
+      <c r="C265" s="5">
+        <v>2.9950000000000001</v>
+      </c>
+      <c r="D265" s="5">
+        <f t="shared" ref="D265" si="186">(C265-B265)/2</f>
+        <v>5.500000000000016E-2</v>
+      </c>
+      <c r="E265" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F265" s="5">
+        <f t="shared" ref="F265" si="187">C265+E265</f>
+        <v>2.9980000000000002</v>
+      </c>
+      <c r="G265" s="5">
+        <f t="shared" ref="G265" si="188">B265-E265</f>
+        <v>2.8819999999999997</v>
+      </c>
+      <c r="H265" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" t="s">
         <v>235</v>
       </c>
-      <c r="B247" s="5">
+      <c r="B266" s="5">
         <v>3.7850000000000001</v>
       </c>
-      <c r="C247" s="5">
+      <c r="C266" s="5">
         <v>3.895</v>
       </c>
-      <c r="D247" s="5">
-        <f t="shared" ref="D247" si="180">(C247-B247)/2</f>
+      <c r="D266" s="5">
+        <f t="shared" ref="D266" si="189">(C266-B266)/2</f>
         <v>5.4999999999999938E-2</v>
       </c>
-      <c r="E247" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F247" s="5">
-        <f t="shared" ref="F247" si="181">C247+E247</f>
+      <c r="E266" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F266" s="5">
+        <f t="shared" ref="F266" si="190">C266+E266</f>
         <v>3.8980000000000001</v>
       </c>
-      <c r="G247" s="5">
-        <f t="shared" ref="G247" si="182">B247-E247</f>
+      <c r="G266" s="5">
+        <f t="shared" ref="G266" si="191">B266-E266</f>
         <v>3.782</v>
       </c>
-      <c r="H247" t="s">
+      <c r="H266" t="s">
         <v>265</v>
       </c>
     </row>

--- a/data/body_tube_data.xlsx
+++ b/data/body_tube_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="48320" yWindow="-4800" windowWidth="24080" windowHeight="32380" tabRatio="500"/>
+    <workbookView xWindow="3480" yWindow="2360" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="312">
   <si>
     <t>ID inches</t>
   </si>
@@ -1007,6 +1007,12 @@
   </si>
   <si>
     <t>OD of CRs specified as 5.998, yielding CR offset of .002</t>
+  </si>
+  <si>
+    <t>7.5 in</t>
+  </si>
+  <si>
+    <t>Sizes all from Always Ready Rocketry site 2017</t>
   </si>
 </sst>
 </file>
@@ -2049,10 +2055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M266"/>
+  <dimension ref="A1:M267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="H184" sqref="H184"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4103,104 +4109,107 @@
       <c r="A101" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="5">
-        <v>1.1359999999999999</v>
+      <c r="B101">
+        <v>1.1499999999999999</v>
       </c>
       <c r="C101" s="5">
-        <v>1.276</v>
+        <v>1.274</v>
       </c>
       <c r="D101" s="5">
-        <f t="shared" ref="D101:D108" si="24">(C101-B101)/2</f>
-        <v>7.0000000000000062E-2</v>
+        <f t="shared" ref="D101:D109" si="24">(C101-B101)/2</f>
+        <v>6.2000000000000055E-2</v>
       </c>
       <c r="E101" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F101" s="5">
-        <f t="shared" ref="F101:F108" si="25">C101+E101</f>
-        <v>1.2789999999999999</v>
+        <f t="shared" ref="F101:F109" si="25">C101+E101</f>
+        <v>1.2769999999999999</v>
       </c>
       <c r="G101" s="5">
-        <f t="shared" ref="G101:G108" si="26">B101-E101</f>
-        <v>1.133</v>
+        <f t="shared" ref="G101:G109" si="26">B101-E101</f>
+        <v>1.147</v>
+      </c>
+      <c r="H101" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>108</v>
       </c>
-      <c r="B102" s="5">
-        <v>1.504</v>
+      <c r="B102">
+        <v>1.52</v>
       </c>
       <c r="C102" s="5">
-        <v>1.6160000000000001</v>
+        <v>1.6439999999999999</v>
       </c>
       <c r="D102" s="5">
         <f t="shared" si="24"/>
-        <v>5.600000000000005E-2</v>
+        <v>6.1999999999999944E-2</v>
       </c>
       <c r="E102" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F102" s="5">
         <f t="shared" si="25"/>
-        <v>1.619</v>
+        <v>1.6469999999999998</v>
       </c>
       <c r="G102" s="5">
         <f t="shared" si="26"/>
-        <v>1.5010000000000001</v>
+        <v>1.5170000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>109</v>
       </c>
-      <c r="B103" s="5">
-        <v>2.1349999999999998</v>
+      <c r="B103">
+        <v>2.15</v>
       </c>
       <c r="C103" s="5">
-        <v>2.2599999999999998</v>
+        <v>2.274</v>
       </c>
       <c r="D103" s="5">
         <f t="shared" si="24"/>
-        <v>6.25E-2</v>
+        <v>6.2000000000000055E-2</v>
       </c>
       <c r="E103" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F103" s="5">
         <f t="shared" si="25"/>
-        <v>2.2629999999999999</v>
+        <v>2.2770000000000001</v>
       </c>
       <c r="G103" s="5">
         <f t="shared" si="26"/>
-        <v>2.1319999999999997</v>
+        <v>2.1469999999999998</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>110</v>
       </c>
-      <c r="B104" s="5">
-        <v>2.5510000000000002</v>
+      <c r="B104">
+        <v>2.56</v>
       </c>
       <c r="C104" s="5">
-        <v>2.6709999999999998</v>
+        <v>2.6840000000000002</v>
       </c>
       <c r="D104" s="5">
         <f t="shared" si="24"/>
-        <v>5.9999999999999831E-2</v>
+        <v>6.2000000000000055E-2</v>
       </c>
       <c r="E104" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F104" s="5">
         <f t="shared" si="25"/>
-        <v>2.6739999999999999</v>
+        <v>2.6870000000000003</v>
       </c>
       <c r="G104" s="5">
         <f t="shared" si="26"/>
-        <v>2.548</v>
+        <v>2.5569999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4211,18 +4220,18 @@
         <v>3</v>
       </c>
       <c r="C105" s="5">
-        <v>3.1</v>
+        <v>3.1240000000000001</v>
       </c>
       <c r="D105" s="5">
         <f t="shared" si="24"/>
-        <v>5.0000000000000044E-2</v>
+        <v>6.2000000000000055E-2</v>
       </c>
       <c r="E105" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F105" s="5">
         <f t="shared" si="25"/>
-        <v>3.1030000000000002</v>
+        <v>3.1270000000000002</v>
       </c>
       <c r="G105" s="5">
         <f t="shared" si="26"/>
@@ -4237,18 +4246,18 @@
         <v>3.9</v>
       </c>
       <c r="C106" s="5">
-        <v>4.0140000000000002</v>
+        <v>4.024</v>
       </c>
       <c r="D106" s="5">
         <f t="shared" si="24"/>
-        <v>5.7000000000000162E-2</v>
+        <v>6.2000000000000055E-2</v>
       </c>
       <c r="E106" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F106" s="5">
         <f t="shared" si="25"/>
-        <v>4.0170000000000003</v>
+        <v>4.0270000000000001</v>
       </c>
       <c r="G106" s="5">
         <f t="shared" si="26"/>
@@ -4260,25 +4269,25 @@
         <v>113</v>
       </c>
       <c r="B107" s="5">
-        <v>5.36</v>
+        <v>5.5</v>
       </c>
       <c r="C107" s="5">
-        <v>5.5179999999999998</v>
+        <v>5.6539999999999999</v>
       </c>
       <c r="D107" s="5">
         <f t="shared" si="24"/>
-        <v>7.8999999999999737E-2</v>
+        <v>7.6999999999999957E-2</v>
       </c>
       <c r="E107" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F107" s="5">
         <f t="shared" si="25"/>
-        <v>5.5209999999999999</v>
+        <v>5.657</v>
       </c>
       <c r="G107" s="5">
         <f t="shared" si="26"/>
-        <v>5.3570000000000002</v>
+        <v>5.4969999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4286,258 +4295,258 @@
         <v>114</v>
       </c>
       <c r="B108" s="5">
-        <v>5.9729999999999999</v>
+        <v>6</v>
       </c>
       <c r="C108" s="5">
-        <v>6.0789999999999997</v>
+        <v>6.1479999999999997</v>
       </c>
       <c r="D108" s="5">
         <f t="shared" si="24"/>
-        <v>5.2999999999999936E-2</v>
+        <v>7.3999999999999844E-2</v>
       </c>
       <c r="E108" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F108" s="5">
         <f t="shared" si="25"/>
-        <v>6.0819999999999999</v>
+        <v>6.1509999999999998</v>
       </c>
       <c r="G108" s="5">
         <f t="shared" si="26"/>
-        <v>5.97</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="1" t="s">
+        <v>5.9969999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>310</v>
+      </c>
+      <c r="B109" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="C109" s="5">
+        <v>7.66</v>
+      </c>
+      <c r="D109" s="5">
+        <f t="shared" si="24"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="E109" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F109" s="5">
+        <f t="shared" si="25"/>
+        <v>7.6630000000000003</v>
+      </c>
+      <c r="G109" s="5">
+        <f t="shared" si="26"/>
+        <v>7.4969999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H111" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="1"/>
-    </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B113" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C113" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D113" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E112" s="10" t="s">
+      <c r="E113" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="F112" s="10" t="s">
+      <c r="F113" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G112" s="10" t="s">
+      <c r="G113" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H112" s="10" t="s">
+      <c r="H113" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I112" s="11" t="s">
+      <c r="I113" s="11" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" t="s">
-        <v>116</v>
-      </c>
-      <c r="B113" s="5">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="C113" s="5">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="D113" s="5">
-        <f t="shared" ref="D113:D122" si="27">(C113-B113)/2</f>
-        <v>2.5000000000000022E-2</v>
-      </c>
-      <c r="E113" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F113" s="5">
-        <f t="shared" ref="F113:F122" si="28">C113+E113</f>
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="G113" s="5">
-        <f t="shared" ref="G113:G122" si="29">B113-E113</f>
-        <v>0.71199999999999997</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" s="5">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="C114" s="5">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="D114" s="5">
+        <f t="shared" ref="D114:D123" si="27">(C114-B114)/2</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="E114" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F114" s="5">
+        <f t="shared" ref="F114:F123" si="28">C114+E114</f>
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="G114" s="5">
+        <f t="shared" ref="G114:G123" si="29">B114-E114</f>
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
         <v>117</v>
       </c>
-      <c r="B114" s="5">
+      <c r="B115" s="5">
         <v>0.95</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C115" s="5">
         <v>1</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D115" s="5">
         <f t="shared" si="27"/>
         <v>2.5000000000000022E-2</v>
       </c>
-      <c r="E114" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F114" s="5">
+      <c r="E115" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F115" s="5">
         <f t="shared" si="28"/>
         <v>1.0029999999999999</v>
       </c>
-      <c r="G114" s="5">
+      <c r="G115" s="5">
         <f t="shared" si="29"/>
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
-      <c r="A115" t="s">
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
         <v>118</v>
       </c>
-      <c r="B115" s="5">
+      <c r="B116" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C116" s="5">
         <v>1.21</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D116" s="5">
         <f t="shared" si="27"/>
         <v>3.5000000000000031E-2</v>
       </c>
-      <c r="E115" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F115" s="5">
+      <c r="E116" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F116" s="5">
         <f t="shared" si="28"/>
         <v>1.2129999999999999</v>
       </c>
-      <c r="G115" s="5">
+      <c r="G116" s="5">
         <f t="shared" si="29"/>
         <v>1.137</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
-      <c r="A116" t="s">
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
         <v>119</v>
       </c>
-      <c r="B116" s="5">
+      <c r="B117" s="5">
         <v>1.52</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C117" s="5">
         <v>1.63</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D117" s="5">
         <f t="shared" si="27"/>
         <v>5.4999999999999938E-2</v>
       </c>
-      <c r="E116" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F116" s="5">
+      <c r="E117" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F117" s="5">
         <f t="shared" si="28"/>
         <v>1.6329999999999998</v>
       </c>
-      <c r="G116" s="5">
+      <c r="G117" s="5">
         <f t="shared" si="29"/>
         <v>1.5170000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
-      <c r="A117" t="s">
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
         <v>120</v>
       </c>
-      <c r="B117" s="5">
+      <c r="B118" s="5">
         <v>2.14</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C118" s="5">
         <v>2.2599999999999998</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D118" s="5">
         <f t="shared" si="27"/>
         <v>5.9999999999999831E-2</v>
       </c>
-      <c r="E117" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F117" s="5">
+      <c r="E118" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F118" s="5">
         <f t="shared" si="28"/>
         <v>2.2629999999999999</v>
       </c>
-      <c r="G117" s="5">
+      <c r="G118" s="5">
         <f t="shared" si="29"/>
         <v>2.137</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
-      <c r="A118" t="s">
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
         <v>121</v>
       </c>
-      <c r="B118" s="5">
+      <c r="B119" s="5">
         <v>2.56</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C119" s="5">
         <v>2.63</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D119" s="5">
         <f t="shared" si="27"/>
         <v>3.499999999999992E-2</v>
       </c>
-      <c r="E118" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F118" s="5">
+      <c r="E119" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F119" s="5">
         <f t="shared" si="28"/>
         <v>2.633</v>
       </c>
-      <c r="G118" s="5">
+      <c r="G119" s="5">
         <f t="shared" si="29"/>
         <v>2.5569999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
-      <c r="A119" t="s">
-        <v>122</v>
-      </c>
-      <c r="B119" s="5">
-        <v>3</v>
-      </c>
-      <c r="C119" s="5">
-        <v>3.1</v>
-      </c>
-      <c r="D119" s="5">
-        <f t="shared" si="27"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="E119" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F119" s="5">
-        <f t="shared" si="28"/>
-        <v>3.1030000000000002</v>
-      </c>
-      <c r="G119" s="5">
-        <f t="shared" si="29"/>
-        <v>2.9969999999999999</v>
-      </c>
-    </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B120" s="5">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="C120" s="5">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D120" s="5">
         <f t="shared" si="27"/>
@@ -4548,48 +4557,48 @@
       </c>
       <c r="F120" s="5">
         <f t="shared" si="28"/>
-        <v>4.0030000000000001</v>
+        <v>3.1030000000000002</v>
       </c>
       <c r="G120" s="5">
         <f t="shared" si="29"/>
-        <v>3.8969999999999998</v>
+        <v>2.9969999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B121" s="5">
-        <v>5.38</v>
+        <v>3.9</v>
       </c>
       <c r="C121" s="5">
-        <v>5.54</v>
+        <v>4</v>
       </c>
       <c r="D121" s="5">
         <f t="shared" si="27"/>
-        <v>8.0000000000000071E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="E121" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F121" s="5">
         <f t="shared" si="28"/>
-        <v>5.5430000000000001</v>
+        <v>4.0030000000000001</v>
       </c>
       <c r="G121" s="5">
         <f t="shared" si="29"/>
-        <v>5.3769999999999998</v>
+        <v>3.8969999999999998</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B122" s="5">
-        <v>7.5149999999999997</v>
+        <v>5.38</v>
       </c>
       <c r="C122" s="5">
-        <v>7.6749999999999998</v>
+        <v>5.54</v>
       </c>
       <c r="D122" s="5">
         <f t="shared" si="27"/>
@@ -4600,555 +4609,552 @@
       </c>
       <c r="F122" s="5">
         <f t="shared" si="28"/>
-        <v>7.6779999999999999</v>
+        <v>5.5430000000000001</v>
       </c>
       <c r="G122" s="5">
         <f t="shared" si="29"/>
+        <v>5.3769999999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" s="5">
+        <v>7.5149999999999997</v>
+      </c>
+      <c r="C123" s="5">
+        <v>7.6749999999999998</v>
+      </c>
+      <c r="D123" s="5">
+        <f t="shared" si="27"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="E123" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F123" s="5">
+        <f t="shared" si="28"/>
+        <v>7.6779999999999999</v>
+      </c>
+      <c r="G123" s="5">
+        <f t="shared" si="29"/>
         <v>7.5119999999999996</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" t="s">
-        <v>126</v>
-      </c>
-      <c r="B124" s="5">
-        <v>3</v>
-      </c>
-      <c r="C124" s="5">
-        <v>3.12</v>
-      </c>
-      <c r="D124" s="5">
-        <f>(C124-B124)/2</f>
-        <v>6.0000000000000053E-2</v>
-      </c>
-      <c r="E124" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F124" s="5">
-        <f>C124+E124</f>
-        <v>3.1230000000000002</v>
-      </c>
-      <c r="G124" s="5">
-        <f>B124-E124</f>
-        <v>2.9969999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B125" s="5">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="C125" s="5">
-        <v>4.0199999999999996</v>
+        <v>3.12</v>
       </c>
       <c r="D125" s="5">
         <f>(C125-B125)/2</f>
-        <v>5.9999999999999831E-2</v>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="E125" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F125" s="5">
         <f>C125+E125</f>
-        <v>4.0229999999999997</v>
+        <v>3.1230000000000002</v>
       </c>
       <c r="G125" s="5">
         <f>B125-E125</f>
+        <v>2.9969999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="C126" s="5">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="D126" s="5">
+        <f>(C126-B126)/2</f>
+        <v>5.9999999999999831E-2</v>
+      </c>
+      <c r="E126" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F126" s="5">
+        <f>C126+E126</f>
+        <v>4.0229999999999997</v>
+      </c>
+      <c r="G126" s="5">
+        <f>B126-E126</f>
         <v>3.8969999999999998</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" t="s">
-        <v>128</v>
-      </c>
-      <c r="B127" s="5">
-        <v>1.006</v>
-      </c>
-      <c r="C127" s="5">
-        <v>1.127</v>
-      </c>
-      <c r="D127" s="5">
-        <f t="shared" ref="D127:D134" si="30">(C127-B127)/2</f>
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="E127" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F127" s="5">
-        <f t="shared" ref="F127:F134" si="31">C127+E127</f>
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="G127" s="5">
-        <f t="shared" ref="G127:G134" si="32">B127-E127</f>
-        <v>1.0030000000000001</v>
-      </c>
-      <c r="H127" t="s">
-        <v>277</v>
-      </c>
-      <c r="I127" s="4" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" s="5">
+        <v>1.006</v>
+      </c>
+      <c r="C128" s="5">
+        <v>1.127</v>
+      </c>
+      <c r="D128" s="5">
+        <f t="shared" ref="D128:D135" si="30">(C128-B128)/2</f>
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="E128" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F128" s="5">
+        <f t="shared" ref="F128:F135" si="31">C128+E128</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G128" s="5">
+        <f t="shared" ref="G128:G135" si="32">B128-E128</f>
+        <v>1.0030000000000001</v>
+      </c>
+      <c r="H128" t="s">
+        <v>277</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
         <v>129</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B129" s="5">
         <v>1.3979999999999999</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C129" s="5">
         <v>1.52</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D129" s="5">
         <f t="shared" si="30"/>
         <v>6.1000000000000054E-2</v>
       </c>
-      <c r="E128" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F128" s="5">
+      <c r="E129" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F129" s="5">
         <f t="shared" si="31"/>
         <v>1.5229999999999999</v>
       </c>
-      <c r="G128" s="5">
+      <c r="G129" s="5">
         <f t="shared" si="32"/>
         <v>1.395</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H129" t="s">
         <v>276</v>
       </c>
-      <c r="I128" s="6" t="s">
+      <c r="I129" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
-      <c r="A129" t="s">
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
         <v>130</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B130" s="5">
         <v>2.0169999999999999</v>
       </c>
-      <c r="C129" s="5">
+      <c r="C130" s="5">
         <v>2.1379999999999999</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D130" s="5">
         <f t="shared" si="30"/>
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="E129" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F129" s="5">
+      <c r="E130" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F130" s="5">
         <f t="shared" si="31"/>
         <v>2.141</v>
       </c>
-      <c r="G129" s="5">
+      <c r="G130" s="5">
         <f t="shared" si="32"/>
         <v>2.0139999999999998</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H130" t="s">
         <v>275</v>
       </c>
-      <c r="I129" s="4" t="s">
+      <c r="I130" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
-      <c r="A130" t="s">
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
         <v>131</v>
       </c>
-      <c r="B130" s="5">
+      <c r="B131" s="5">
         <v>2.4790000000000001</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C131" s="5">
         <v>2.5550000000000002</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D131" s="5">
         <f t="shared" si="30"/>
         <v>3.8000000000000034E-2</v>
       </c>
-      <c r="E130" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F130" s="5">
+      <c r="E131" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F131" s="5">
         <f t="shared" si="31"/>
         <v>2.5580000000000003</v>
       </c>
-      <c r="G130" s="5">
+      <c r="G131" s="5">
         <f t="shared" si="32"/>
         <v>2.476</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H131" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
-      <c r="A131" t="s">
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
         <v>132</v>
       </c>
-      <c r="B131" s="5">
+      <c r="B132" s="5">
         <v>2.88</v>
       </c>
-      <c r="C131" s="5">
+      <c r="C132" s="5">
         <v>2.99</v>
       </c>
-      <c r="D131" s="5">
+      <c r="D132" s="5">
         <f t="shared" si="30"/>
         <v>5.500000000000016E-2</v>
       </c>
-      <c r="E131" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F131" s="5">
+      <c r="E132" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F132" s="5">
         <f t="shared" si="31"/>
         <v>2.9930000000000003</v>
       </c>
-      <c r="G131" s="5">
+      <c r="G132" s="5">
         <f t="shared" si="32"/>
         <v>2.8769999999999998</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H132" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
-      <c r="A132" t="s">
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
         <v>133</v>
       </c>
-      <c r="B132" s="5">
+      <c r="B133" s="5">
         <v>3.8113999999999999</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C133" s="5">
         <v>3.8839999999999999</v>
       </c>
-      <c r="D132" s="5">
+      <c r="D133" s="5">
         <f t="shared" si="30"/>
         <v>3.6299999999999999E-2</v>
       </c>
-      <c r="E132" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F132" s="5">
+      <c r="E133" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F133" s="5">
         <f t="shared" si="31"/>
         <v>3.887</v>
       </c>
-      <c r="G132" s="5">
+      <c r="G133" s="5">
         <f t="shared" si="32"/>
         <v>3.8083999999999998</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H133" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
-      <c r="A133" t="s">
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
         <v>134</v>
       </c>
-      <c r="B133" s="5">
+      <c r="B134" s="5">
         <v>5.2720000000000002</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C134" s="5">
         <v>5.3719999999999999</v>
       </c>
-      <c r="D133" s="5">
+      <c r="D134" s="5">
         <f t="shared" si="30"/>
         <v>4.9999999999999822E-2</v>
       </c>
-      <c r="E133" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F133" s="5">
+      <c r="E134" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F134" s="5">
         <f t="shared" si="31"/>
         <v>5.375</v>
       </c>
-      <c r="G133" s="5">
+      <c r="G134" s="5">
         <f t="shared" si="32"/>
         <v>5.2690000000000001</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H134" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
-      <c r="A134" t="s">
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
         <v>135</v>
       </c>
-      <c r="B134" s="5">
+      <c r="B135" s="5">
         <v>7.3979999999999997</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C135" s="5">
         <v>7.508</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D135" s="5">
         <f t="shared" si="30"/>
         <v>5.500000000000016E-2</v>
       </c>
-      <c r="E134" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F134" s="5">
+      <c r="E135" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F135" s="5">
         <f t="shared" si="31"/>
         <v>7.5110000000000001</v>
       </c>
-      <c r="G134" s="5">
+      <c r="G135" s="5">
         <f t="shared" si="32"/>
         <v>7.3949999999999996</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H135" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" t="s">
-        <v>136</v>
-      </c>
-      <c r="B136" s="5">
-        <v>1.7549999999999999</v>
-      </c>
-      <c r="C136" s="5">
-        <v>2</v>
-      </c>
-      <c r="D136" s="5">
-        <f t="shared" ref="D136:D141" si="33">(C136-B136)/2</f>
-        <v>0.12250000000000005</v>
-      </c>
-      <c r="E136" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F136" s="5">
-        <f t="shared" ref="F136:F141" si="34">C136+E136</f>
-        <v>2.0030000000000001</v>
-      </c>
-      <c r="G136" s="5">
-        <f t="shared" ref="G136:G141" si="35">B136-E136</f>
-        <v>1.752</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" s="5">
+        <v>1.7549999999999999</v>
+      </c>
+      <c r="C137" s="5">
+        <v>2</v>
+      </c>
+      <c r="D137" s="5">
+        <f t="shared" ref="D137:D142" si="33">(C137-B137)/2</f>
+        <v>0.12250000000000005</v>
+      </c>
+      <c r="E137" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F137" s="5">
+        <f t="shared" ref="F137:F142" si="34">C137+E137</f>
+        <v>2.0030000000000001</v>
+      </c>
+      <c r="G137" s="5">
+        <f t="shared" ref="G137:G142" si="35">B137-E137</f>
+        <v>1.752</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
         <v>137</v>
       </c>
-      <c r="B137" s="5">
+      <c r="B138" s="5">
         <v>2.2450000000000001</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C138" s="5">
         <v>2.4780000000000002</v>
       </c>
-      <c r="D137" s="5">
+      <c r="D138" s="5">
         <f t="shared" si="33"/>
         <v>0.11650000000000005</v>
       </c>
-      <c r="E137" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F137" s="5">
+      <c r="E138" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F138" s="5">
         <f t="shared" si="34"/>
         <v>2.4810000000000003</v>
       </c>
-      <c r="G137" s="5">
+      <c r="G138" s="5">
         <f t="shared" si="35"/>
         <v>2.242</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
-      <c r="A138" t="s">
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
         <v>138</v>
       </c>
-      <c r="B138" s="5">
+      <c r="B139" s="5">
         <v>2.625</v>
       </c>
-      <c r="C138" s="5">
+      <c r="C139" s="5">
         <v>2.8780000000000001</v>
       </c>
-      <c r="D138" s="5">
+      <c r="D139" s="5">
         <f t="shared" si="33"/>
         <v>0.12650000000000006</v>
       </c>
-      <c r="E138" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F138" s="5">
+      <c r="E139" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F139" s="5">
         <f t="shared" si="34"/>
         <v>2.8810000000000002</v>
       </c>
-      <c r="G138" s="5">
+      <c r="G139" s="5">
         <f t="shared" si="35"/>
         <v>2.6219999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
-      <c r="A139" t="s">
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
         <v>139</v>
       </c>
-      <c r="B139" s="5">
+      <c r="B140" s="5">
         <v>3.5550000000000002</v>
       </c>
-      <c r="C139" s="5">
+      <c r="C140" s="5">
         <v>3.7850000000000001</v>
       </c>
-      <c r="D139" s="5">
+      <c r="D140" s="5">
         <f t="shared" si="33"/>
         <v>0.11499999999999999</v>
       </c>
-      <c r="E139" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F139" s="5">
+      <c r="E140" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F140" s="5">
         <f t="shared" si="34"/>
         <v>3.7880000000000003</v>
       </c>
-      <c r="G139" s="5">
+      <c r="G140" s="5">
         <f t="shared" si="35"/>
         <v>3.552</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
-      <c r="A140" t="s">
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
         <v>140</v>
       </c>
-      <c r="B140" s="5">
+      <c r="B141" s="5">
         <v>4.9800000000000004</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C141" s="5">
         <v>5.24</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D141" s="5">
         <f t="shared" si="33"/>
         <v>0.12999999999999989</v>
       </c>
-      <c r="E140" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F140" s="5">
+      <c r="E141" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F141" s="5">
         <f t="shared" si="34"/>
         <v>5.2430000000000003</v>
       </c>
-      <c r="G140" s="5">
+      <c r="G141" s="5">
         <f t="shared" si="35"/>
         <v>4.9770000000000003</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
-      <c r="A141" t="s">
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
         <v>141</v>
       </c>
-      <c r="B141" s="5">
+      <c r="B142" s="5">
         <v>7.3979999999999997</v>
       </c>
-      <c r="C141" s="5">
+      <c r="C142" s="5">
         <v>7.508</v>
       </c>
-      <c r="D141" s="5">
+      <c r="D142" s="5">
         <f t="shared" si="33"/>
         <v>5.500000000000016E-2</v>
       </c>
-      <c r="E141" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F141" s="5">
+      <c r="E142" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F142" s="5">
         <f t="shared" si="34"/>
         <v>7.5110000000000001</v>
       </c>
-      <c r="G141" s="5">
+      <c r="G142" s="5">
         <f t="shared" si="35"/>
         <v>7.3949999999999996</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="1" t="s">
+    <row r="145" spans="1:9">
+      <c r="A145" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H144" t="s">
+      <c r="H145" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="1"/>
-    </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="9" t="s">
+      <c r="A146" s="1"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B147" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C146" s="10" t="s">
+      <c r="C147" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D146" s="10" t="s">
+      <c r="D147" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E146" s="10" t="s">
+      <c r="E147" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="F146" s="10" t="s">
+      <c r="F147" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G146" s="10" t="s">
+      <c r="G147" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H146" s="10" t="s">
+      <c r="H147" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I146" s="11" t="s">
+      <c r="I147" s="11" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" t="s">
-        <v>143</v>
-      </c>
-      <c r="B147" s="5">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="C147" s="5">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="D147" s="5">
-        <f t="shared" ref="D147" si="36">(C147-B147)/2</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="E147" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F147" s="5">
-        <f t="shared" ref="F147" si="37">C147+E147</f>
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="G147" s="5">
-        <f t="shared" ref="G147" si="38">B147-E147</f>
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="H147" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B148" s="5">
-        <v>0.56399999999999995</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="C148" s="5">
-        <v>0.58399999999999996</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="D148" s="5">
-        <f t="shared" ref="D148" si="39">(C148-B148)/2</f>
+        <f t="shared" ref="D148" si="36">(C148-B148)/2</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="E148" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F148" s="5">
-        <f t="shared" ref="F148" si="40">C148+E148</f>
-        <v>0.58699999999999997</v>
+        <f t="shared" ref="F148" si="37">C148+E148</f>
+        <v>0.56100000000000005</v>
       </c>
       <c r="G148" s="5">
-        <f t="shared" ref="G148" si="41">B148-E148</f>
-        <v>0.56099999999999994</v>
+        <f t="shared" ref="G148" si="38">B148-E148</f>
+        <v>0.53500000000000003</v>
       </c>
       <c r="H148" t="s">
         <v>158</v>
@@ -5156,28 +5162,28 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B149" s="5">
-        <v>0.71</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="C149" s="5">
-        <v>0.73599999999999999</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="D149" s="5">
-        <f t="shared" ref="D149" si="42">(C149-B149)/2</f>
-        <v>1.3000000000000012E-2</v>
+        <f t="shared" ref="D149" si="39">(C149-B149)/2</f>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="E149" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F149" s="5">
-        <f t="shared" ref="F149" si="43">C149+E149</f>
-        <v>0.73899999999999999</v>
+        <f t="shared" ref="F149" si="40">C149+E149</f>
+        <v>0.58699999999999997</v>
       </c>
       <c r="G149" s="5">
-        <f t="shared" ref="G149" si="44">B149-E149</f>
-        <v>0.70699999999999996</v>
+        <f t="shared" ref="G149" si="41">B149-E149</f>
+        <v>0.56099999999999994</v>
       </c>
       <c r="H149" t="s">
         <v>158</v>
@@ -5185,28 +5191,28 @@
     </row>
     <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B150" s="5">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="C150" s="5">
-        <v>0.76600000000000001</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="D150" s="5">
-        <f t="shared" ref="D150:D153" si="45">(C150-B150)/2</f>
+        <f t="shared" ref="D150" si="42">(C150-B150)/2</f>
         <v>1.3000000000000012E-2</v>
       </c>
       <c r="E150" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F150" s="5">
-        <f t="shared" ref="F150" si="46">C150+E150</f>
-        <v>0.76900000000000002</v>
+        <f t="shared" ref="F150" si="43">C150+E150</f>
+        <v>0.73899999999999999</v>
       </c>
       <c r="G150" s="5">
-        <f t="shared" ref="G150" si="47">B150-E150</f>
-        <v>0.73699999999999999</v>
+        <f t="shared" ref="G150" si="44">B150-E150</f>
+        <v>0.70699999999999996</v>
       </c>
       <c r="H150" t="s">
         <v>158</v>
@@ -5214,42 +5220,42 @@
     </row>
     <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B151" s="5">
-        <v>0.86399999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="C151" s="5">
-        <v>0.89</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="D151" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="D151:D154" si="45">(C151-B151)/2</f>
         <v>1.3000000000000012E-2</v>
       </c>
       <c r="E151" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F151" s="5">
-        <f t="shared" ref="F151" si="48">C151+E151</f>
-        <v>0.89300000000000002</v>
+        <f t="shared" ref="F151" si="46">C151+E151</f>
+        <v>0.76900000000000002</v>
       </c>
       <c r="G151" s="5">
-        <f t="shared" ref="G151" si="49">B151-E151</f>
-        <v>0.86099999999999999</v>
+        <f t="shared" ref="G151" si="47">B151-E151</f>
+        <v>0.73699999999999999</v>
       </c>
       <c r="H151" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B152" s="5">
-        <v>0.89400000000000002</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="C152" s="5">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="D152" s="5">
         <f t="shared" si="45"/>
@@ -5259,577 +5265,580 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F152" s="5">
-        <f t="shared" ref="F152" si="50">C152+E152</f>
-        <v>0.92300000000000004</v>
+        <f t="shared" ref="F152" si="48">C152+E152</f>
+        <v>0.89300000000000002</v>
       </c>
       <c r="G152" s="5">
-        <f t="shared" ref="G152" si="51">B152-E152</f>
-        <v>0.89100000000000001</v>
+        <f t="shared" ref="G152" si="49">B152-E152</f>
+        <v>0.86099999999999999</v>
       </c>
       <c r="H152" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B153" s="5">
-        <v>1.1200000000000001</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="C153" s="5">
-        <v>1.17</v>
+        <v>0.92</v>
       </c>
       <c r="D153" s="5">
         <f t="shared" si="45"/>
+        <v>1.3000000000000012E-2</v>
+      </c>
+      <c r="E153" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F153" s="5">
+        <f t="shared" ref="F153" si="50">C153+E153</f>
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="G153" s="5">
+        <f t="shared" ref="G153" si="51">B153-E153</f>
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="H153" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" t="s">
+        <v>149</v>
+      </c>
+      <c r="B154" s="5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C154" s="5">
+        <v>1.17</v>
+      </c>
+      <c r="D154" s="5">
+        <f t="shared" si="45"/>
         <v>2.4999999999999911E-2</v>
       </c>
-      <c r="E153" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F153" s="5">
-        <f t="shared" ref="F153" si="52">C153+E153</f>
+      <c r="E154" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F154" s="5">
+        <f t="shared" ref="F154" si="52">C154+E154</f>
         <v>1.1729999999999998</v>
       </c>
-      <c r="G153" s="5">
-        <f t="shared" ref="G153" si="53">B153-E153</f>
+      <c r="G154" s="5">
+        <f t="shared" ref="G154" si="53">B154-E154</f>
         <v>1.1170000000000002</v>
       </c>
-      <c r="H153" t="s">
+      <c r="H154" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="1" t="s">
+    <row r="157" spans="1:9">
+      <c r="A157" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H156" t="s">
+      <c r="H157" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="1"/>
-    </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="9" t="s">
+      <c r="A158" s="1"/>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B159" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C158" s="10" t="s">
+      <c r="C159" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D158" s="10" t="s">
+      <c r="D159" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E158" s="10" t="s">
+      <c r="E159" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="F158" s="10" t="s">
+      <c r="F159" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G158" s="10" t="s">
+      <c r="G159" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H158" s="10" t="s">
+      <c r="H159" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I158" s="11" t="s">
+      <c r="I159" s="11" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
-      <c r="A159" t="s">
-        <v>163</v>
-      </c>
-      <c r="B159" s="5">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="C159" s="5">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="D159" s="5">
-        <f t="shared" ref="D159" si="54">(C159-B159)/2</f>
-        <v>9.000000000000008E-3</v>
-      </c>
-      <c r="E159" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F159" s="5">
-        <f t="shared" ref="F159" si="55">C159+E159</f>
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="G159" s="5">
-        <f t="shared" ref="G159" si="56">B159-E159</f>
-        <v>0.9</v>
-      </c>
-      <c r="H159" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B160" s="5">
-        <v>1.1299999999999999</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="C160" s="5">
-        <v>1.17</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="D160" s="5">
-        <f t="shared" ref="D160" si="57">(C160-B160)/2</f>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" ref="D160" si="54">(C160-B160)/2</f>
+        <v>9.000000000000008E-3</v>
       </c>
       <c r="E160" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F160" s="5">
-        <f t="shared" ref="F160" si="58">C160+E160</f>
-        <v>1.1729999999999998</v>
+        <f t="shared" ref="F160" si="55">C160+E160</f>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G160" s="5">
-        <f t="shared" ref="G160" si="59">B160-E160</f>
-        <v>1.127</v>
+        <f t="shared" ref="G160" si="56">B160-E160</f>
+        <v>0.9</v>
       </c>
       <c r="H160" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B161" s="5">
-        <v>1.3</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="C161" s="5">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="D161" s="5">
-        <f t="shared" ref="D161" si="60">(C161-B161)/2</f>
+        <f t="shared" ref="D161" si="57">(C161-B161)/2</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="E161" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F161" s="5">
-        <f t="shared" ref="F161" si="61">C161+E161</f>
-        <v>1.343</v>
+        <f t="shared" ref="F161" si="58">C161+E161</f>
+        <v>1.1729999999999998</v>
       </c>
       <c r="G161" s="5">
-        <f t="shared" ref="G161" si="62">B161-E161</f>
-        <v>1.2970000000000002</v>
+        <f t="shared" ref="G161" si="59">B161-E161</f>
+        <v>1.127</v>
       </c>
       <c r="H161" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B162" s="5">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="C162" s="5">
-        <v>1.64</v>
+        <v>1.34</v>
       </c>
       <c r="D162" s="5">
-        <f t="shared" ref="D162" si="63">(C162-B162)/2</f>
-        <v>1.9999999999999907E-2</v>
+        <f t="shared" ref="D162" si="60">(C162-B162)/2</f>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="E162" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F162" s="5">
-        <f t="shared" ref="F162" si="64">C162+E162</f>
-        <v>1.6429999999999998</v>
+        <f t="shared" ref="F162" si="61">C162+E162</f>
+        <v>1.343</v>
       </c>
       <c r="G162" s="5">
-        <f t="shared" ref="G162" si="65">B162-E162</f>
-        <v>1.5970000000000002</v>
+        <f t="shared" ref="G162" si="62">B162-E162</f>
+        <v>1.2970000000000002</v>
       </c>
       <c r="H162" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="s">
+        <v>169</v>
+      </c>
+      <c r="B163" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="C163" s="5">
+        <v>1.64</v>
+      </c>
+      <c r="D163" s="5">
+        <f t="shared" ref="D163" si="63">(C163-B163)/2</f>
+        <v>1.9999999999999907E-2</v>
+      </c>
+      <c r="E163" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F163" s="5">
+        <f t="shared" ref="F163" si="64">C163+E163</f>
+        <v>1.6429999999999998</v>
+      </c>
+      <c r="G163" s="5">
+        <f t="shared" ref="G163" si="65">B163-E163</f>
+        <v>1.5970000000000002</v>
+      </c>
+      <c r="H163" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" t="s">
         <v>171</v>
       </c>
-      <c r="B163" s="5">
+      <c r="B164" s="5">
         <v>2</v>
       </c>
-      <c r="C163" s="5">
+      <c r="C164" s="5">
         <v>2.04</v>
       </c>
-      <c r="D163" s="5">
-        <f t="shared" ref="D163" si="66">(C163-B163)/2</f>
+      <c r="D164" s="5">
+        <f t="shared" ref="D164" si="66">(C164-B164)/2</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="E163" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F163" s="5">
-        <f t="shared" ref="F163" si="67">C163+E163</f>
+      <c r="E164" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F164" s="5">
+        <f t="shared" ref="F164" si="67">C164+E164</f>
         <v>2.0430000000000001</v>
       </c>
-      <c r="G163" s="5">
-        <f t="shared" ref="G163" si="68">B163-E163</f>
+      <c r="G164" s="5">
+        <f t="shared" ref="G164" si="68">B164-E164</f>
         <v>1.9970000000000001</v>
       </c>
-      <c r="H163" t="s">
+      <c r="H164" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
-      <c r="A166" s="1" t="s">
+    <row r="167" spans="1:9">
+      <c r="A167" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
-      <c r="A167" s="1"/>
-    </row>
     <row r="168" spans="1:9">
-      <c r="A168" s="9" t="s">
+      <c r="A168" s="1"/>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="B169" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C168" s="10" t="s">
+      <c r="C169" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D168" s="10" t="s">
+      <c r="D169" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E168" s="10" t="s">
+      <c r="E169" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="F168" s="10" t="s">
+      <c r="F169" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G168" s="10" t="s">
+      <c r="G169" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H168" s="10" t="s">
+      <c r="H169" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I168" s="11" t="s">
+      <c r="I169" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
-      <c r="A169" s="1" t="s">
+    <row r="170" spans="1:9">
+      <c r="A170" s="1" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
-      <c r="A171" t="s">
-        <v>194</v>
-      </c>
-      <c r="B171" s="5">
-        <v>1.145</v>
-      </c>
-      <c r="C171" s="5">
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="D171" s="5">
-        <f t="shared" ref="D171" si="69">(C171-B171)/2</f>
-        <v>5.4999999999999938E-2</v>
-      </c>
-      <c r="E171" s="5">
-        <v>2E-3</v>
-      </c>
-      <c r="F171" s="5">
-        <f t="shared" ref="F171" si="70">C171+E171</f>
-        <v>1.2569999999999999</v>
-      </c>
-      <c r="G171" s="5">
-        <f t="shared" ref="G171" si="71">B171-E171</f>
-        <v>1.143</v>
-      </c>
-      <c r="H171" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B172" s="5">
-        <v>1.52</v>
+        <v>1.145</v>
       </c>
       <c r="C172" s="5">
-        <v>1.645</v>
+        <v>1.2549999999999999</v>
       </c>
       <c r="D172" s="5">
-        <f t="shared" ref="D172" si="72">(C172-B172)/2</f>
-        <v>6.25E-2</v>
+        <f t="shared" ref="D172" si="69">(C172-B172)/2</f>
+        <v>5.4999999999999938E-2</v>
       </c>
       <c r="E172" s="5">
         <v>2E-3</v>
       </c>
       <c r="F172" s="5">
-        <f t="shared" ref="F172" si="73">C172+E172</f>
-        <v>1.647</v>
+        <f t="shared" ref="F172" si="70">C172+E172</f>
+        <v>1.2569999999999999</v>
       </c>
       <c r="G172" s="5">
-        <f t="shared" ref="G172" si="74">B172-E172</f>
-        <v>1.518</v>
+        <f t="shared" ref="G172" si="71">B172-E172</f>
+        <v>1.143</v>
+      </c>
+      <c r="H172" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B173" s="5">
         <v>1.52</v>
       </c>
       <c r="C173" s="5">
-        <v>1.6</v>
+        <v>1.645</v>
       </c>
       <c r="D173" s="5">
-        <f t="shared" ref="D173" si="75">(C173-B173)/2</f>
-        <v>4.0000000000000036E-2</v>
+        <f t="shared" ref="D173" si="72">(C173-B173)/2</f>
+        <v>6.25E-2</v>
       </c>
       <c r="E173" s="5">
         <v>2E-3</v>
       </c>
       <c r="F173" s="5">
-        <f t="shared" ref="F173" si="76">C173+E173</f>
-        <v>1.6020000000000001</v>
+        <f t="shared" ref="F173" si="73">C173+E173</f>
+        <v>1.647</v>
       </c>
       <c r="G173" s="5">
-        <f t="shared" ref="G173" si="77">B173-E173</f>
+        <f t="shared" ref="G173" si="74">B173-E173</f>
         <v>1.518</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B174" s="5">
-        <v>2.1520000000000001</v>
+        <v>1.52</v>
       </c>
       <c r="C174" s="5">
-        <v>2.2770000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="D174" s="5">
-        <f t="shared" ref="D174" si="78">(C174-B174)/2</f>
-        <v>6.25E-2</v>
+        <f t="shared" ref="D174" si="75">(C174-B174)/2</f>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="E174" s="5">
         <v>2E-3</v>
       </c>
       <c r="F174" s="5">
-        <f t="shared" ref="F174" si="79">C174+E174</f>
-        <v>2.2789999999999999</v>
+        <f t="shared" ref="F174" si="76">C174+E174</f>
+        <v>1.6020000000000001</v>
       </c>
       <c r="G174" s="5">
-        <f t="shared" ref="G174" si="80">B174-E174</f>
-        <v>2.1500000000000004</v>
+        <f t="shared" ref="G174" si="77">B174-E174</f>
+        <v>1.518</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B175" s="5">
         <v>2.1520000000000001</v>
       </c>
       <c r="C175" s="5">
-        <v>2.23</v>
+        <v>2.2770000000000001</v>
       </c>
       <c r="D175" s="5">
-        <f t="shared" ref="D175" si="81">(C175-B175)/2</f>
-        <v>3.8999999999999924E-2</v>
+        <f t="shared" ref="D175" si="78">(C175-B175)/2</f>
+        <v>6.25E-2</v>
       </c>
       <c r="E175" s="5">
         <v>2E-3</v>
       </c>
       <c r="F175" s="5">
-        <f t="shared" ref="F175" si="82">C175+E175</f>
-        <v>2.2319999999999998</v>
+        <f t="shared" ref="F175" si="79">C175+E175</f>
+        <v>2.2789999999999999</v>
       </c>
       <c r="G175" s="5">
-        <f t="shared" ref="G175" si="83">B175-E175</f>
+        <f t="shared" ref="G175" si="80">B175-E175</f>
         <v>2.1500000000000004</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B176" s="5">
-        <v>2.56</v>
+        <v>2.1520000000000001</v>
       </c>
       <c r="C176" s="5">
-        <v>2.6379999999999999</v>
+        <v>2.23</v>
       </c>
       <c r="D176" s="5">
-        <f t="shared" ref="D176" si="84">(C176-B176)/2</f>
+        <f t="shared" ref="D176" si="81">(C176-B176)/2</f>
         <v>3.8999999999999924E-2</v>
       </c>
       <c r="E176" s="5">
         <v>2E-3</v>
       </c>
       <c r="F176" s="5">
-        <f t="shared" ref="F176" si="85">C176+E176</f>
-        <v>2.6399999999999997</v>
+        <f t="shared" ref="F176" si="82">C176+E176</f>
+        <v>2.2319999999999998</v>
       </c>
       <c r="G176" s="5">
-        <f t="shared" ref="G176" si="86">B176-E176</f>
-        <v>2.5580000000000003</v>
-      </c>
-      <c r="H176" t="s">
-        <v>176</v>
-      </c>
-      <c r="I176" s="6" t="s">
-        <v>178</v>
+        <f t="shared" ref="G176" si="83">B176-E176</f>
+        <v>2.1500000000000004</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B177" s="5">
-        <v>3</v>
+        <v>2.56</v>
       </c>
       <c r="C177" s="5">
-        <v>3.125</v>
+        <v>2.6379999999999999</v>
       </c>
       <c r="D177" s="5">
-        <f t="shared" ref="D177:D186" si="87">(C177-B177)/2</f>
-        <v>6.25E-2</v>
+        <f t="shared" ref="D177" si="84">(C177-B177)/2</f>
+        <v>3.8999999999999924E-2</v>
       </c>
       <c r="E177" s="5">
         <v>2E-3</v>
       </c>
       <c r="F177" s="5">
-        <f t="shared" ref="F177:F186" si="88">C177+E177</f>
-        <v>3.1269999999999998</v>
+        <f t="shared" ref="F177" si="85">C177+E177</f>
+        <v>2.6399999999999997</v>
       </c>
       <c r="G177" s="5">
-        <f t="shared" ref="G177:G186" si="89">B177-E177</f>
-        <v>2.9980000000000002</v>
+        <f t="shared" ref="G177" si="86">B177-E177</f>
+        <v>2.5580000000000003</v>
+      </c>
+      <c r="H177" t="s">
+        <v>176</v>
+      </c>
+      <c r="I177" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B178" s="5">
         <v>3</v>
       </c>
       <c r="C178" s="5">
+        <v>3.125</v>
+      </c>
+      <c r="D178" s="5">
+        <f t="shared" ref="D178:D187" si="87">(C178-B178)/2</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E178" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F178" s="5">
+        <f t="shared" ref="F178:F187" si="88">C178+E178</f>
+        <v>3.1269999999999998</v>
+      </c>
+      <c r="G178" s="5">
+        <f t="shared" ref="G178:G187" si="89">B178-E178</f>
+        <v>2.9980000000000002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" t="s">
+        <v>201</v>
+      </c>
+      <c r="B179" s="5">
+        <v>3</v>
+      </c>
+      <c r="C179" s="5">
         <v>3.0979999999999999</v>
       </c>
-      <c r="D178" s="5">
+      <c r="D179" s="5">
         <f t="shared" si="87"/>
         <v>4.8999999999999932E-2</v>
       </c>
-      <c r="E178" s="5">
-        <v>2E-3</v>
-      </c>
-      <c r="F178" s="5">
+      <c r="E179" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F179" s="5">
         <f t="shared" si="88"/>
         <v>3.0999999999999996</v>
       </c>
-      <c r="G178" s="5">
+      <c r="G179" s="5">
         <f t="shared" si="89"/>
         <v>2.9980000000000002</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
-      <c r="A179" t="s">
+    <row r="180" spans="1:9">
+      <c r="A180" t="s">
         <v>202</v>
       </c>
-      <c r="B179" s="5">
+      <c r="B180" s="5">
         <v>3.9</v>
       </c>
-      <c r="C179" s="5">
+      <c r="C180" s="5">
         <v>4.024</v>
       </c>
-      <c r="D179" s="5">
+      <c r="D180" s="5">
         <f t="shared" si="87"/>
         <v>6.2000000000000055E-2</v>
       </c>
-      <c r="E179" s="5">
-        <v>2E-3</v>
-      </c>
-      <c r="F179" s="5">
+      <c r="E180" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F180" s="5">
         <f t="shared" si="88"/>
         <v>4.0259999999999998</v>
       </c>
-      <c r="G179" s="5">
+      <c r="G180" s="5">
         <f t="shared" si="89"/>
         <v>3.8980000000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
-      <c r="A180" t="s">
+    <row r="181" spans="1:9">
+      <c r="A181" t="s">
         <v>203</v>
       </c>
-      <c r="B180" s="5">
+      <c r="B181" s="5">
         <v>4.3734999999999999</v>
       </c>
-      <c r="C180" s="5">
+      <c r="C181" s="5">
         <v>4.5</v>
       </c>
-      <c r="D180" s="5">
+      <c r="D181" s="5">
         <f t="shared" si="87"/>
         <v>6.3250000000000028E-2</v>
       </c>
-      <c r="E180" s="5">
-        <v>2E-3</v>
-      </c>
-      <c r="F180" s="5">
+      <c r="E181" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F181" s="5">
         <f t="shared" si="88"/>
         <v>4.5019999999999998</v>
       </c>
-      <c r="G180" s="5">
+      <c r="G181" s="5">
         <f t="shared" si="89"/>
         <v>4.3715000000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
-      <c r="A181" t="s">
-        <v>204</v>
-      </c>
-      <c r="B181" s="5">
-        <v>5</v>
-      </c>
-      <c r="C181" s="5">
-        <v>5.15</v>
-      </c>
-      <c r="D181" s="5">
-        <f t="shared" si="87"/>
-        <v>7.5000000000000178E-2</v>
-      </c>
-      <c r="E181" s="5">
-        <v>2E-3</v>
-      </c>
-      <c r="F181" s="5">
-        <f t="shared" si="88"/>
-        <v>5.1520000000000001</v>
-      </c>
-      <c r="G181" s="5">
-        <f t="shared" si="89"/>
-        <v>4.9980000000000002</v>
-      </c>
-    </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B182" s="5">
-        <v>5.375</v>
+        <v>5</v>
       </c>
       <c r="C182" s="5">
-        <v>5.5250000000000004</v>
+        <v>5.15</v>
       </c>
       <c r="D182" s="5">
         <f t="shared" si="87"/>
@@ -5840,80 +5849,80 @@
       </c>
       <c r="F182" s="5">
         <f t="shared" si="88"/>
-        <v>5.5270000000000001</v>
+        <v>5.1520000000000001</v>
       </c>
       <c r="G182" s="5">
         <f t="shared" si="89"/>
-        <v>5.3730000000000002</v>
-      </c>
-      <c r="I182" s="6" t="s">
-        <v>180</v>
+        <v>4.9980000000000002</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B183" s="5">
-        <v>6</v>
+        <v>5.375</v>
       </c>
       <c r="C183" s="5">
-        <v>6.17</v>
+        <v>5.5250000000000004</v>
       </c>
       <c r="D183" s="5">
         <f t="shared" si="87"/>
-        <v>8.4999999999999964E-2</v>
+        <v>7.5000000000000178E-2</v>
       </c>
       <c r="E183" s="5">
         <v>2E-3</v>
       </c>
       <c r="F183" s="5">
         <f t="shared" si="88"/>
-        <v>6.1719999999999997</v>
+        <v>5.5270000000000001</v>
       </c>
       <c r="G183" s="5">
         <f t="shared" si="89"/>
-        <v>5.9980000000000002</v>
-      </c>
-      <c r="H183" t="s">
-        <v>309</v>
+        <v>5.3730000000000002</v>
+      </c>
+      <c r="I183" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B184" s="5">
-        <v>7.5179999999999998</v>
+        <v>6</v>
       </c>
       <c r="C184" s="5">
-        <v>7.7080000000000002</v>
+        <v>6.17</v>
       </c>
       <c r="D184" s="5">
         <f t="shared" si="87"/>
-        <v>9.5000000000000195E-2</v>
+        <v>8.4999999999999964E-2</v>
       </c>
       <c r="E184" s="5">
         <v>2E-3</v>
       </c>
       <c r="F184" s="5">
         <f t="shared" si="88"/>
-        <v>7.71</v>
+        <v>6.1719999999999997</v>
       </c>
       <c r="G184" s="5">
         <f t="shared" si="89"/>
-        <v>7.516</v>
+        <v>5.9980000000000002</v>
+      </c>
+      <c r="H184" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B185" s="5">
-        <v>7.8150000000000004</v>
+        <v>7.5179999999999998</v>
       </c>
       <c r="C185" s="5">
-        <v>8.0050000000000008</v>
+        <v>7.7080000000000002</v>
       </c>
       <c r="D185" s="5">
         <f t="shared" si="87"/>
@@ -5924,216 +5933,216 @@
       </c>
       <c r="F185" s="5">
         <f t="shared" si="88"/>
-        <v>8.0070000000000014</v>
+        <v>7.71</v>
       </c>
       <c r="G185" s="5">
         <f t="shared" si="89"/>
-        <v>7.8130000000000006</v>
+        <v>7.516</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B186" s="5">
-        <v>11.31</v>
+        <v>7.8150000000000004</v>
       </c>
       <c r="C186" s="5">
-        <v>11.5</v>
+        <v>8.0050000000000008</v>
       </c>
       <c r="D186" s="5">
         <f t="shared" si="87"/>
-        <v>9.4999999999999751E-2</v>
+        <v>9.5000000000000195E-2</v>
       </c>
       <c r="E186" s="5">
         <v>2E-3</v>
       </c>
       <c r="F186" s="5">
         <f t="shared" si="88"/>
-        <v>11.502000000000001</v>
+        <v>8.0070000000000014</v>
       </c>
       <c r="G186" s="5">
         <f t="shared" si="89"/>
+        <v>7.8130000000000006</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" t="s">
+        <v>209</v>
+      </c>
+      <c r="B187" s="5">
+        <v>11.31</v>
+      </c>
+      <c r="C187" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="D187" s="5">
+        <f t="shared" si="87"/>
+        <v>9.4999999999999751E-2</v>
+      </c>
+      <c r="E187" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F187" s="5">
+        <f t="shared" si="88"/>
+        <v>11.502000000000001</v>
+      </c>
+      <c r="G187" s="5">
+        <f t="shared" si="89"/>
         <v>11.308</v>
       </c>
-      <c r="I186" s="6" t="s">
+      <c r="I187" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
-      <c r="I187" s="6"/>
-    </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="1" t="s">
+      <c r="I188" s="6"/>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I188" s="6"/>
-    </row>
-    <row r="190" spans="1:9">
-      <c r="A190" t="s">
-        <v>181</v>
-      </c>
-      <c r="B190" s="5">
-        <v>1</v>
-      </c>
-      <c r="C190" s="5">
-        <v>1.143</v>
-      </c>
-      <c r="D190" s="5">
-        <f t="shared" ref="D190:D196" si="90">(C190-B190)/2</f>
-        <v>7.1500000000000008E-2</v>
-      </c>
-      <c r="E190" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F190" s="5">
-        <f t="shared" ref="F190:F196" si="91">C190+E190</f>
-        <v>1.1459999999999999</v>
-      </c>
-      <c r="G190" s="5">
-        <f t="shared" ref="G190:G196" si="92">B190-E190</f>
-        <v>0.997</v>
-      </c>
+      <c r="I189" s="6"/>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" t="s">
+        <v>181</v>
+      </c>
+      <c r="B191" s="5">
+        <v>1</v>
+      </c>
+      <c r="C191" s="5">
+        <v>1.143</v>
+      </c>
+      <c r="D191" s="5">
+        <f t="shared" ref="D191:D197" si="90">(C191-B191)/2</f>
+        <v>7.1500000000000008E-2</v>
+      </c>
+      <c r="E191" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F191" s="5">
+        <f t="shared" ref="F191:F197" si="91">C191+E191</f>
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="G191" s="5">
+        <f t="shared" ref="G191:G197" si="92">B191-E191</f>
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" t="s">
         <v>182</v>
       </c>
-      <c r="B191" s="5">
+      <c r="B192" s="5">
         <v>1.37</v>
       </c>
-      <c r="C191" s="5">
+      <c r="C192" s="5">
         <v>1.518</v>
       </c>
-      <c r="D191" s="5">
+      <c r="D192" s="5">
         <f t="shared" si="90"/>
         <v>7.3999999999999955E-2</v>
       </c>
-      <c r="E191" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F191" s="5">
+      <c r="E192" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F192" s="5">
         <f t="shared" si="91"/>
         <v>1.5209999999999999</v>
       </c>
-      <c r="G191" s="5">
+      <c r="G192" s="5">
         <f t="shared" si="92"/>
         <v>1.3670000000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
-      <c r="A192" t="s">
+    <row r="193" spans="1:9">
+      <c r="A193" t="s">
         <v>183</v>
       </c>
-      <c r="B192" s="5">
+      <c r="B193" s="5">
         <v>2</v>
       </c>
-      <c r="C192" s="5">
+      <c r="C193" s="5">
         <v>2.15</v>
       </c>
-      <c r="D192" s="5">
+      <c r="D193" s="5">
         <f t="shared" si="90"/>
         <v>7.4999999999999956E-2</v>
       </c>
-      <c r="E192" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F192" s="5">
+      <c r="E193" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F193" s="5">
         <f t="shared" si="91"/>
         <v>2.153</v>
       </c>
-      <c r="G192" s="5">
+      <c r="G193" s="5">
         <f t="shared" si="92"/>
         <v>1.9970000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
-      <c r="A193" t="s">
-        <v>227</v>
-      </c>
-      <c r="B193" s="5">
-        <v>2.375</v>
-      </c>
-      <c r="C193" s="5">
-        <v>2.5579999999999998</v>
-      </c>
-      <c r="D193" s="5">
-        <f t="shared" ref="D193" si="93">(C193-B193)/2</f>
-        <v>9.1499999999999915E-2</v>
-      </c>
-      <c r="E193" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F193" s="5">
-        <f t="shared" ref="F193" si="94">C193+E193</f>
-        <v>2.5609999999999999</v>
-      </c>
-      <c r="G193" s="5">
-        <f t="shared" ref="G193" si="95">B193-E193</f>
-        <v>2.3719999999999999</v>
-      </c>
-    </row>
     <row r="194" spans="1:9">
       <c r="A194" t="s">
+        <v>227</v>
+      </c>
+      <c r="B194" s="5">
+        <v>2.375</v>
+      </c>
+      <c r="C194" s="5">
+        <v>2.5579999999999998</v>
+      </c>
+      <c r="D194" s="5">
+        <f t="shared" ref="D194" si="93">(C194-B194)/2</f>
+        <v>9.1499999999999915E-2</v>
+      </c>
+      <c r="E194" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F194" s="5">
+        <f t="shared" ref="F194" si="94">C194+E194</f>
+        <v>2.5609999999999999</v>
+      </c>
+      <c r="G194" s="5">
+        <f t="shared" ref="G194" si="95">B194-E194</f>
+        <v>2.3719999999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" t="s">
         <v>184</v>
       </c>
-      <c r="B194" s="5">
+      <c r="B195" s="5">
         <v>2.875</v>
       </c>
-      <c r="C194" s="5">
+      <c r="C195" s="5">
         <v>2.9980000000000002</v>
       </c>
-      <c r="D194" s="5">
+      <c r="D195" s="5">
         <f t="shared" si="90"/>
         <v>6.150000000000011E-2</v>
       </c>
-      <c r="E194" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F194" s="5">
+      <c r="E195" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F195" s="5">
         <f t="shared" si="91"/>
         <v>3.0010000000000003</v>
       </c>
-      <c r="G194" s="5">
+      <c r="G195" s="5">
         <f t="shared" si="92"/>
         <v>2.8719999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
-      <c r="A195" t="s">
-        <v>185</v>
-      </c>
-      <c r="B195" s="5">
-        <v>3.7549999999999999</v>
-      </c>
-      <c r="C195" s="5">
-        <v>3.899</v>
-      </c>
-      <c r="D195" s="5">
-        <f t="shared" si="90"/>
-        <v>7.2000000000000064E-2</v>
-      </c>
-      <c r="E195" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F195" s="5">
-        <f t="shared" si="91"/>
-        <v>3.9020000000000001</v>
-      </c>
-      <c r="G195" s="5">
-        <f t="shared" si="92"/>
-        <v>3.7519999999999998</v>
-      </c>
-    </row>
     <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B196" s="5">
-        <v>4.2290000000000001</v>
+        <v>3.7549999999999999</v>
       </c>
       <c r="C196" s="5">
-        <v>4.3730000000000002</v>
+        <v>3.899</v>
       </c>
       <c r="D196" s="5">
         <f t="shared" si="90"/>
@@ -6144,240 +6153,232 @@
       </c>
       <c r="F196" s="5">
         <f t="shared" si="91"/>
-        <v>4.3760000000000003</v>
+        <v>3.9020000000000001</v>
       </c>
       <c r="G196" s="5">
         <f t="shared" si="92"/>
-        <v>4.226</v>
-      </c>
-      <c r="H196" t="s">
-        <v>187</v>
-      </c>
-      <c r="I196" s="6" t="s">
-        <v>179</v>
+        <v>3.7519999999999998</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B197" s="5">
-        <v>4.8150000000000004</v>
+        <v>4.2290000000000001</v>
       </c>
       <c r="C197" s="5">
-        <v>4.9980000000000002</v>
+        <v>4.3730000000000002</v>
       </c>
       <c r="D197" s="5">
-        <f t="shared" ref="D197" si="96">(C197-B197)/2</f>
-        <v>9.1499999999999915E-2</v>
+        <f t="shared" si="90"/>
+        <v>7.2000000000000064E-2</v>
       </c>
       <c r="E197" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F197" s="5">
-        <f t="shared" ref="F197" si="97">C197+E197</f>
-        <v>5.0010000000000003</v>
+        <f t="shared" si="91"/>
+        <v>4.3760000000000003</v>
       </c>
       <c r="G197" s="5">
-        <f t="shared" ref="G197" si="98">B197-E197</f>
-        <v>4.8120000000000003</v>
+        <f t="shared" si="92"/>
+        <v>4.226</v>
+      </c>
+      <c r="H197" t="s">
+        <v>187</v>
+      </c>
+      <c r="I197" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B198" s="5">
-        <v>5.1909999999999998</v>
+        <v>4.8150000000000004</v>
       </c>
       <c r="C198" s="5">
-        <v>5.3730000000000002</v>
+        <v>4.9980000000000002</v>
       </c>
       <c r="D198" s="5">
-        <f t="shared" ref="D198" si="99">(C198-B198)/2</f>
-        <v>9.1000000000000192E-2</v>
+        <f t="shared" ref="D198" si="96">(C198-B198)/2</f>
+        <v>9.1499999999999915E-2</v>
       </c>
       <c r="E198" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F198" s="5">
-        <f t="shared" ref="F198" si="100">C198+E198</f>
-        <v>5.3760000000000003</v>
+        <f t="shared" ref="F198" si="97">C198+E198</f>
+        <v>5.0010000000000003</v>
       </c>
       <c r="G198" s="5">
-        <f t="shared" ref="G198" si="101">B198-E198</f>
-        <v>5.1879999999999997</v>
-      </c>
-      <c r="H198" t="s">
-        <v>190</v>
-      </c>
-      <c r="I198" s="6" t="s">
-        <v>179</v>
+        <f t="shared" ref="G198" si="98">B198-E198</f>
+        <v>4.8120000000000003</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B199" s="5">
-        <v>5.7750000000000004</v>
+        <v>5.1909999999999998</v>
       </c>
       <c r="C199" s="5">
-        <v>5.9980000000000002</v>
+        <v>5.3730000000000002</v>
       </c>
       <c r="D199" s="5">
-        <f t="shared" ref="D199" si="102">(C199-B199)/2</f>
-        <v>0.11149999999999993</v>
+        <f t="shared" ref="D199" si="99">(C199-B199)/2</f>
+        <v>9.1000000000000192E-2</v>
       </c>
       <c r="E199" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F199" s="5">
-        <f t="shared" ref="F199" si="103">C199+E199</f>
-        <v>6.0010000000000003</v>
+        <f t="shared" ref="F199" si="100">C199+E199</f>
+        <v>5.3760000000000003</v>
       </c>
       <c r="G199" s="5">
-        <f t="shared" ref="G199" si="104">B199-E199</f>
-        <v>5.7720000000000002</v>
+        <f t="shared" ref="G199" si="101">B199-E199</f>
+        <v>5.1879999999999997</v>
+      </c>
+      <c r="H199" t="s">
+        <v>190</v>
+      </c>
+      <c r="I199" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" t="s">
+        <v>191</v>
+      </c>
+      <c r="B200" s="5">
+        <v>5.7750000000000004</v>
+      </c>
+      <c r="C200" s="5">
+        <v>5.9980000000000002</v>
+      </c>
+      <c r="D200" s="5">
+        <f t="shared" ref="D200" si="102">(C200-B200)/2</f>
+        <v>0.11149999999999993</v>
+      </c>
+      <c r="E200" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F200" s="5">
+        <f t="shared" ref="F200" si="103">C200+E200</f>
+        <v>6.0010000000000003</v>
+      </c>
+      <c r="G200" s="5">
+        <f t="shared" ref="G200" si="104">B200-E200</f>
+        <v>5.7720000000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" t="s">
         <v>192</v>
       </c>
-      <c r="B200" s="5">
+      <c r="B201" s="5">
         <v>7.5890000000000004</v>
       </c>
-      <c r="C200" s="5">
+      <c r="C201" s="5">
         <v>7.8129999999999997</v>
       </c>
-      <c r="D200" s="5">
-        <f t="shared" ref="D200" si="105">(C200-B200)/2</f>
+      <c r="D201" s="5">
+        <f t="shared" ref="D201" si="105">(C201-B201)/2</f>
         <v>0.11199999999999966</v>
       </c>
-      <c r="E200" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F200" s="5">
-        <f t="shared" ref="F200" si="106">C200+E200</f>
+      <c r="E201" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F201" s="5">
+        <f t="shared" ref="F201" si="106">C201+E201</f>
         <v>7.8159999999999998</v>
       </c>
-      <c r="G200" s="5">
-        <f t="shared" ref="G200" si="107">B200-E200</f>
+      <c r="G201" s="5">
+        <f t="shared" ref="G201" si="107">B201-E201</f>
         <v>7.5860000000000003</v>
       </c>
-      <c r="H200" t="s">
+      <c r="H201" t="s">
         <v>193</v>
       </c>
-      <c r="I200" s="6" t="s">
+      <c r="I201" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
-      <c r="I201" s="6"/>
-    </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="1" t="s">
+      <c r="I202" s="6"/>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I202" s="6"/>
-    </row>
-    <row r="203" spans="1:9">
       <c r="I203" s="6"/>
     </row>
     <row r="204" spans="1:9">
-      <c r="A204" t="s">
-        <v>280</v>
-      </c>
-      <c r="B204" s="5">
-        <v>1.145</v>
-      </c>
-      <c r="C204" s="5">
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="D204" s="5">
-        <f t="shared" ref="D204" si="108">(C204-B204)/2</f>
-        <v>5.4999999999999938E-2</v>
-      </c>
-      <c r="E204" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F204" s="5">
-        <f t="shared" ref="F204" si="109">C204+E204</f>
-        <v>1.2579999999999998</v>
-      </c>
-      <c r="G204" s="5">
-        <f t="shared" ref="G204" si="110">B204-E204</f>
-        <v>1.1420000000000001</v>
-      </c>
-      <c r="H204" t="s">
-        <v>281</v>
-      </c>
       <c r="I204" s="6"/>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B205" s="5">
-        <f>B172</f>
-        <v>1.52</v>
+        <v>1.145</v>
       </c>
       <c r="C205" s="5">
-        <f>C172</f>
-        <v>1.645</v>
+        <v>1.2549999999999999</v>
       </c>
       <c r="D205" s="5">
-        <f t="shared" ref="D205" si="111">(C205-B205)/2</f>
-        <v>6.25E-2</v>
+        <f t="shared" ref="D205" si="108">(C205-B205)/2</f>
+        <v>5.4999999999999938E-2</v>
       </c>
       <c r="E205" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F205" s="5">
-        <f t="shared" ref="F205" si="112">C205+E205</f>
-        <v>1.6479999999999999</v>
+        <f t="shared" ref="F205" si="109">C205+E205</f>
+        <v>1.2579999999999998</v>
       </c>
       <c r="G205" s="5">
-        <f t="shared" ref="G205" si="113">B205-E205</f>
-        <v>1.5170000000000001</v>
+        <f t="shared" ref="G205" si="110">B205-E205</f>
+        <v>1.1420000000000001</v>
       </c>
       <c r="H205" t="s">
-        <v>283</v>
-      </c>
-      <c r="I205" s="6" t="s">
-        <v>179</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="I205" s="6"/>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B206" s="5">
-        <f>B174</f>
-        <v>2.1520000000000001</v>
+        <f>B173</f>
+        <v>1.52</v>
       </c>
       <c r="C206" s="5">
-        <f>C174</f>
-        <v>2.2770000000000001</v>
+        <f>C173</f>
+        <v>1.645</v>
       </c>
       <c r="D206" s="5">
-        <f t="shared" ref="D206" si="114">(C206-B206)/2</f>
+        <f t="shared" ref="D206" si="111">(C206-B206)/2</f>
         <v>6.25E-2</v>
       </c>
       <c r="E206" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F206" s="5">
-        <f t="shared" ref="F206" si="115">C206+E206</f>
-        <v>2.2800000000000002</v>
+        <f t="shared" ref="F206" si="112">C206+E206</f>
+        <v>1.6479999999999999</v>
       </c>
       <c r="G206" s="5">
-        <f t="shared" ref="G206" si="116">B206-E206</f>
-        <v>2.149</v>
+        <f t="shared" ref="G206" si="113">B206-E206</f>
+        <v>1.5170000000000001</v>
       </c>
       <c r="H206" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I206" s="6" t="s">
         <v>179</v>
@@ -6385,33 +6386,33 @@
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B207" s="5">
-        <f>B177</f>
-        <v>3</v>
+        <f>B175</f>
+        <v>2.1520000000000001</v>
       </c>
       <c r="C207" s="5">
-        <f>C177</f>
-        <v>3.125</v>
+        <f>C175</f>
+        <v>2.2770000000000001</v>
       </c>
       <c r="D207" s="5">
-        <f t="shared" ref="D207" si="117">(C207-B207)/2</f>
+        <f t="shared" ref="D207" si="114">(C207-B207)/2</f>
         <v>6.25E-2</v>
       </c>
       <c r="E207" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F207" s="5">
-        <f t="shared" ref="F207" si="118">C207+E207</f>
-        <v>3.1280000000000001</v>
+        <f t="shared" ref="F207" si="115">C207+E207</f>
+        <v>2.2800000000000002</v>
       </c>
       <c r="G207" s="5">
-        <f t="shared" ref="G207" si="119">B207-E207</f>
-        <v>2.9969999999999999</v>
+        <f t="shared" ref="G207" si="116">B207-E207</f>
+        <v>2.149</v>
       </c>
       <c r="H207" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I207" s="6" t="s">
         <v>179</v>
@@ -6419,33 +6420,33 @@
     </row>
     <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B208" s="5">
-        <f>B179</f>
-        <v>3.9</v>
+        <f>B178</f>
+        <v>3</v>
       </c>
       <c r="C208" s="5">
-        <f>C179</f>
-        <v>4.024</v>
+        <f>C178</f>
+        <v>3.125</v>
       </c>
       <c r="D208" s="5">
-        <f t="shared" ref="D208:D209" si="120">(C208-B208)/2</f>
-        <v>6.2000000000000055E-2</v>
+        <f t="shared" ref="D208" si="117">(C208-B208)/2</f>
+        <v>6.25E-2</v>
       </c>
       <c r="E208" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F208" s="5">
-        <f t="shared" ref="F208:F209" si="121">C208+E208</f>
-        <v>4.0270000000000001</v>
+        <f t="shared" ref="F208" si="118">C208+E208</f>
+        <v>3.1280000000000001</v>
       </c>
       <c r="G208" s="5">
-        <f t="shared" ref="G208:G209" si="122">B208-E208</f>
-        <v>3.8969999999999998</v>
+        <f t="shared" ref="G208" si="119">B208-E208</f>
+        <v>2.9969999999999999</v>
       </c>
       <c r="H208" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I208" s="6" t="s">
         <v>179</v>
@@ -6453,113 +6454,113 @@
     </row>
     <row r="209" spans="1:9">
       <c r="A209" t="s">
+        <v>288</v>
+      </c>
+      <c r="B209" s="5">
+        <f>B180</f>
+        <v>3.9</v>
+      </c>
+      <c r="C209" s="5">
+        <f>C180</f>
+        <v>4.024</v>
+      </c>
+      <c r="D209" s="5">
+        <f t="shared" ref="D209:D210" si="120">(C209-B209)/2</f>
+        <v>6.2000000000000055E-2</v>
+      </c>
+      <c r="E209" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F209" s="5">
+        <f t="shared" ref="F209:F210" si="121">C209+E209</f>
+        <v>4.0270000000000001</v>
+      </c>
+      <c r="G209" s="5">
+        <f t="shared" ref="G209:G210" si="122">B209-E209</f>
+        <v>3.8969999999999998</v>
+      </c>
+      <c r="H209" t="s">
+        <v>290</v>
+      </c>
+      <c r="I209" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" t="s">
         <v>289</v>
       </c>
-      <c r="B209" s="5">
-        <f>B183</f>
+      <c r="B210" s="5">
+        <f>B184</f>
         <v>6</v>
       </c>
-      <c r="C209" s="5">
-        <f>C183</f>
+      <c r="C210" s="5">
+        <f>C184</f>
         <v>6.17</v>
       </c>
-      <c r="D209" s="5">
+      <c r="D210" s="5">
         <f t="shared" si="120"/>
         <v>8.4999999999999964E-2</v>
       </c>
-      <c r="E209" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F209" s="5">
+      <c r="E210" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F210" s="5">
         <f t="shared" si="121"/>
         <v>6.173</v>
       </c>
-      <c r="G209" s="5">
+      <c r="G210" s="5">
         <f t="shared" si="122"/>
         <v>5.9969999999999999</v>
       </c>
-      <c r="H209" t="s">
+      <c r="H210" t="s">
         <v>291</v>
       </c>
-      <c r="I209" s="6" t="s">
+      <c r="I210" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
-      <c r="I210" s="6"/>
-    </row>
     <row r="211" spans="1:9">
-      <c r="A211" s="1" t="s">
+      <c r="I211" s="6"/>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I211" s="6"/>
-    </row>
-    <row r="212" spans="1:9">
       <c r="I212" s="6"/>
     </row>
     <row r="213" spans="1:9">
-      <c r="A213" t="s">
-        <v>293</v>
-      </c>
-      <c r="B213" s="5">
-        <f>B190</f>
-        <v>1</v>
-      </c>
-      <c r="C213" s="5">
-        <f>C190</f>
-        <v>1.143</v>
-      </c>
-      <c r="D213" s="5">
-        <f t="shared" ref="D213" si="123">(C213-B213)/2</f>
-        <v>7.1500000000000008E-2</v>
-      </c>
-      <c r="E213" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F213" s="5">
-        <f t="shared" ref="F213" si="124">C213+E213</f>
-        <v>1.1459999999999999</v>
-      </c>
-      <c r="G213" s="5">
-        <f t="shared" ref="G213" si="125">B213-E213</f>
-        <v>0.997</v>
-      </c>
-      <c r="H213" t="s">
-        <v>299</v>
-      </c>
-      <c r="I213" s="6" t="s">
-        <v>179</v>
-      </c>
+      <c r="I213" s="6"/>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B214" s="5">
-        <f>B191</f>
-        <v>1.37</v>
+        <f t="shared" ref="B214:C216" si="123">B191</f>
+        <v>1</v>
       </c>
       <c r="C214" s="5">
-        <f>C191</f>
-        <v>1.518</v>
+        <f t="shared" si="123"/>
+        <v>1.143</v>
       </c>
       <c r="D214" s="5">
-        <f t="shared" ref="D214:D218" si="126">(C214-B214)/2</f>
-        <v>7.3999999999999955E-2</v>
+        <f t="shared" ref="D214" si="124">(C214-B214)/2</f>
+        <v>7.1500000000000008E-2</v>
       </c>
       <c r="E214" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F214" s="5">
-        <f t="shared" ref="F214:F218" si="127">C214+E214</f>
-        <v>1.5209999999999999</v>
+        <f t="shared" ref="F214" si="125">C214+E214</f>
+        <v>1.1459999999999999</v>
       </c>
       <c r="G214" s="5">
-        <f t="shared" ref="G214:G218" si="128">B214-E214</f>
-        <v>1.3670000000000002</v>
+        <f t="shared" ref="G214" si="126">B214-E214</f>
+        <v>0.997</v>
       </c>
       <c r="H214" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I214" s="6" t="s">
         <v>179</v>
@@ -6567,33 +6568,33 @@
     </row>
     <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B215" s="5">
-        <f>B192</f>
-        <v>2</v>
+        <f t="shared" si="123"/>
+        <v>1.37</v>
       </c>
       <c r="C215" s="5">
-        <f>C192</f>
-        <v>2.15</v>
+        <f t="shared" si="123"/>
+        <v>1.518</v>
       </c>
       <c r="D215" s="5">
-        <f t="shared" si="126"/>
-        <v>7.4999999999999956E-2</v>
+        <f t="shared" ref="D215:D219" si="127">(C215-B215)/2</f>
+        <v>7.3999999999999955E-2</v>
       </c>
       <c r="E215" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F215" s="5">
-        <f t="shared" si="127"/>
-        <v>2.153</v>
+        <f t="shared" ref="F215:F219" si="128">C215+E215</f>
+        <v>1.5209999999999999</v>
       </c>
       <c r="G215" s="5">
-        <f t="shared" si="128"/>
-        <v>1.9970000000000001</v>
+        <f t="shared" ref="G215:G219" si="129">B215-E215</f>
+        <v>1.3670000000000002</v>
       </c>
       <c r="H215" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I215" s="6" t="s">
         <v>179</v>
@@ -6601,33 +6602,33 @@
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B216" s="5">
-        <f>B194</f>
-        <v>2.875</v>
+        <f t="shared" si="123"/>
+        <v>2</v>
       </c>
       <c r="C216" s="5">
-        <f>C194</f>
-        <v>2.9980000000000002</v>
+        <f t="shared" si="123"/>
+        <v>2.15</v>
       </c>
       <c r="D216" s="5">
-        <f t="shared" si="126"/>
-        <v>6.150000000000011E-2</v>
+        <f t="shared" si="127"/>
+        <v>7.4999999999999956E-2</v>
       </c>
       <c r="E216" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F216" s="5">
-        <f t="shared" si="127"/>
-        <v>3.0010000000000003</v>
+        <f t="shared" si="128"/>
+        <v>2.153</v>
       </c>
       <c r="G216" s="5">
-        <f t="shared" si="128"/>
-        <v>2.8719999999999999</v>
+        <f t="shared" si="129"/>
+        <v>1.9970000000000001</v>
       </c>
       <c r="H216" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I216" s="6" t="s">
         <v>179</v>
@@ -6635,33 +6636,33 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B217" s="5">
         <f>B195</f>
-        <v>3.7549999999999999</v>
+        <v>2.875</v>
       </c>
       <c r="C217" s="5">
         <f>C195</f>
-        <v>3.899</v>
+        <v>2.9980000000000002</v>
       </c>
       <c r="D217" s="5">
-        <f t="shared" si="126"/>
-        <v>7.2000000000000064E-2</v>
+        <f t="shared" si="127"/>
+        <v>6.150000000000011E-2</v>
       </c>
       <c r="E217" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F217" s="5">
-        <f t="shared" si="127"/>
-        <v>3.9020000000000001</v>
+        <f t="shared" si="128"/>
+        <v>3.0010000000000003</v>
       </c>
       <c r="G217" s="5">
-        <f t="shared" si="128"/>
-        <v>3.7519999999999998</v>
+        <f t="shared" si="129"/>
+        <v>2.8719999999999999</v>
       </c>
       <c r="H217" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I217" s="6" t="s">
         <v>179</v>
@@ -6669,315 +6670,317 @@
     </row>
     <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B218" s="5">
-        <f>B199</f>
-        <v>5.7750000000000004</v>
+        <f>B196</f>
+        <v>3.7549999999999999</v>
       </c>
       <c r="C218" s="5">
-        <f>C199</f>
-        <v>5.9980000000000002</v>
+        <f>C196</f>
+        <v>3.899</v>
       </c>
       <c r="D218" s="5">
-        <f t="shared" si="126"/>
-        <v>0.11149999999999993</v>
+        <f t="shared" si="127"/>
+        <v>7.2000000000000064E-2</v>
       </c>
       <c r="E218" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F218" s="5">
-        <f t="shared" si="127"/>
-        <v>6.0010000000000003</v>
+        <f t="shared" si="128"/>
+        <v>3.9020000000000001</v>
       </c>
       <c r="G218" s="5">
-        <f t="shared" si="128"/>
-        <v>5.7720000000000002</v>
+        <f t="shared" si="129"/>
+        <v>3.7519999999999998</v>
       </c>
       <c r="H218" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I218" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="219" spans="1:9">
-      <c r="I219" s="6"/>
-    </row>
-    <row r="221" spans="1:9">
-      <c r="A221" s="1" t="s">
+      <c r="A219" t="s">
+        <v>298</v>
+      </c>
+      <c r="B219" s="5">
+        <f>B200</f>
+        <v>5.7750000000000004</v>
+      </c>
+      <c r="C219" s="5">
+        <f>C200</f>
+        <v>5.9980000000000002</v>
+      </c>
+      <c r="D219" s="5">
+        <f t="shared" si="127"/>
+        <v>0.11149999999999993</v>
+      </c>
+      <c r="E219" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F219" s="5">
+        <f t="shared" si="128"/>
+        <v>6.0010000000000003</v>
+      </c>
+      <c r="G219" s="5">
+        <f t="shared" si="129"/>
+        <v>5.7720000000000002</v>
+      </c>
+      <c r="H219" t="s">
+        <v>303</v>
+      </c>
+      <c r="I219" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="I220" s="6"/>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" s="1" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9">
-      <c r="A223" t="s">
-        <v>213</v>
-      </c>
-      <c r="B223" s="5">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="C223" s="5">
-        <v>1.2150000000000001</v>
-      </c>
-      <c r="D223" s="5">
-        <f t="shared" ref="D223:D230" si="129">(C223-B223)/2</f>
-        <v>3.7500000000000089E-2</v>
-      </c>
-      <c r="E223" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F223" s="5">
-        <f t="shared" ref="F223:F230" si="130">C223+E223</f>
-        <v>1.218</v>
-      </c>
-      <c r="G223" s="5">
-        <f t="shared" ref="G223:G230" si="131">B223-E223</f>
-        <v>1.137</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B224" s="5">
-        <v>1.5249999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C224" s="5">
-        <v>1.61</v>
+        <v>1.2150000000000001</v>
       </c>
       <c r="D224" s="5">
-        <f t="shared" si="129"/>
-        <v>4.2500000000000093E-2</v>
+        <f t="shared" ref="D224:D231" si="130">(C224-B224)/2</f>
+        <v>3.7500000000000089E-2</v>
       </c>
       <c r="E224" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F224" s="5">
-        <f t="shared" si="130"/>
-        <v>1.613</v>
+        <f t="shared" ref="F224:F231" si="131">C224+E224</f>
+        <v>1.218</v>
       </c>
       <c r="G224" s="5">
-        <f t="shared" si="131"/>
-        <v>1.522</v>
+        <f t="shared" ref="G224:G231" si="132">B224-E224</f>
+        <v>1.137</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B225" s="5">
         <v>1.5249999999999999</v>
       </c>
       <c r="C225" s="5">
-        <v>1.635</v>
+        <v>1.61</v>
       </c>
       <c r="D225" s="5">
-        <f t="shared" si="129"/>
-        <v>5.5000000000000049E-2</v>
+        <f t="shared" si="130"/>
+        <v>4.2500000000000093E-2</v>
       </c>
       <c r="E225" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F225" s="5">
-        <f t="shared" si="130"/>
-        <v>1.6379999999999999</v>
+        <f t="shared" si="131"/>
+        <v>1.613</v>
       </c>
       <c r="G225" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>1.522</v>
       </c>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B226" s="5">
-        <v>2.14</v>
+        <v>1.5249999999999999</v>
       </c>
       <c r="C226" s="5">
-        <v>2.2599999999999998</v>
+        <v>1.635</v>
       </c>
       <c r="D226" s="5">
-        <f t="shared" si="129"/>
-        <v>5.9999999999999831E-2</v>
+        <f t="shared" si="130"/>
+        <v>5.5000000000000049E-2</v>
       </c>
       <c r="E226" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F226" s="5">
-        <f t="shared" si="130"/>
-        <v>2.2629999999999999</v>
+        <f t="shared" si="131"/>
+        <v>1.6379999999999999</v>
       </c>
       <c r="G226" s="5">
-        <f t="shared" si="131"/>
-        <v>2.137</v>
+        <f t="shared" si="132"/>
+        <v>1.522</v>
       </c>
     </row>
     <row r="227" spans="1:9">
       <c r="A227" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B227" s="5">
-        <v>2.1749999999999998</v>
+        <v>2.14</v>
       </c>
       <c r="C227" s="5">
-        <v>2.2450000000000001</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D227" s="5">
-        <f t="shared" si="129"/>
-        <v>3.5000000000000142E-2</v>
+        <f t="shared" si="130"/>
+        <v>5.9999999999999831E-2</v>
       </c>
       <c r="E227" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F227" s="5">
-        <f t="shared" si="130"/>
-        <v>2.2480000000000002</v>
+        <f t="shared" si="131"/>
+        <v>2.2629999999999999</v>
       </c>
       <c r="G227" s="5">
-        <f t="shared" si="131"/>
-        <v>2.1719999999999997</v>
+        <f t="shared" si="132"/>
+        <v>2.137</v>
       </c>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B228" s="5">
-        <v>2.5579999999999998</v>
+        <v>2.1749999999999998</v>
       </c>
       <c r="C228" s="5">
-        <v>2.64</v>
+        <v>2.2450000000000001</v>
       </c>
       <c r="D228" s="5">
-        <f t="shared" si="129"/>
-        <v>4.1000000000000147E-2</v>
+        <f t="shared" si="130"/>
+        <v>3.5000000000000142E-2</v>
       </c>
       <c r="E228" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F228" s="5">
-        <f t="shared" si="130"/>
-        <v>2.6430000000000002</v>
+        <f t="shared" si="131"/>
+        <v>2.2480000000000002</v>
       </c>
       <c r="G228" s="5">
-        <f t="shared" si="131"/>
-        <v>2.5549999999999997</v>
+        <f t="shared" si="132"/>
+        <v>2.1719999999999997</v>
       </c>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B229" s="5">
-        <v>3</v>
+        <v>2.5579999999999998</v>
       </c>
       <c r="C229" s="5">
-        <v>3.1</v>
+        <v>2.64</v>
       </c>
       <c r="D229" s="5">
-        <f t="shared" si="129"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="130"/>
+        <v>4.1000000000000147E-2</v>
       </c>
       <c r="E229" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F229" s="5">
-        <f t="shared" si="130"/>
-        <v>3.1030000000000002</v>
+        <f t="shared" si="131"/>
+        <v>2.6430000000000002</v>
       </c>
       <c r="G229" s="5">
-        <f t="shared" si="131"/>
-        <v>2.9969999999999999</v>
+        <f t="shared" si="132"/>
+        <v>2.5549999999999997</v>
       </c>
     </row>
     <row r="230" spans="1:9">
       <c r="A230" t="s">
+        <v>219</v>
+      </c>
+      <c r="B230" s="5">
+        <v>3</v>
+      </c>
+      <c r="C230" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="D230" s="5">
+        <f t="shared" si="130"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="E230" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F230" s="5">
+        <f t="shared" si="131"/>
+        <v>3.1030000000000002</v>
+      </c>
+      <c r="G230" s="5">
+        <f t="shared" si="132"/>
+        <v>2.9969999999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" t="s">
         <v>220</v>
       </c>
-      <c r="B230" s="5">
+      <c r="B231" s="5">
         <v>3.9</v>
       </c>
-      <c r="C230" s="5">
+      <c r="C231" s="5">
         <v>4</v>
       </c>
-      <c r="D230" s="5">
-        <f t="shared" si="129"/>
+      <c r="D231" s="5">
+        <f t="shared" si="130"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="E230" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F230" s="5">
-        <f t="shared" si="130"/>
+      <c r="E231" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F231" s="5">
+        <f t="shared" si="131"/>
         <v>4.0030000000000001</v>
       </c>
-      <c r="G230" s="5">
-        <f t="shared" si="131"/>
+      <c r="G231" s="5">
+        <f t="shared" si="132"/>
         <v>3.8969999999999998</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
-      <c r="A232" s="1" t="s">
+    <row r="233" spans="1:9">
+      <c r="A233" s="1" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9">
-      <c r="A234" t="s">
-        <v>222</v>
-      </c>
-      <c r="B234" s="5">
-        <v>1.393</v>
-      </c>
-      <c r="C234" s="5">
-        <v>1.5149999999999999</v>
-      </c>
-      <c r="D234" s="5">
-        <f t="shared" ref="D234" si="132">(C234-B234)/2</f>
-        <v>6.0999999999999943E-2</v>
-      </c>
-      <c r="E234" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F234" s="5">
-        <f t="shared" ref="F234" si="133">C234+E234</f>
-        <v>1.5179999999999998</v>
-      </c>
-      <c r="G234" s="5">
-        <f t="shared" ref="G234" si="134">B234-E234</f>
-        <v>1.3900000000000001</v>
-      </c>
-      <c r="H234" t="s">
-        <v>238</v>
-      </c>
-      <c r="I234" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="235" spans="1:9">
       <c r="A235" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B235" s="5">
-        <v>2.0430000000000001</v>
+        <v>1.393</v>
       </c>
       <c r="C235" s="5">
-        <v>2.165</v>
+        <v>1.5149999999999999</v>
       </c>
       <c r="D235" s="5">
-        <f t="shared" ref="D235" si="135">(C235-B235)/2</f>
+        <f t="shared" ref="D235" si="133">(C235-B235)/2</f>
         <v>6.0999999999999943E-2</v>
       </c>
       <c r="E235" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F235" s="5">
-        <f t="shared" ref="F235" si="136">C235+E235</f>
-        <v>2.1680000000000001</v>
+        <f t="shared" ref="F235" si="134">C235+E235</f>
+        <v>1.5179999999999998</v>
       </c>
       <c r="G235" s="5">
-        <f t="shared" ref="G235" si="137">B235-E235</f>
-        <v>2.04</v>
+        <f t="shared" ref="G235" si="135">B235-E235</f>
+        <v>1.3900000000000001</v>
       </c>
       <c r="H235" t="s">
         <v>238</v>
@@ -6988,28 +6991,28 @@
     </row>
     <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B236" s="5">
-        <v>2.4260000000000002</v>
+        <v>2.0430000000000001</v>
       </c>
       <c r="C236" s="5">
-        <v>2.548</v>
+        <v>2.165</v>
       </c>
       <c r="D236" s="5">
-        <f t="shared" ref="D236:D237" si="138">(C236-B236)/2</f>
+        <f t="shared" ref="D236" si="136">(C236-B236)/2</f>
         <v>6.0999999999999943E-2</v>
       </c>
       <c r="E236" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F236" s="5">
-        <f t="shared" ref="F236:F237" si="139">C236+E236</f>
-        <v>2.5510000000000002</v>
+        <f t="shared" ref="F236" si="137">C236+E236</f>
+        <v>2.1680000000000001</v>
       </c>
       <c r="G236" s="5">
-        <f t="shared" ref="G236:G237" si="140">B236-E236</f>
-        <v>2.423</v>
+        <f t="shared" ref="G236" si="138">B236-E236</f>
+        <v>2.04</v>
       </c>
       <c r="H236" t="s">
         <v>238</v>
@@ -7020,28 +7023,28 @@
     </row>
     <row r="237" spans="1:9">
       <c r="A237" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B237" s="5">
-        <v>2.8679999999999999</v>
+        <v>2.4260000000000002</v>
       </c>
       <c r="C237" s="5">
-        <v>2.99</v>
+        <v>2.548</v>
       </c>
       <c r="D237" s="5">
-        <f t="shared" si="138"/>
-        <v>6.1000000000000165E-2</v>
+        <f t="shared" ref="D237:D238" si="139">(C237-B237)/2</f>
+        <v>6.0999999999999943E-2</v>
       </c>
       <c r="E237" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F237" s="5">
-        <f t="shared" si="139"/>
-        <v>2.9930000000000003</v>
+        <f t="shared" ref="F237:F238" si="140">C237+E237</f>
+        <v>2.5510000000000002</v>
       </c>
       <c r="G237" s="5">
-        <f t="shared" si="140"/>
-        <v>2.8649999999999998</v>
+        <f t="shared" ref="G237:G238" si="141">B237-E237</f>
+        <v>2.423</v>
       </c>
       <c r="H237" t="s">
         <v>238</v>
@@ -7052,558 +7055,590 @@
     </row>
     <row r="238" spans="1:9">
       <c r="A238" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B238" s="5">
-        <v>3.66</v>
+        <v>2.8679999999999999</v>
       </c>
       <c r="C238" s="5">
-        <v>3.89</v>
+        <v>2.99</v>
       </c>
       <c r="D238" s="5">
-        <f t="shared" ref="D238" si="141">(C238-B238)/2</f>
-        <v>0.11499999999999999</v>
+        <f t="shared" si="139"/>
+        <v>6.1000000000000165E-2</v>
       </c>
       <c r="E238" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F238" s="5">
-        <f t="shared" ref="F238" si="142">C238+E238</f>
-        <v>3.8930000000000002</v>
+        <f t="shared" si="140"/>
+        <v>2.9930000000000003</v>
       </c>
       <c r="G238" s="5">
-        <f t="shared" ref="G238" si="143">B238-E238</f>
-        <v>3.657</v>
+        <f t="shared" si="141"/>
+        <v>2.8649999999999998</v>
       </c>
       <c r="H238" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I238" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
-      <c r="A242" s="1" t="s">
+    <row r="239" spans="1:9">
+      <c r="A239" t="s">
+        <v>226</v>
+      </c>
+      <c r="B239" s="5">
+        <v>3.66</v>
+      </c>
+      <c r="C239" s="5">
+        <v>3.89</v>
+      </c>
+      <c r="D239" s="5">
+        <f t="shared" ref="D239" si="142">(C239-B239)/2</f>
+        <v>0.11499999999999999</v>
+      </c>
+      <c r="E239" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F239" s="5">
+        <f t="shared" ref="F239" si="143">C239+E239</f>
+        <v>3.8930000000000002</v>
+      </c>
+      <c r="G239" s="5">
+        <f t="shared" ref="G239" si="144">B239-E239</f>
+        <v>3.657</v>
+      </c>
+      <c r="H239" t="s">
+        <v>239</v>
+      </c>
+      <c r="I239" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
-      <c r="A243" s="1"/>
-    </row>
     <row r="244" spans="1:9">
-      <c r="A244" s="9" t="s">
+      <c r="A244" s="1"/>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B244" s="10" t="s">
+      <c r="B245" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C244" s="10" t="s">
+      <c r="C245" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D244" s="10" t="s">
+      <c r="D245" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E244" s="10" t="s">
+      <c r="E245" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="F244" s="10" t="s">
+      <c r="F245" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G244" s="10" t="s">
+      <c r="G245" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H244" s="10" t="s">
+      <c r="H245" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I244" s="11" t="s">
+      <c r="I245" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
-      <c r="A245" s="1" t="s">
+    <row r="246" spans="1:9">
+      <c r="A246" s="1" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9">
-      <c r="A247" t="s">
-        <v>241</v>
-      </c>
-      <c r="B247" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="C247" s="5">
-        <v>1</v>
-      </c>
-      <c r="D247" s="5">
-        <f t="shared" ref="D247" si="144">(C247-B247)/2</f>
-        <v>2.5000000000000022E-2</v>
-      </c>
-      <c r="E247" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F247" s="5">
-        <f t="shared" ref="F247" si="145">C247+E247</f>
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="G247" s="5">
-        <f t="shared" ref="G247" si="146">B247-E247</f>
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="H247" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="248" spans="1:9">
       <c r="A248" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B248" s="5">
-        <v>1.1399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="C248" s="5">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="D248" s="5">
-        <f t="shared" ref="D248" si="147">(C248-B248)/2</f>
-        <v>3.5000000000000031E-2</v>
+        <f t="shared" ref="D248" si="145">(C248-B248)/2</f>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="E248" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F248" s="5">
-        <f t="shared" ref="F248" si="148">C248+E248</f>
-        <v>1.2129999999999999</v>
+        <f t="shared" ref="F248" si="146">C248+E248</f>
+        <v>1.0029999999999999</v>
       </c>
       <c r="G248" s="5">
-        <f t="shared" ref="G248" si="149">B248-E248</f>
-        <v>1.137</v>
+        <f t="shared" ref="G248" si="147">B248-E248</f>
+        <v>0.94699999999999995</v>
       </c>
       <c r="H248" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B249" s="5">
-        <v>1.52</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C249" s="5">
-        <v>1.63</v>
+        <v>1.21</v>
       </c>
       <c r="D249" s="5">
-        <f t="shared" ref="D249" si="150">(C249-B249)/2</f>
-        <v>5.4999999999999938E-2</v>
+        <f t="shared" ref="D249" si="148">(C249-B249)/2</f>
+        <v>3.5000000000000031E-2</v>
       </c>
       <c r="E249" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F249" s="5">
-        <f t="shared" ref="F249" si="151">C249+E249</f>
-        <v>1.6329999999999998</v>
+        <f t="shared" ref="F249" si="149">C249+E249</f>
+        <v>1.2129999999999999</v>
       </c>
       <c r="G249" s="5">
-        <f t="shared" ref="G249" si="152">B249-E249</f>
-        <v>1.5170000000000001</v>
+        <f t="shared" ref="G249" si="150">B249-E249</f>
+        <v>1.137</v>
       </c>
       <c r="H249" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" t="s">
-        <v>242</v>
-      </c>
-      <c r="I250" t="s">
-        <v>256</v>
+        <v>237</v>
+      </c>
+      <c r="B250" s="5">
+        <v>1.52</v>
+      </c>
+      <c r="C250" s="5">
+        <v>1.63</v>
+      </c>
+      <c r="D250" s="5">
+        <f t="shared" ref="D250" si="151">(C250-B250)/2</f>
+        <v>5.4999999999999938E-2</v>
+      </c>
+      <c r="E250" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F250" s="5">
+        <f t="shared" ref="F250" si="152">C250+E250</f>
+        <v>1.6329999999999998</v>
+      </c>
+      <c r="G250" s="5">
+        <f t="shared" ref="G250" si="153">B250-E250</f>
+        <v>1.5170000000000001</v>
+      </c>
+      <c r="H250" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="251" spans="1:9">
       <c r="A251" t="s">
-        <v>243</v>
-      </c>
-      <c r="B251" s="5">
-        <v>2.14</v>
-      </c>
-      <c r="C251" s="5">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="D251" s="5">
-        <f t="shared" ref="D251" si="153">(C251-B251)/2</f>
-        <v>5.9999999999999831E-2</v>
-      </c>
-      <c r="E251" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F251" s="5">
-        <f t="shared" ref="F251" si="154">C251+E251</f>
-        <v>2.2629999999999999</v>
-      </c>
-      <c r="G251" s="5">
-        <f t="shared" ref="G251" si="155">B251-E251</f>
-        <v>2.137</v>
-      </c>
-      <c r="H251" t="s">
-        <v>255</v>
+        <v>242</v>
+      </c>
+      <c r="I251" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="252" spans="1:9">
       <c r="A252" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B252" s="5">
-        <v>2.56</v>
+        <v>2.14</v>
       </c>
       <c r="C252" s="5">
-        <v>2.63</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D252" s="5">
-        <f t="shared" ref="D252" si="156">(C252-B252)/2</f>
-        <v>3.499999999999992E-2</v>
+        <f t="shared" ref="D252" si="154">(C252-B252)/2</f>
+        <v>5.9999999999999831E-2</v>
       </c>
       <c r="E252" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F252" s="5">
-        <f t="shared" ref="F252" si="157">C252+E252</f>
-        <v>2.633</v>
+        <f t="shared" ref="F252" si="155">C252+E252</f>
+        <v>2.2629999999999999</v>
       </c>
       <c r="G252" s="5">
-        <f t="shared" ref="G252" si="158">B252-E252</f>
-        <v>2.5569999999999999</v>
+        <f t="shared" ref="G252" si="156">B252-E252</f>
+        <v>2.137</v>
       </c>
       <c r="H252" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="253" spans="1:9">
       <c r="A253" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B253" s="5">
-        <v>3</v>
+        <v>2.56</v>
       </c>
       <c r="C253" s="5">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="D253" s="5">
-        <f t="shared" ref="D253" si="159">(C253-B253)/2</f>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" ref="D253" si="157">(C253-B253)/2</f>
+        <v>3.499999999999992E-2</v>
       </c>
       <c r="E253" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F253" s="5">
-        <f t="shared" ref="F253" si="160">C253+E253</f>
-        <v>3.1030000000000002</v>
+        <f t="shared" ref="F253" si="158">C253+E253</f>
+        <v>2.633</v>
       </c>
       <c r="G253" s="5">
-        <f t="shared" ref="G253" si="161">B253-E253</f>
-        <v>2.9969999999999999</v>
+        <f t="shared" ref="G253" si="159">B253-E253</f>
+        <v>2.5569999999999999</v>
       </c>
       <c r="H253" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="254" spans="1:9">
       <c r="A254" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B254" s="5">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="C254" s="5">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D254" s="5">
-        <f t="shared" ref="D254" si="162">(C254-B254)/2</f>
+        <f t="shared" ref="D254" si="160">(C254-B254)/2</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E254" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F254" s="5">
-        <f t="shared" ref="F254" si="163">C254+E254</f>
-        <v>4.0030000000000001</v>
+        <f t="shared" ref="F254" si="161">C254+E254</f>
+        <v>3.1030000000000002</v>
       </c>
       <c r="G254" s="5">
-        <f t="shared" ref="G254" si="164">B254-E254</f>
-        <v>3.8969999999999998</v>
+        <f t="shared" ref="G254" si="162">B254-E254</f>
+        <v>2.9969999999999999</v>
       </c>
       <c r="H254" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="255" spans="1:9">
       <c r="A255" t="s">
+        <v>246</v>
+      </c>
+      <c r="B255" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="C255" s="5">
+        <v>4</v>
+      </c>
+      <c r="D255" s="5">
+        <f t="shared" ref="D255" si="163">(C255-B255)/2</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="E255" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F255" s="5">
+        <f t="shared" ref="F255" si="164">C255+E255</f>
+        <v>4.0030000000000001</v>
+      </c>
+      <c r="G255" s="5">
+        <f t="shared" ref="G255" si="165">B255-E255</f>
+        <v>3.8969999999999998</v>
+      </c>
+      <c r="H255" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" t="s">
         <v>253</v>
       </c>
-      <c r="B255" s="5">
+      <c r="B256" s="5">
         <v>5.38</v>
       </c>
-      <c r="C255" s="5">
+      <c r="C256" s="5">
         <v>5.54</v>
       </c>
-      <c r="D255" s="5">
-        <f t="shared" ref="D255" si="165">(C255-B255)/2</f>
+      <c r="D256" s="5">
+        <f t="shared" ref="D256" si="166">(C256-B256)/2</f>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="E255" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F255" s="5">
-        <f t="shared" ref="F255" si="166">C255+E255</f>
+      <c r="E256" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F256" s="5">
+        <f t="shared" ref="F256" si="167">C256+E256</f>
         <v>5.5430000000000001</v>
       </c>
-      <c r="G255" s="5">
-        <f t="shared" ref="G255" si="167">B255-E255</f>
+      <c r="G256" s="5">
+        <f t="shared" ref="G256" si="168">B256-E256</f>
         <v>5.3769999999999998</v>
       </c>
-      <c r="H255" t="s">
+      <c r="H256" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
-      <c r="A257" s="1" t="s">
+    <row r="258" spans="1:9">
+      <c r="A258" s="1" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9">
-      <c r="A259" t="s">
-        <v>231</v>
-      </c>
-      <c r="B259" s="5">
-        <v>0.875</v>
-      </c>
-      <c r="C259" s="5">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="D259" s="5">
-        <f t="shared" ref="D259" si="168">(C259-B259)/2</f>
-        <v>3.4999999999999976E-2</v>
-      </c>
-      <c r="E259" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F259" s="5">
-        <f t="shared" ref="F259" si="169">C259+E259</f>
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="G259" s="5">
-        <f t="shared" ref="G259" si="170">B259-E259</f>
-        <v>0.872</v>
-      </c>
-      <c r="H259" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="260" spans="1:9">
       <c r="A260" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B260" s="5">
-        <v>1.0649999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="C260" s="5">
-        <v>1.135</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="D260" s="5">
-        <f t="shared" ref="D260" si="171">(C260-B260)/2</f>
-        <v>3.5000000000000031E-2</v>
+        <f t="shared" ref="D260" si="169">(C260-B260)/2</f>
+        <v>3.4999999999999976E-2</v>
       </c>
       <c r="E260" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F260" s="5">
-        <f t="shared" ref="F260" si="172">C260+E260</f>
-        <v>1.1379999999999999</v>
+        <f t="shared" ref="F260" si="170">C260+E260</f>
+        <v>0.94799999999999995</v>
       </c>
       <c r="G260" s="5">
-        <f t="shared" ref="G260" si="173">B260-E260</f>
-        <v>1.0620000000000001</v>
+        <f t="shared" ref="G260" si="171">B260-E260</f>
+        <v>0.872</v>
       </c>
       <c r="H260" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="261" spans="1:9">
       <c r="A261" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B261" s="5">
-        <v>1.4350000000000001</v>
+        <v>1.0649999999999999</v>
       </c>
       <c r="C261" s="5">
-        <v>1.51</v>
+        <v>1.135</v>
       </c>
       <c r="D261" s="5">
-        <f t="shared" ref="D261" si="174">(C261-B261)/2</f>
-        <v>3.7499999999999978E-2</v>
+        <f t="shared" ref="D261" si="172">(C261-B261)/2</f>
+        <v>3.5000000000000031E-2</v>
       </c>
       <c r="E261" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F261" s="5">
-        <f t="shared" ref="F261" si="175">C261+E261</f>
-        <v>1.5129999999999999</v>
+        <f t="shared" ref="F261" si="173">C261+E261</f>
+        <v>1.1379999999999999</v>
       </c>
       <c r="G261" s="5">
-        <f t="shared" ref="G261" si="176">B261-E261</f>
-        <v>1.4320000000000002</v>
+        <f t="shared" ref="G261" si="174">B261-E261</f>
+        <v>1.0620000000000001</v>
       </c>
       <c r="H261" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="262" spans="1:9">
       <c r="A262" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B262" s="5">
-        <v>1.71</v>
+        <v>1.4350000000000001</v>
       </c>
       <c r="C262" s="5">
-        <v>1.8</v>
+        <v>1.51</v>
       </c>
       <c r="D262" s="5">
-        <f t="shared" ref="D262" si="177">(C262-B262)/2</f>
-        <v>4.500000000000004E-2</v>
+        <f t="shared" ref="D262" si="175">(C262-B262)/2</f>
+        <v>3.7499999999999978E-2</v>
       </c>
       <c r="E262" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F262" s="5">
-        <f t="shared" ref="F262" si="178">C262+E262</f>
-        <v>1.8029999999999999</v>
+        <f t="shared" ref="F262" si="176">C262+E262</f>
+        <v>1.5129999999999999</v>
       </c>
       <c r="G262" s="5">
-        <f t="shared" ref="G262" si="179">B262-E262</f>
-        <v>1.7070000000000001</v>
+        <f t="shared" ref="G262" si="177">B262-E262</f>
+        <v>1.4320000000000002</v>
       </c>
       <c r="H262" t="s">
-        <v>233</v>
-      </c>
-      <c r="I262" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:9">
       <c r="A263" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B263" s="5">
-        <v>2.0150000000000001</v>
+        <v>1.71</v>
       </c>
       <c r="C263" s="5">
-        <v>2.1349999999999998</v>
+        <v>1.8</v>
       </c>
       <c r="D263" s="5">
-        <f t="shared" ref="D263" si="180">(C263-B263)/2</f>
-        <v>5.9999999999999831E-2</v>
+        <f t="shared" ref="D263" si="178">(C263-B263)/2</f>
+        <v>4.500000000000004E-2</v>
       </c>
       <c r="E263" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F263" s="5">
-        <f t="shared" ref="F263" si="181">C263+E263</f>
-        <v>2.1379999999999999</v>
+        <f t="shared" ref="F263" si="179">C263+E263</f>
+        <v>1.8029999999999999</v>
       </c>
       <c r="G263" s="5">
-        <f t="shared" ref="G263" si="182">B263-E263</f>
-        <v>2.012</v>
+        <f t="shared" ref="G263" si="180">B263-E263</f>
+        <v>1.7070000000000001</v>
       </c>
       <c r="H263" t="s">
-        <v>260</v>
+        <v>233</v>
+      </c>
+      <c r="I263" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="264" spans="1:9">
       <c r="A264" t="s">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="B264" s="5">
-        <v>2.5449999999999999</v>
+        <v>2.0150000000000001</v>
       </c>
       <c r="C264" s="5">
-        <v>2.6150000000000002</v>
+        <v>2.1349999999999998</v>
       </c>
       <c r="D264" s="5">
-        <f t="shared" ref="D264" si="183">(C264-B264)/2</f>
-        <v>3.5000000000000142E-2</v>
+        <f t="shared" ref="D264" si="181">(C264-B264)/2</f>
+        <v>5.9999999999999831E-2</v>
       </c>
       <c r="E264" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F264" s="5">
-        <f t="shared" ref="F264" si="184">C264+E264</f>
-        <v>2.6180000000000003</v>
+        <f t="shared" ref="F264" si="182">C264+E264</f>
+        <v>2.1379999999999999</v>
       </c>
       <c r="G264" s="5">
-        <f t="shared" ref="G264" si="185">B264-E264</f>
-        <v>2.5419999999999998</v>
+        <f t="shared" ref="G264" si="183">B264-E264</f>
+        <v>2.012</v>
       </c>
       <c r="H264" t="s">
-        <v>234</v>
-      </c>
-      <c r="I264" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="265" spans="1:9">
       <c r="A265" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B265" s="5">
-        <v>2.8849999999999998</v>
+        <v>2.5449999999999999</v>
       </c>
       <c r="C265" s="5">
-        <v>2.9950000000000001</v>
+        <v>2.6150000000000002</v>
       </c>
       <c r="D265" s="5">
-        <f t="shared" ref="D265" si="186">(C265-B265)/2</f>
-        <v>5.500000000000016E-2</v>
+        <f t="shared" ref="D265" si="184">(C265-B265)/2</f>
+        <v>3.5000000000000142E-2</v>
       </c>
       <c r="E265" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F265" s="5">
-        <f t="shared" ref="F265" si="187">C265+E265</f>
-        <v>2.9980000000000002</v>
+        <f t="shared" ref="F265" si="185">C265+E265</f>
+        <v>2.6180000000000003</v>
       </c>
       <c r="G265" s="5">
-        <f t="shared" ref="G265" si="188">B265-E265</f>
-        <v>2.8819999999999997</v>
+        <f t="shared" ref="G265" si="186">B265-E265</f>
+        <v>2.5419999999999998</v>
       </c>
       <c r="H265" t="s">
-        <v>264</v>
+        <v>234</v>
+      </c>
+      <c r="I265" s="6" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="266" spans="1:9">
       <c r="A266" t="s">
+        <v>132</v>
+      </c>
+      <c r="B266" s="5">
+        <v>2.8849999999999998</v>
+      </c>
+      <c r="C266" s="5">
+        <v>2.9950000000000001</v>
+      </c>
+      <c r="D266" s="5">
+        <f t="shared" ref="D266" si="187">(C266-B266)/2</f>
+        <v>5.500000000000016E-2</v>
+      </c>
+      <c r="E266" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F266" s="5">
+        <f t="shared" ref="F266" si="188">C266+E266</f>
+        <v>2.9980000000000002</v>
+      </c>
+      <c r="G266" s="5">
+        <f t="shared" ref="G266" si="189">B266-E266</f>
+        <v>2.8819999999999997</v>
+      </c>
+      <c r="H266" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" t="s">
         <v>235</v>
       </c>
-      <c r="B266" s="5">
+      <c r="B267" s="5">
         <v>3.7850000000000001</v>
       </c>
-      <c r="C266" s="5">
+      <c r="C267" s="5">
         <v>3.895</v>
       </c>
-      <c r="D266" s="5">
-        <f t="shared" ref="D266" si="189">(C266-B266)/2</f>
+      <c r="D267" s="5">
+        <f t="shared" ref="D267" si="190">(C267-B267)/2</f>
         <v>5.4999999999999938E-2</v>
       </c>
-      <c r="E266" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F266" s="5">
-        <f t="shared" ref="F266" si="190">C266+E266</f>
+      <c r="E267" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F267" s="5">
+        <f t="shared" ref="F267" si="191">C267+E267</f>
         <v>3.8980000000000001</v>
       </c>
-      <c r="G266" s="5">
-        <f t="shared" ref="G266" si="191">B266-E266</f>
+      <c r="G267" s="5">
+        <f t="shared" ref="G267" si="192">B267-E267</f>
         <v>3.782</v>
       </c>
-      <c r="H266" t="s">
+      <c r="H267" t="s">
         <v>265</v>
       </c>
     </row>

--- a/data/body_tube_data.xlsx
+++ b/data/body_tube_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="2360" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="3480" yWindow="2360" windowWidth="28720" windowHeight="28120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="314">
   <si>
     <t>ID inches</t>
   </si>
@@ -1012,7 +1012,13 @@
     <t>7.5 in</t>
   </si>
   <si>
-    <t>Sizes all from Always Ready Rocketry site 2017</t>
+    <t>available in 48 and 72 inch lengths</t>
+  </si>
+  <si>
+    <t>ref alwaysreadyrocketry.com 2017</t>
+  </si>
+  <si>
+    <t>48 in length</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1128,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="289">
+  <cellStyleXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1214,6 +1220,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1437,7 +1447,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="289">
+  <cellStyles count="293">
     <cellStyle name="20% - Accent1" xfId="90" builtinId="30"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1582,6 +1592,8 @@
     <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -1726,6 +1738,8 @@
     <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2057,8 +2071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H101" sqref="H101"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4072,6 +4086,9 @@
       <c r="A98" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="H98" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1"/>
@@ -4131,7 +4148,7 @@
         <v>1.147</v>
       </c>
       <c r="H101" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4159,6 +4176,9 @@
         <f t="shared" si="26"/>
         <v>1.5170000000000001</v>
       </c>
+      <c r="H102" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
@@ -4185,6 +4205,9 @@
         <f t="shared" si="26"/>
         <v>2.1469999999999998</v>
       </c>
+      <c r="H103" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
@@ -4211,6 +4234,9 @@
         <f t="shared" si="26"/>
         <v>2.5569999999999999</v>
       </c>
+      <c r="H104" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
@@ -4237,6 +4263,9 @@
         <f t="shared" si="26"/>
         <v>2.9969999999999999</v>
       </c>
+      <c r="H105" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
@@ -4263,6 +4292,9 @@
         <f t="shared" si="26"/>
         <v>3.8969999999999998</v>
       </c>
+      <c r="H106" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
@@ -4289,6 +4321,9 @@
         <f t="shared" si="26"/>
         <v>5.4969999999999999</v>
       </c>
+      <c r="H107" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
@@ -4315,6 +4350,9 @@
         <f t="shared" si="26"/>
         <v>5.9969999999999999</v>
       </c>
+      <c r="H108" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
@@ -4340,6 +4378,9 @@
       <c r="G109" s="5">
         <f t="shared" si="26"/>
         <v>7.4969999999999999</v>
+      </c>
+      <c r="H109" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="111" spans="1:9">
